--- a/Basic/Tony_Huang/Book1.xlsx
+++ b/Basic/Tony_Huang/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhua835\Downloads\ec209-project-2023_team-22\Basic\Tony_Huang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8065DF4D-ECA7-4976-A811-37EA546694E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF06F6AA-5C40-4D5D-A0FA-277DF8CEBE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B7E05461-0193-4B7E-975C-B664CF06D085}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>rms: 9605</t>
   </si>
@@ -94,6 +94,45 @@
   <si>
     <t>Current</t>
   </si>
+  <si>
+    <t>Voltage(V)</t>
+  </si>
+  <si>
+    <t>Current(A)</t>
+  </si>
+  <si>
+    <t>Voltage * 100</t>
+  </si>
+  <si>
+    <t>Current (mA)</t>
+  </si>
+  <si>
+    <t>Current missing first point</t>
+  </si>
+  <si>
+    <t>Voltage missing last point</t>
+  </si>
+  <si>
+    <t>Voltage_bar</t>
+  </si>
+  <si>
+    <t>Current_bar</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Voltage bar</t>
+  </si>
+  <si>
+    <t>Current bar</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>calculate the rms of the current I forgot what value it was…..</t>
+  </si>
 </sst>
 </file>
 
@@ -145,6 +184,1156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D18-4CD8-AD2B-A79BA19E322B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D18-4CD8-AD2B-A79BA19E322B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="613827712"/>
+        <c:axId val="416204800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="613827712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416204800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416204800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613827712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34256068-302B-B30F-ECD3-BC5B9500C7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,669 +1633,2893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F34B049-2C4F-43C1-AAC7-5FF518FB1B35}">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AK138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>477</v>
+      </c>
+      <c r="B2">
+        <f>ABS((A2*5/1024)-2.05) *22</f>
+        <v>6.1402343750000039</v>
+      </c>
+      <c r="C2">
+        <f>(B2+B3)/2</f>
+        <v>12.048437500000006</v>
+      </c>
+      <c r="D2">
+        <v>356</v>
+      </c>
+      <c r="E2">
+        <f>ABS(D2*5/1024-2.05)*2</f>
+        <v>0.62343749999999964</v>
+      </c>
+      <c r="F2">
+        <f>(E41+E2)/2</f>
+        <v>0.4345703125</v>
+      </c>
+      <c r="G2">
+        <f>(B2*F2+C2*E2)</f>
+        <v>10.179811325073242</v>
+      </c>
+      <c r="H2" t="e">
+        <f>SUM(G2:G41)/80/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R2">
         <v>506</v>
       </c>
-      <c r="B2">
+      <c r="S2">
         <v>1216</v>
       </c>
-      <c r="C2">
-        <f xml:space="preserve"> A2/100</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T41" si="0" xml:space="preserve"> R2/100</f>
         <v>5.0599999999999996</v>
       </c>
-      <c r="D2">
-        <f>B2 /1000</f>
+      <c r="U2">
+        <f>S2 /1000</f>
         <v>1.216</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <f xml:space="preserve"> R2/100</f>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z2">
+        <f>(Y2+Y3)/2</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="AA2">
+        <f>S2 /1000</f>
+        <v>1.216</v>
+      </c>
+      <c r="AB2">
+        <f>(AA41+AA2)/2</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="AD2">
+        <f xml:space="preserve"> (Y2*AB2 + AA2*Z2)</f>
+        <v>14.949439999999999</v>
+      </c>
+      <c r="AE2">
+        <f>AD2/80</f>
+        <v>0.18686799999999998</v>
+      </c>
+      <c r="AF2">
+        <f>SUM(AE2:AE41)</f>
+        <v>10.619779500000002</v>
+      </c>
+      <c r="AI2">
+        <f>(AE2*AE2)</f>
+        <v>3.4919649423999992E-2</v>
+      </c>
+      <c r="AJ2">
+        <f>SUM(AI2:AI41)</f>
+        <v>3.3237060299203738</v>
+      </c>
+      <c r="AK2">
+        <f>SQRT(AJ2)</f>
+        <v>1.8231034062609761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>587</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B41" si="1">ABS((A3*5/1024)-2.05) *22</f>
+        <v>17.956640625000006</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C41" si="2">(B3+B4)/2</f>
+        <v>18.386328125000006</v>
+      </c>
+      <c r="D3">
+        <v>470</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="3">ABS(D3*5/1024-2.05)*2</f>
+        <v>0.48984375000000036</v>
+      </c>
+      <c r="F3" t="e">
+        <f t="shared" ref="F3:F41" si="4">(E42+E3)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G3" t="e">
+        <f t="shared" ref="G3:G41" si="5">(B3*F3+C3*E3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R3">
         <v>1034</v>
       </c>
-      <c r="B3">
+      <c r="S3">
         <v>308</v>
       </c>
-      <c r="C3">
-        <f xml:space="preserve"> A3/100</f>
+      <c r="T3">
+        <f t="shared" si="0"/>
         <v>10.34</v>
       </c>
-      <c r="D3">
-        <f>B3 /1000</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U41" si="6">S3 /1000</f>
         <v>0.308</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <f xml:space="preserve"> R3/100</f>
+        <v>10.34</v>
+      </c>
+      <c r="Z3">
+        <f>(Y3+Y4)/2</f>
+        <v>14.959999999999999</v>
+      </c>
+      <c r="AA3">
+        <f>S3 /1000</f>
+        <v>0.308</v>
+      </c>
+      <c r="AB3">
+        <f>(AA2+AA3)/2</f>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD41" si="7" xml:space="preserve"> (Y3*AB3 + AA3*Z3)</f>
+        <v>12.48676</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE41" si="8">AD3/80</f>
+        <v>0.15608450000000001</v>
+      </c>
+      <c r="AI3">
+        <f>(AE3*AE3)</f>
+        <v>2.4362371140250003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>595</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>18.816015625000006</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>13.498632812500006</v>
+      </c>
+      <c r="D4">
+        <v>554</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>1.3101562500000004</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>0.65507812500000018</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>30.011278381347672</v>
+      </c>
+      <c r="R4">
         <v>1958</v>
       </c>
-      <c r="B4">
+      <c r="S4">
         <v>796</v>
       </c>
-      <c r="C4">
-        <f xml:space="preserve"> A4/100</f>
+      <c r="T4">
+        <f t="shared" si="0"/>
         <v>19.579999999999998</v>
       </c>
-      <c r="D4">
-        <f>B4 /1000</f>
+      <c r="U4">
+        <f t="shared" si="6"/>
         <v>0.79600000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <f xml:space="preserve"> R4/100</f>
+        <v>19.579999999999998</v>
+      </c>
+      <c r="Z4">
+        <f>(Y4+Y5)/2</f>
+        <v>18.259999999999998</v>
+      </c>
+      <c r="AA4">
+        <f>S4 /1000</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AB4">
+        <f>(AA3+AA4)/2</f>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="7"/>
+        <v>25.343119999999999</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="8"/>
+        <v>0.31678899999999999</v>
+      </c>
+      <c r="AI4">
+        <f>(AE4*AE4)</f>
+        <v>0.10035527052099999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>496</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>8.1812500000000039</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>7.841796875</v>
+      </c>
+      <c r="D5">
+        <v>556</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1.3296875000000004</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>0.66484375000000018</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>15.86639221191407</v>
+      </c>
+      <c r="R5">
         <v>1694</v>
       </c>
-      <c r="B5">
+      <c r="S5">
         <v>1412</v>
       </c>
-      <c r="C5">
-        <f xml:space="preserve"> A5/100</f>
+      <c r="T5">
+        <f t="shared" si="0"/>
         <v>16.940000000000001</v>
       </c>
-      <c r="D5">
-        <f>B5 /1000</f>
+      <c r="U5">
+        <f t="shared" si="6"/>
         <v>1.4119999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <f xml:space="preserve"> R5/100</f>
+        <v>16.940000000000001</v>
+      </c>
+      <c r="Z5">
+        <f>(Y5+Y6)/2</f>
+        <v>10.450000000000001</v>
+      </c>
+      <c r="AA5">
+        <f>S5 /1000</f>
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="AB5">
+        <f>(AA4+AA5)/2</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="7"/>
+        <v>33.457160000000002</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="8"/>
+        <v>0.41821450000000004</v>
+      </c>
+      <c r="AI5">
+        <f>(AE5*AE5)</f>
+        <v>0.17490336801025003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>7.5023437499999961</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>13.356835937499994</v>
+      </c>
+      <c r="D6">
+        <v>380</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>0.38906249999999964</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>0.19453124999999982</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>6.6560842895507726</v>
+      </c>
+      <c r="R6">
         <v>396</v>
       </c>
-      <c r="B6">
+      <c r="S6">
         <v>454</v>
       </c>
-      <c r="C6">
-        <f xml:space="preserve"> A6/100</f>
+      <c r="T6">
+        <f t="shared" si="0"/>
         <v>3.96</v>
       </c>
-      <c r="D6">
-        <f>B6 /1000</f>
+      <c r="U6">
+        <f t="shared" si="6"/>
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <f xml:space="preserve"> R6/100</f>
+        <v>3.96</v>
+      </c>
+      <c r="Z6">
+        <f>(Y6+Y7)/2</f>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="AA6">
+        <f>S6 /1000</f>
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AB6">
+        <f>(AA5+AA6)/2</f>
+        <v>0.93299999999999994</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="7"/>
+        <v>8.888440000000001</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="8"/>
+        <v>0.11110550000000001</v>
+      </c>
+      <c r="AI6">
+        <f>(AE6*AE6)</f>
+        <v>1.2344432130250002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>241</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>19.211328124999994</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>14.377343749999994</v>
+      </c>
+      <c r="D7">
+        <v>291</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1.2582031249999996</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>0.62910156249999982</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>30.175495376586895</v>
+      </c>
+      <c r="R7">
         <v>1892</v>
       </c>
-      <c r="B7">
+      <c r="S7">
         <v>658</v>
       </c>
-      <c r="C7">
-        <f xml:space="preserve"> A7/100</f>
+      <c r="T7">
+        <f t="shared" si="0"/>
         <v>18.920000000000002</v>
       </c>
-      <c r="D7">
-        <f>B7 /1000</f>
+      <c r="U7">
+        <f t="shared" si="6"/>
         <v>0.65800000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <f xml:space="preserve"> R7/100</f>
+        <v>18.920000000000002</v>
+      </c>
+      <c r="Z7">
+        <f>(Y7+Y8)/2</f>
+        <v>18.260000000000002</v>
+      </c>
+      <c r="AA7">
+        <f>S7 /1000</f>
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="AB7">
+        <f>(AA6+AA7)/2</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="7"/>
+        <v>22.534600000000005</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="8"/>
+        <v>0.28168250000000006</v>
+      </c>
+      <c r="AI7">
+        <f>(AE7*AE7)</f>
+        <v>7.9345030806250036E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>331</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>9.5433593749999961</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>7.7880859375</v>
+      </c>
+      <c r="D8">
+        <v>280</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1.3656249999999996</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>0.68281249999999982</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>17.151929931640616</v>
+      </c>
+      <c r="R8">
         <v>1760</v>
       </c>
-      <c r="B8">
+      <c r="S8">
         <v>1372</v>
       </c>
-      <c r="C8">
-        <f xml:space="preserve"> A8/100</f>
+      <c r="T8">
+        <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="D8">
-        <f>B8 /1000</f>
+      <c r="U8">
+        <f t="shared" si="6"/>
         <v>1.3720000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <f xml:space="preserve"> R8/100</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Z8">
+        <f>(Y8+Y9)/2</f>
+        <v>11.55</v>
+      </c>
+      <c r="AA8">
+        <f>S8 /1000</f>
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="AB8">
+        <f>(AA7+AA8)/2</f>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="7"/>
+        <v>33.710600000000007</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="8"/>
+        <v>0.4213825000000001</v>
+      </c>
+      <c r="AI8">
+        <f>(AE8*AE8)</f>
+        <v>0.17756321130625008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>476</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>6.0328125000000039</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>11.994726562500006</v>
+      </c>
+      <c r="D9">
+        <v>356</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.62343749999999964</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0.31171874999999982</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>9.3585031127929685</v>
+      </c>
+      <c r="R9">
         <v>550</v>
       </c>
-      <c r="B9">
+      <c r="S9">
         <v>1234</v>
       </c>
-      <c r="C9">
-        <f xml:space="preserve"> A9/100</f>
+      <c r="T9">
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D9">
-        <f>B9 /1000</f>
+      <c r="U9">
+        <f t="shared" si="6"/>
         <v>1.234</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <f xml:space="preserve"> R9/100</f>
+        <v>5.5</v>
+      </c>
+      <c r="Z9">
+        <f>(Y9+Y10)/2</f>
+        <v>7.7</v>
+      </c>
+      <c r="AA9">
+        <f>S9 /1000</f>
+        <v>1.234</v>
+      </c>
+      <c r="AB9">
+        <f>(AA8+AA9)/2</f>
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="7"/>
+        <v>16.668299999999999</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>0.20835374999999998</v>
+      </c>
+      <c r="AI9">
+        <f>(AE9*AE9)</f>
+        <v>4.3411285139062492E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>587</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>17.956640625000006</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>18.386328125000006</v>
+      </c>
+      <c r="D10">
+        <v>470</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.48984375000000036</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0.24492187500000018</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>13.404402008056653</v>
+      </c>
+      <c r="R10">
         <v>990</v>
       </c>
-      <c r="B10">
+      <c r="S10">
         <v>336</v>
       </c>
-      <c r="C10">
-        <f xml:space="preserve"> A10/100</f>
+      <c r="T10">
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="D10">
-        <f>B10 /1000</f>
+      <c r="U10">
+        <f t="shared" si="6"/>
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <f xml:space="preserve"> R10/100</f>
+        <v>9.9</v>
+      </c>
+      <c r="Z10">
+        <f>(Y10+Y11)/2</f>
+        <v>14.739999999999998</v>
+      </c>
+      <c r="AA10">
+        <f>S10 /1000</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AB10">
+        <f>(AA9+AA10)/2</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="7"/>
+        <v>12.72414</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="8"/>
+        <v>0.15905174999999999</v>
+      </c>
+      <c r="AI10">
+        <f>(AE10*AE10)</f>
+        <v>2.5297459178062497E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>595</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>18.816015625000006</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9.6314453125000057</v>
+      </c>
+      <c r="D11">
+        <v>567</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>1.4371093750000004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0.71855468750000018</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>27.361776580810563</v>
+      </c>
+      <c r="R11">
         <v>1958</v>
       </c>
-      <c r="B11">
+      <c r="S11">
         <v>1188</v>
       </c>
-      <c r="C11">
-        <f xml:space="preserve"> A11/100</f>
+      <c r="T11">
+        <f t="shared" si="0"/>
         <v>19.579999999999998</v>
       </c>
-      <c r="D11">
-        <f>B11 /1000</f>
+      <c r="U11">
+        <f t="shared" si="6"/>
         <v>1.1879999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <f xml:space="preserve"> R11/100</f>
+        <v>19.579999999999998</v>
+      </c>
+      <c r="Z11">
+        <f>(Y11+Y12)/2</f>
+        <v>15.62</v>
+      </c>
+      <c r="AA11">
+        <f>S11 /1000</f>
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="AB11">
+        <f>(AA10+AA11)/2</f>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="7"/>
+        <v>33.476519999999994</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="8"/>
+        <v>0.4184564999999999</v>
+      </c>
+      <c r="AI11">
+        <f>(AE11*AE11)</f>
+        <v>0.17510584239224991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>424</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0.44687500000000391</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>7.2509765625</v>
+      </c>
+      <c r="D12">
+        <v>524</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>1.0171875000000004</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0.50859375000000018</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>7.6028805541992233</v>
+      </c>
+      <c r="R12">
         <v>1166</v>
       </c>
-      <c r="B12">
+      <c r="S12">
         <v>1412</v>
       </c>
-      <c r="C12">
-        <f xml:space="preserve"> A12/100</f>
+      <c r="T12">
+        <f t="shared" si="0"/>
         <v>11.66</v>
       </c>
-      <c r="D12">
-        <f>B12 /1000</f>
+      <c r="U12">
+        <f t="shared" si="6"/>
         <v>1.4119999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <f xml:space="preserve"> R12/100</f>
+        <v>11.66</v>
+      </c>
+      <c r="Z12">
+        <f>(Y12+Y13)/2</f>
+        <v>7.7</v>
+      </c>
+      <c r="AA12">
+        <f>S12 /1000</f>
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="AB12">
+        <f>(AA11+AA12)/2</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="7"/>
+        <v>26.030399999999997</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="8"/>
+        <v>0.32537999999999995</v>
+      </c>
+      <c r="AI12">
+        <f>(AE12*AE12)</f>
+        <v>0.10587214439999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>289</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>14.055078124999996</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>17.009179687499994</v>
+      </c>
+      <c r="D13">
+        <v>417</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>2.7734374999999645E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>1.3867187499999822E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0.66664337158202258</v>
+      </c>
+      <c r="R13">
         <v>374</v>
       </c>
-      <c r="B13">
+      <c r="S13">
         <v>776</v>
       </c>
-      <c r="C13">
-        <f xml:space="preserve"> A13/100</f>
+      <c r="T13">
+        <f t="shared" si="0"/>
         <v>3.74</v>
       </c>
-      <c r="D13">
-        <f>B13 /1000</f>
+      <c r="U13">
+        <f t="shared" si="6"/>
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <f xml:space="preserve"> R13/100</f>
+        <v>3.74</v>
+      </c>
+      <c r="Z13">
+        <f>(Y13+Y14)/2</f>
+        <v>10.23</v>
+      </c>
+      <c r="AA13">
+        <f>S13 /1000</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AB13">
+        <f>(AA12+AA13)/2</f>
+        <v>1.0939999999999999</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="7"/>
+        <v>12.03004</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="8"/>
+        <v>0.1503755</v>
+      </c>
+      <c r="AI13">
+        <f>(AE13*AE13)</f>
+        <v>2.2612791000249998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>234</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>19.963281249999994</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>16.794335937499994</v>
+      </c>
+      <c r="D14">
+        <v>312</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>1.0531249999999996</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>0.52656249999999982</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>28.198450317382793</v>
+      </c>
+      <c r="R14">
         <v>1672</v>
       </c>
-      <c r="B14">
+      <c r="S14">
         <v>326</v>
       </c>
-      <c r="C14">
-        <f xml:space="preserve"> A14/100</f>
+      <c r="T14">
+        <f t="shared" si="0"/>
         <v>16.72</v>
       </c>
-      <c r="D14">
-        <f>B14 /1000</f>
+      <c r="U14">
+        <f t="shared" si="6"/>
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <f xml:space="preserve"> R14/100</f>
+        <v>16.72</v>
+      </c>
+      <c r="Z14">
+        <f>(Y14+Y15)/2</f>
+        <v>18.04</v>
+      </c>
+      <c r="AA14">
+        <f>S14 /1000</f>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AB14">
+        <f>(AA13+AA14)/2</f>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="7"/>
+        <v>15.09376</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="8"/>
+        <v>0.18867200000000001</v>
+      </c>
+      <c r="AI14">
+        <f>(AE14*AE14)</f>
+        <v>3.5597123584000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>293</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>13.625390624999996</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7.3583984375</v>
+      </c>
+      <c r="D15">
+        <v>274</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1.4242187499999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>0.71210937499999982</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>20.182737426757804</v>
+      </c>
+      <c r="R15">
         <v>1936</v>
       </c>
-      <c r="B15">
+      <c r="S15">
         <v>1234</v>
       </c>
-      <c r="C15">
-        <f xml:space="preserve"> A15/100</f>
+      <c r="T15">
+        <f t="shared" si="0"/>
         <v>19.36</v>
       </c>
-      <c r="D15">
-        <f>B15 /1000</f>
+      <c r="U15">
+        <f t="shared" si="6"/>
         <v>1.234</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <f xml:space="preserve"> R15/100</f>
+        <v>19.36</v>
+      </c>
+      <c r="Z15">
+        <f>(Y15+Y16)/2</f>
+        <v>14.739999999999998</v>
+      </c>
+      <c r="AA15">
+        <f>S15 /1000</f>
+        <v>1.234</v>
+      </c>
+      <c r="AB15">
+        <f>(AA14+AA15)/2</f>
+        <v>0.78</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="7"/>
+        <v>33.289959999999994</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="8"/>
+        <v>0.4161244999999999</v>
+      </c>
+      <c r="AI15">
+        <f>(AE15*AE15)</f>
+        <v>0.17315959950024992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>430</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1.0914062500000039</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>10.114843750000006</v>
+      </c>
+      <c r="D16">
+        <v>378</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0.40859374999999964</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>0.20429687499999982</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>4.355832824707031</v>
+      </c>
+      <c r="R16">
         <v>1012</v>
       </c>
-      <c r="B16">
+      <c r="S16">
         <v>1108</v>
       </c>
-      <c r="C16">
-        <f xml:space="preserve"> A16/100</f>
+      <c r="T16">
+        <f t="shared" si="0"/>
         <v>10.119999999999999</v>
       </c>
-      <c r="D16">
-        <f>B16 /1000</f>
+      <c r="U16">
+        <f t="shared" si="6"/>
         <v>1.1080000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f xml:space="preserve"> R16/100</f>
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Z16">
+        <f>(Y16+Y17)/2</f>
+        <v>11.329999999999998</v>
+      </c>
+      <c r="AA16">
+        <f>S16 /1000</f>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="AB16">
+        <f>(AA15+AA16)/2</f>
+        <v>1.171</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="7"/>
+        <v>24.404159999999997</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="8"/>
+        <v>0.30505199999999999</v>
+      </c>
+      <c r="AI16">
+        <f>(AE16*AE16)</f>
+        <v>9.3056722703999992E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>598</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>19.138281250000006</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>18.332617187500006</v>
+      </c>
+      <c r="D17">
+        <v>491</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.69492187500000036</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>0.34746093750000018</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>19.389541854858415</v>
+      </c>
+      <c r="R17">
         <v>1254</v>
       </c>
-      <c r="B17">
+      <c r="S17">
         <v>112</v>
       </c>
-      <c r="C17">
-        <f xml:space="preserve"> A17/100</f>
+      <c r="T17">
+        <f t="shared" si="0"/>
         <v>12.54</v>
       </c>
-      <c r="D17">
-        <f>B17 /1000</f>
+      <c r="U17">
+        <f t="shared" si="6"/>
         <v>0.112</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <f xml:space="preserve"> R17/100</f>
+        <v>12.54</v>
+      </c>
+      <c r="Z17">
+        <f>(Y17+Y18)/2</f>
+        <v>16.28</v>
+      </c>
+      <c r="AA17">
+        <f>S17 /1000</f>
+        <v>0.112</v>
+      </c>
+      <c r="AB17">
+        <f>(AA16+AA17)/2</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="7"/>
+        <v>9.472760000000001</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="8"/>
+        <v>0.11840950000000001</v>
+      </c>
+      <c r="AI17">
+        <f>(AE17*AE17)</f>
+        <v>1.4020809690250003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>583</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>17.526953125000006</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>11.403906250000006</v>
+      </c>
+      <c r="D18">
+        <v>562</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>1.3882812500000004</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>0.69414062500000018</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>27.997999420166035</v>
+      </c>
+      <c r="R18">
         <v>2002</v>
       </c>
-      <c r="B18">
+      <c r="S18">
         <v>942</v>
       </c>
-      <c r="C18">
-        <f xml:space="preserve"> A18/100</f>
+      <c r="T18">
+        <f t="shared" si="0"/>
         <v>20.02</v>
       </c>
-      <c r="D18">
-        <f>B18 /1000</f>
+      <c r="U18">
+        <f t="shared" si="6"/>
         <v>0.94199999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <f xml:space="preserve"> R18/100</f>
+        <v>20.02</v>
+      </c>
+      <c r="Z18">
+        <f>(Y18+Y19)/2</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AA18">
+        <f>S18 /1000</f>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="AB18">
+        <f>(AA17+AA18)/2</f>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="7"/>
+        <v>27.129739999999998</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="8"/>
+        <v>0.33912175</v>
+      </c>
+      <c r="AI18">
+        <f>(AE18*AE18)</f>
+        <v>0.1150035613230625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>469</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>5.2808593750000039</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>7.7880859375</v>
+      </c>
+      <c r="D19">
+        <v>546</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>1.2320312500000004</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>0.61601562500000018</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>12.848257141113288</v>
+      </c>
+      <c r="R19">
         <v>1518</v>
       </c>
-      <c r="B19">
+      <c r="S19">
         <v>1432</v>
       </c>
-      <c r="C19">
-        <f xml:space="preserve"> A19/100</f>
+      <c r="T19">
+        <f t="shared" si="0"/>
         <v>15.18</v>
       </c>
-      <c r="D19">
-        <f>B19 /1000</f>
+      <c r="U19">
+        <f t="shared" si="6"/>
         <v>1.4319999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <f xml:space="preserve"> R19/100</f>
+        <v>15.18</v>
+      </c>
+      <c r="Z19">
+        <f>(Y19+Y20)/2</f>
+        <v>8.14</v>
+      </c>
+      <c r="AA19">
+        <f>S19 /1000</f>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="AB19">
+        <f>(AA18+AA19)/2</f>
+        <v>1.1869999999999998</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="7"/>
+        <v>29.675139999999999</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="8"/>
+        <v>0.37093925</v>
+      </c>
+      <c r="AI19">
+        <f>(AE19*AE19)</f>
+        <v>0.13759592719056249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>324</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>10.295312499999996</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>14.914453124999994</v>
+      </c>
+      <c r="D20">
+        <v>452</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.31406250000000036</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.15703125000000018</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>6.3007562255859426</v>
+      </c>
+      <c r="R20">
         <v>110</v>
       </c>
-      <c r="B20">
+      <c r="S20">
         <v>1040</v>
       </c>
-      <c r="C20">
-        <f xml:space="preserve"> A20/100</f>
+      <c r="T20">
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20">
-        <f>B20 /1000</f>
+      <c r="U20">
+        <f t="shared" si="6"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <f xml:space="preserve"> R20/100</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z20">
+        <f>(Y20+Y21)/2</f>
+        <v>7.37</v>
+      </c>
+      <c r="AA20">
+        <f>S20 /1000</f>
+        <v>1.04</v>
+      </c>
+      <c r="AB20">
+        <f>(AA19+AA20)/2</f>
+        <v>1.236</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="7"/>
+        <v>9.0244</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="8"/>
+        <v>0.112805</v>
+      </c>
+      <c r="AI20">
+        <f>(AE20*AE20)</f>
+        <v>1.2724968025E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>238</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>19.533593749999994</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>15.397851562499994</v>
+      </c>
+      <c r="D21">
+        <v>298</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1.1898437499999996</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.59492187499999982</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>29.941999664306621</v>
+      </c>
+      <c r="R21">
         <v>1364</v>
       </c>
-      <c r="B21">
+      <c r="S21">
         <v>552</v>
       </c>
-      <c r="C21">
-        <f xml:space="preserve"> A21/100</f>
+      <c r="T21">
+        <f t="shared" si="0"/>
         <v>13.64</v>
       </c>
-      <c r="D21">
-        <f>B21 /1000</f>
+      <c r="U21">
+        <f t="shared" si="6"/>
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <f xml:space="preserve"> R21/100</f>
+        <v>13.64</v>
+      </c>
+      <c r="Z21">
+        <f>(Y21+Y22)/2</f>
+        <v>16.060000000000002</v>
+      </c>
+      <c r="AA21">
+        <f>S21 /1000</f>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AB21">
+        <f>(AA20+AA21)/2</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="7"/>
+        <v>19.722560000000001</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="8"/>
+        <v>0.24653200000000003</v>
+      </c>
+      <c r="AI21">
+        <f>(AE21*AE21)</f>
+        <v>6.0778027024000016E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>315</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>11.262109374999996</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>7.6806640625</v>
+      </c>
+      <c r="D22">
+        <v>276</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1.4046874999999996</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>0.70234374999999982</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>18.698804931640616</v>
+      </c>
+      <c r="R22">
         <v>1848</v>
       </c>
-      <c r="B22">
+      <c r="S22">
         <v>1322</v>
       </c>
-      <c r="C22">
-        <f xml:space="preserve"> A22/100</f>
+      <c r="T22">
+        <f t="shared" si="0"/>
         <v>18.48</v>
       </c>
-      <c r="D22">
-        <f>B22 /1000</f>
+      <c r="U22">
+        <f t="shared" si="6"/>
         <v>1.3220000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <f xml:space="preserve"> R22/100</f>
+        <v>18.48</v>
+      </c>
+      <c r="Z22">
+        <f>(Y22+Y23)/2</f>
+        <v>12.870000000000001</v>
+      </c>
+      <c r="AA22">
+        <f>S22 /1000</f>
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="AB22">
+        <f>(AA21+AA22)/2</f>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>34.329900000000002</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="8"/>
+        <v>0.42912375000000003</v>
+      </c>
+      <c r="AI22">
+        <f>(AE22*AE22)</f>
+        <v>0.18414719281406253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>458</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>4.0992187500000039</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>10.490820312500006</v>
+      </c>
+      <c r="D23">
+        <v>343</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.75039062499999964</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>0.37519531249999982</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>9.4102208709716813</v>
+      </c>
+      <c r="R23">
         <v>726</v>
       </c>
-      <c r="B23">
+      <c r="S23">
         <v>1304</v>
       </c>
-      <c r="C23">
-        <f xml:space="preserve"> A23/100</f>
+      <c r="T23">
+        <f t="shared" si="0"/>
         <v>7.26</v>
       </c>
-      <c r="D23">
-        <f>B23 /1000</f>
+      <c r="U23">
+        <f t="shared" si="6"/>
         <v>1.304</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <f xml:space="preserve"> R23/100</f>
+        <v>7.26</v>
+      </c>
+      <c r="Z23">
+        <f>(Y23+Y24)/2</f>
+        <v>7.81</v>
+      </c>
+      <c r="AA23">
+        <f>S23 /1000</f>
+        <v>1.304</v>
+      </c>
+      <c r="AB23">
+        <f>(AA22+AA23)/2</f>
+        <v>1.3130000000000002</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="7"/>
+        <v>19.716619999999999</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="8"/>
+        <v>0.24645774999999998</v>
+      </c>
+      <c r="AI23">
+        <f>(AE23*AE23)</f>
+        <v>6.0741422535062491E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>577</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>16.882421875000006</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>18.171484375000006</v>
+      </c>
+      <c r="D24">
+        <v>456</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.35312500000000036</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>0.17656250000000018</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>9.3976080322265751</v>
+      </c>
+      <c r="R24">
         <v>836</v>
       </c>
-      <c r="B24">
+      <c r="S24">
         <v>464</v>
       </c>
-      <c r="C24">
-        <f xml:space="preserve"> A24/100</f>
+      <c r="T24">
+        <f t="shared" si="0"/>
         <v>8.36</v>
       </c>
-      <c r="D24">
-        <f>B24 /1000</f>
+      <c r="U24">
+        <f t="shared" si="6"/>
         <v>0.46400000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <f xml:space="preserve"> R24/100</f>
+        <v>8.36</v>
+      </c>
+      <c r="Z24">
+        <f>(Y24+Y25)/2</f>
+        <v>13.64</v>
+      </c>
+      <c r="AA24">
+        <f>S24 /1000</f>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AB24">
+        <f>(AA23+AA24)/2</f>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="7"/>
+        <v>13.719200000000001</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="8"/>
+        <v>0.17149</v>
+      </c>
+      <c r="AI24">
+        <f>(AE24*AE24)</f>
+        <v>2.94088201E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>601</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>19.460546875000006</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>14.733984375000006</v>
+      </c>
+      <c r="D25">
+        <v>547</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>1.2417968750000004</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0.62089843750000018</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>30.379638900756852</v>
+      </c>
+      <c r="R25">
         <v>1892</v>
       </c>
-      <c r="B25">
+      <c r="S25">
         <v>650</v>
       </c>
-      <c r="C25">
-        <f xml:space="preserve"> A25/100</f>
+      <c r="T25">
+        <f t="shared" si="0"/>
         <v>18.920000000000002</v>
       </c>
-      <c r="D25">
-        <f>B25 /1000</f>
+      <c r="U25">
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <f xml:space="preserve"> R25/100</f>
+        <v>18.920000000000002</v>
+      </c>
+      <c r="Z25">
+        <f>(Y25+Y26)/2</f>
+        <v>18.48</v>
+      </c>
+      <c r="AA25">
+        <f>S25 /1000</f>
+        <v>0.65</v>
+      </c>
+      <c r="AB25">
+        <f>(AA24+AA25)/2</f>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="7"/>
+        <v>22.550440000000002</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="8"/>
+        <v>0.28188050000000003</v>
+      </c>
+      <c r="AI25">
+        <f>(AE25*AE25)</f>
+        <v>7.9456616280250025E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>513</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>10.007421875000004</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>11.3330078125</v>
+      </c>
+      <c r="D26">
+        <v>533</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>1.1050781250000004</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>0.55253906250000018</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>18.053350524902349</v>
+      </c>
+      <c r="R26">
         <v>1804</v>
       </c>
-      <c r="B26">
+      <c r="S26">
         <v>1432</v>
       </c>
-      <c r="C26">
-        <f xml:space="preserve"> A26/100</f>
+      <c r="T26">
+        <f t="shared" si="0"/>
         <v>18.04</v>
       </c>
-      <c r="D26">
-        <f>B26 /1000</f>
+      <c r="U26">
+        <f t="shared" si="6"/>
         <v>1.4319999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <f xml:space="preserve"> R26/100</f>
+        <v>18.04</v>
+      </c>
+      <c r="Z26">
+        <f>(Y26+Y27)/2</f>
+        <v>9.9</v>
+      </c>
+      <c r="AA26">
+        <f>S26 /1000</f>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="AB26">
+        <f>(AA25+AA26)/2</f>
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>32.956440000000001</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="8"/>
+        <v>0.41195550000000003</v>
+      </c>
+      <c r="AI26">
+        <f>(AE26*AE26)</f>
+        <v>0.16970733398025004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>302</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>12.658593749999996</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>16.257226562499994</v>
+      </c>
+      <c r="D27">
+        <v>431</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.10898437500000036</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>5.4492187500000178E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>2.4615781402587964</v>
+      </c>
+      <c r="R27">
         <v>176</v>
       </c>
-      <c r="B27">
+      <c r="S27">
         <v>904</v>
       </c>
-      <c r="C27">
-        <f xml:space="preserve"> A27/100</f>
+      <c r="T27">
+        <f t="shared" si="0"/>
         <v>1.76</v>
       </c>
-      <c r="D27">
-        <f>B27 /1000</f>
+      <c r="U27">
+        <f t="shared" si="6"/>
         <v>0.90400000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <f xml:space="preserve"> R27/100</f>
+        <v>1.76</v>
+      </c>
+      <c r="Z27">
+        <f>(Y27+Y28)/2</f>
+        <v>8.58</v>
+      </c>
+      <c r="AA27">
+        <f>S27 /1000</f>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AB27">
+        <f>(AA26+AA27)/2</f>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="7"/>
+        <v>9.8120000000000012</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="8"/>
+        <v>0.12265000000000001</v>
+      </c>
+      <c r="AI27">
+        <f>(AE27*AE27)</f>
+        <v>1.5043022500000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>235</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>19.855859374999994</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>17.438867187499994</v>
+      </c>
+      <c r="D28">
+        <v>323</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.94570312499999964</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0.47285156249999982</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>25.880865325927715</v>
+      </c>
+      <c r="R28">
         <v>1540</v>
       </c>
-      <c r="B28">
+      <c r="S28">
         <v>180</v>
       </c>
-      <c r="C28">
-        <f xml:space="preserve"> A28/100</f>
+      <c r="T28">
+        <f t="shared" si="0"/>
         <v>15.4</v>
       </c>
-      <c r="D28">
-        <f>B28 /1000</f>
+      <c r="U28">
+        <f t="shared" si="6"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <f xml:space="preserve"> R28/100</f>
+        <v>15.4</v>
+      </c>
+      <c r="Z28">
+        <f>(Y28+Y29)/2</f>
+        <v>17.489999999999998</v>
+      </c>
+      <c r="AA28">
+        <f>S28 /1000</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB28">
+        <f>(AA27+AA28)/2</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="7"/>
+        <v>11.494999999999999</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="8"/>
+        <v>0.1436875</v>
+      </c>
+      <c r="AI28">
+        <f>(AE28*AE28)</f>
+        <v>2.0646097656249997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>280</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>15.021874999999996</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>7.9857421874999961</v>
+      </c>
+      <c r="D29">
+        <v>274</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>1.4242187499999996</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0.71210937499999982</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>22.070661773681628</v>
+      </c>
+      <c r="R29">
         <v>1958</v>
       </c>
-      <c r="B29">
+      <c r="S29">
         <v>1146</v>
       </c>
-      <c r="C29">
-        <f xml:space="preserve"> A29/100</f>
+      <c r="T29">
+        <f t="shared" si="0"/>
         <v>19.579999999999998</v>
       </c>
-      <c r="D29">
-        <f>B29 /1000</f>
+      <c r="U29">
+        <f t="shared" si="6"/>
         <v>1.1459999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <f xml:space="preserve"> R29/100</f>
+        <v>19.579999999999998</v>
+      </c>
+      <c r="Z29">
+        <f>(Y29+Y30)/2</f>
+        <v>15.73</v>
+      </c>
+      <c r="AA29">
+        <f>S29 /1000</f>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="AB29">
+        <f>(AA28+AA29)/2</f>
+        <v>0.66299999999999992</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="7"/>
+        <v>31.008119999999998</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="8"/>
+        <v>0.38760149999999999</v>
+      </c>
+      <c r="AI29">
+        <f>(AE29*AE29)</f>
+        <v>0.15023492280224998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>411</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0.94960937499999609</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>7.3583984375</v>
+      </c>
+      <c r="D30">
+        <v>314</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>1.0335937499999996</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0.51679687499999982</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>8.0963497924804635</v>
+      </c>
+      <c r="R30">
         <v>1188</v>
       </c>
-      <c r="B30">
+      <c r="S30">
         <v>1410</v>
       </c>
-      <c r="C30">
-        <f xml:space="preserve"> A30/100</f>
+      <c r="T30">
+        <f t="shared" si="0"/>
         <v>11.88</v>
       </c>
-      <c r="D30">
-        <f>B30 /1000</f>
+      <c r="U30">
+        <f t="shared" si="6"/>
         <v>1.41</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <f xml:space="preserve"> R30/100</f>
+        <v>11.88</v>
+      </c>
+      <c r="Z30">
+        <f>(Y30+Y31)/2</f>
+        <v>7.7</v>
+      </c>
+      <c r="AA30">
+        <f>S30 /1000</f>
+        <v>1.41</v>
+      </c>
+      <c r="AB30">
+        <f>(AA29+AA30)/2</f>
+        <v>1.278</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="7"/>
+        <v>26.039639999999999</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="8"/>
+        <v>0.32549549999999999</v>
+      </c>
+      <c r="AI30">
+        <f>(AE30*AE30)</f>
+        <v>0.10594732052024999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>548</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>13.767187500000004</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>16.130468750000006</v>
+      </c>
+      <c r="D31">
+        <v>477</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.55820312500000036</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0.27910156250000018</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>12.846521606445325</v>
+      </c>
+      <c r="R31">
         <v>352</v>
       </c>
-      <c r="B31">
+      <c r="S31">
         <v>258</v>
       </c>
-      <c r="C31">
-        <f xml:space="preserve"> A31/100</f>
+      <c r="T31">
+        <f t="shared" si="0"/>
         <v>3.52</v>
       </c>
-      <c r="D31">
-        <f>B31 /1000</f>
+      <c r="U31">
+        <f t="shared" si="6"/>
         <v>0.25800000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <f xml:space="preserve"> R31/100</f>
+        <v>3.52</v>
+      </c>
+      <c r="Z31">
+        <f>(Y31+Y32)/2</f>
+        <v>11.66</v>
+      </c>
+      <c r="AA31">
+        <f>S31 /1000</f>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AB31">
+        <f>(AA30+AA31)/2</f>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="7"/>
+        <v>5.9439600000000006</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="8"/>
+        <v>7.4299500000000004E-2</v>
+      </c>
+      <c r="AI31">
+        <f>(AE31*AE31)</f>
+        <v>5.5204157002500011E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>592</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>18.493750000000006</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>12.907812500000006</v>
+      </c>
+      <c r="D32">
+        <v>557</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>1.3394531250000004</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.66972656250000018</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>29.675165405273454</v>
+      </c>
+      <c r="R32">
         <v>1980</v>
       </c>
-      <c r="B32">
+      <c r="S32">
         <v>836</v>
       </c>
-      <c r="C32">
-        <f xml:space="preserve"> A32/100</f>
+      <c r="T32">
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="D32">
-        <f>B32 /1000</f>
+      <c r="U32">
+        <f t="shared" si="6"/>
         <v>0.83599999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <f xml:space="preserve"> R32/100</f>
+        <v>19.8</v>
+      </c>
+      <c r="Z32">
+        <f>(Y32+Y33)/2</f>
+        <v>18.149999999999999</v>
+      </c>
+      <c r="AA32">
+        <f>S32 /1000</f>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="AB32">
+        <f>(AA31+AA32)/2</f>
+        <v>0.54699999999999993</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="7"/>
+        <v>26.003999999999998</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="8"/>
+        <v>0.32504999999999995</v>
+      </c>
+      <c r="AI32">
+        <f>(AE32*AE32)</f>
+        <v>0.10565750249999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>488</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>7.3218750000000039</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>7.841796875</v>
+      </c>
+      <c r="D33">
+        <v>554</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>1.3101562500000004</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0.65507812500000018</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>15.070379333496101</v>
+      </c>
+      <c r="R33">
         <v>1650</v>
       </c>
-      <c r="B33">
+      <c r="S33">
         <v>1422</v>
       </c>
-      <c r="C33">
-        <f xml:space="preserve"> A33/100</f>
+      <c r="T33">
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="D33">
-        <f>B33 /1000</f>
+      <c r="U33">
+        <f t="shared" si="6"/>
         <v>1.4219999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <f xml:space="preserve"> R33/100</f>
+        <v>16.5</v>
+      </c>
+      <c r="Z33">
+        <f>(Y33+Y34)/2</f>
+        <v>9.9</v>
+      </c>
+      <c r="AA33">
+        <f>S33 /1000</f>
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="AB33">
+        <f>(AA32+AA33)/2</f>
+        <v>1.129</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="7"/>
+        <v>32.706299999999999</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="8"/>
+        <v>0.40882874999999996</v>
+      </c>
+      <c r="AI33">
+        <f>(AE33*AE33)</f>
+        <v>0.16714094682656247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>342</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>8.3617187499999961</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>13.625390624999994</v>
+      </c>
+      <c r="D34">
+        <v>468</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0.47031250000000036</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>0.23515625000000018</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>8.3745019531250033</v>
+      </c>
+      <c r="R34">
         <v>330</v>
       </c>
-      <c r="B34">
+      <c r="S34">
         <v>1138</v>
       </c>
-      <c r="C34">
-        <f xml:space="preserve"> A34/100</f>
+      <c r="T34">
+        <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="D34">
-        <f>B34 /1000</f>
+      <c r="U34">
+        <f t="shared" si="6"/>
         <v>1.1379999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <f xml:space="preserve"> R34/100</f>
+        <v>3.3</v>
+      </c>
+      <c r="Z34">
+        <f>(Y34+Y35)/2</f>
+        <v>7.59</v>
+      </c>
+      <c r="AA34">
+        <f>S34 /1000</f>
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="AB34">
+        <f>(AA33+AA34)/2</f>
+        <v>1.2799999999999998</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="7"/>
+        <v>12.861419999999999</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="8"/>
+        <v>0.16076774999999999</v>
+      </c>
+      <c r="AI34">
+        <f>(AE34*AE34)</f>
+        <v>2.5846269440062495E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>244</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>18.889062499999994</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>18.405664062499994</v>
+      </c>
+      <c r="D35">
+        <v>353</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.65273437499999964</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>0.32636718749999982</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>18.178779830932601</v>
+      </c>
+      <c r="R35">
         <v>1188</v>
       </c>
-      <c r="B35">
+      <c r="S35">
         <v>172</v>
       </c>
-      <c r="C35">
-        <f xml:space="preserve"> A35/100</f>
+      <c r="T35">
+        <f t="shared" si="0"/>
         <v>11.88</v>
       </c>
-      <c r="D35">
-        <f>B35 /1000</f>
+      <c r="U35">
+        <f t="shared" si="6"/>
         <v>0.17199999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <f xml:space="preserve"> R35/100</f>
+        <v>11.88</v>
+      </c>
+      <c r="Z35">
+        <f>(Y35+Y36)/2</f>
+        <v>15.84</v>
+      </c>
+      <c r="AA35">
+        <f>S35 /1000</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AB35">
+        <f>(AA34+AA35)/2</f>
+        <v>0.65499999999999992</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="7"/>
+        <v>10.505879999999999</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="8"/>
+        <v>0.13132349999999998</v>
+      </c>
+      <c r="AI35">
+        <f>(AE35*AE35)</f>
+        <v>1.7245861652249995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>253</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>17.922265624999994</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>10.0439453125</v>
+      </c>
+      <c r="D36">
+        <v>274</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>1.4242187499999996</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>0.71210937499999982</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>27.067388610839835</v>
+      </c>
+      <c r="R36">
         <v>1980</v>
       </c>
-      <c r="B36">
+      <c r="S36">
         <v>1274</v>
       </c>
-      <c r="C36">
-        <f xml:space="preserve"> A36/100</f>
+      <c r="T36">
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="D36">
-        <f>B36 /1000</f>
+      <c r="U36">
+        <f t="shared" si="6"/>
         <v>1.274</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <f xml:space="preserve"> R36/100</f>
+        <v>19.8</v>
+      </c>
+      <c r="Z36">
+        <f>(Y36+Y37)/2</f>
+        <v>14.52</v>
+      </c>
+      <c r="AA36">
+        <f>S36 /1000</f>
+        <v>1.274</v>
+      </c>
+      <c r="AB36">
+        <f>(AA35+AA36)/2</f>
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="7"/>
+        <v>32.813879999999997</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="8"/>
+        <v>0.41017349999999997</v>
+      </c>
+      <c r="AI36">
+        <f>(AE36*AE36)</f>
+        <v>0.16824230010224997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>440</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>2.1656250000000039</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>8.9869140625000039</v>
+      </c>
+      <c r="D37">
+        <v>331</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.86757812499999964</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>0.43378906249999982</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>8.7362744903564469</v>
+      </c>
+      <c r="R37">
         <v>924</v>
       </c>
-      <c r="B37">
+      <c r="S37">
         <v>1352</v>
       </c>
-      <c r="C37">
-        <f xml:space="preserve"> A37/100</f>
+      <c r="T37">
+        <f t="shared" si="0"/>
         <v>9.24</v>
       </c>
-      <c r="D37">
-        <f>B37 /1000</f>
+      <c r="U37">
+        <f t="shared" si="6"/>
         <v>1.3520000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <f xml:space="preserve"> R37/100</f>
+        <v>9.24</v>
+      </c>
+      <c r="Z37">
+        <f>(Y37+Y38)/2</f>
+        <v>7.8100000000000005</v>
+      </c>
+      <c r="AA37">
+        <f>S37 /1000</f>
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="AB37">
+        <f>(AA36+AA37)/2</f>
+        <v>1.3130000000000002</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="7"/>
+        <v>22.691240000000004</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="8"/>
+        <v>0.28364050000000007</v>
+      </c>
+      <c r="AI37">
+        <f>(AE37*AE37)</f>
+        <v>8.0451933240250045E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>567</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>15.808203125000004</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>17.795507812500006</v>
+      </c>
+      <c r="D38">
+        <v>443</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.22617187500000036</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0.11308593750000018</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>5.812528839111339</v>
+      </c>
+      <c r="R38">
         <v>638</v>
       </c>
-      <c r="B38">
+      <c r="S38">
         <v>600</v>
       </c>
-      <c r="C38">
-        <f xml:space="preserve"> A38/100</f>
+      <c r="T38">
+        <f t="shared" si="0"/>
         <v>6.38</v>
       </c>
-      <c r="D38">
-        <f>B38 /1000</f>
+      <c r="U38">
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <f xml:space="preserve"> R38/100</f>
+        <v>6.38</v>
+      </c>
+      <c r="Z38">
+        <f>(Y38+Y39)/2</f>
+        <v>12.32</v>
+      </c>
+      <c r="AA38">
+        <f>S38 /1000</f>
+        <v>0.6</v>
+      </c>
+      <c r="AB38">
+        <f>(AA37+AA38)/2</f>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="7"/>
+        <v>13.618879999999999</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="8"/>
+        <v>0.170236</v>
+      </c>
+      <c r="AI38">
+        <f>(AE38*AE38)</f>
+        <v>2.8980295696E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>604</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>19.782812500000006</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>15.700781250000006</v>
+      </c>
+      <c r="D39">
+        <v>540</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1.1734375000000004</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>0.58671875000000018</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>30.030832519531266</v>
+      </c>
+      <c r="R39">
         <v>1826</v>
       </c>
-      <c r="B39">
+      <c r="S39">
         <v>524</v>
       </c>
-      <c r="C39">
-        <f xml:space="preserve"> A39/100</f>
+      <c r="T39">
+        <f t="shared" si="0"/>
         <v>18.260000000000002</v>
       </c>
-      <c r="D39">
-        <f>B39 /1000</f>
+      <c r="U39">
+        <f t="shared" si="6"/>
         <v>0.52400000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <f xml:space="preserve"> R39/100</f>
+        <v>18.260000000000002</v>
+      </c>
+      <c r="Z39">
+        <f>(Y39+Y40)/2</f>
+        <v>18.48</v>
+      </c>
+      <c r="AA39">
+        <f>S39 /1000</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AB39">
+        <f>(AA38+AA39)/2</f>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="7"/>
+        <v>19.945640000000004</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="8"/>
+        <v>0.24932050000000006</v>
+      </c>
+      <c r="AI39">
+        <f>(AE39*AE39)</f>
+        <v>6.2160711720250027E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>528</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>11.618750000000004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>7.6806640625</v>
+      </c>
+      <c r="D40">
+        <v>564</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>1.4078125000000004</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>0.70390625000000018</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>18.99144561767579</v>
+      </c>
+      <c r="R40">
         <v>1870</v>
       </c>
-      <c r="B40">
+      <c r="S40">
         <v>1314</v>
       </c>
-      <c r="C40">
-        <f xml:space="preserve"> A40/100</f>
+      <c r="T40">
+        <f t="shared" si="0"/>
         <v>18.7</v>
       </c>
-      <c r="D40">
-        <f>B40 /1000</f>
+      <c r="U40">
+        <f t="shared" si="6"/>
         <v>1.3140000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <f xml:space="preserve"> R40/100</f>
+        <v>18.7</v>
+      </c>
+      <c r="Z40">
+        <f>(Y40+Y41)/2</f>
+        <v>13.42</v>
+      </c>
+      <c r="AA40">
+        <f>S40 /1000</f>
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="AB40">
+        <f>(AA39+AA40)/2</f>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="7"/>
+        <v>34.819180000000003</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="8"/>
+        <v>0.43523975000000004</v>
+      </c>
+      <c r="AI40">
+        <f>(AE40*AE40)</f>
+        <v>0.18943363998006252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>385</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>3.7425781249999961</v>
+      </c>
+      <c r="C41">
+        <f>(B41+B2)/2</f>
+        <v>4.94140625</v>
+      </c>
+      <c r="D41">
+        <v>445</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.24570312500000036</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0.12285156250000018</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>1.6739005279541035</v>
+      </c>
+      <c r="R41">
         <v>814</v>
       </c>
-      <c r="B41">
+      <c r="S41">
         <v>992</v>
       </c>
-      <c r="C41">
-        <f xml:space="preserve"> A41/100</f>
+      <c r="T41">
+        <f t="shared" si="0"/>
         <v>8.14</v>
       </c>
-      <c r="D41">
-        <f>B41 /1000</f>
+      <c r="U41">
+        <f t="shared" si="6"/>
         <v>0.99199999999999999</v>
+      </c>
+      <c r="Y41">
+        <f xml:space="preserve"> R41/100</f>
+        <v>8.14</v>
+      </c>
+      <c r="Z41">
+        <f>(Y41+Y2)/2</f>
+        <v>6.6</v>
+      </c>
+      <c r="AA41">
+        <f>S41 /1000</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AB41">
+        <f>(AA40+AA41)/2</f>
+        <v>1.153</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="7"/>
+        <v>15.93262</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="8"/>
+        <v>0.19915774999999999</v>
+      </c>
+      <c r="AI41">
+        <f>(AE41*AE41)</f>
+        <v>3.9663809385062497E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1181,7 +4594,7 @@
         <v>18854</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B92" si="0">A54*A54</f>
+        <f t="shared" ref="B54:B92" si="9">A54*A54</f>
         <v>355473316</v>
       </c>
       <c r="D54">
@@ -1191,7 +4604,7 @@
         <v>1892</v>
       </c>
       <c r="G54">
-        <f t="shared" ref="G54:G92" si="1" xml:space="preserve"> F54*F54</f>
+        <f t="shared" ref="G54:G92" si="10" xml:space="preserve"> F54*F54</f>
         <v>3579664</v>
       </c>
       <c r="J54">
@@ -1206,7 +4619,7 @@
         <v>14652</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>214681104</v>
       </c>
       <c r="D55">
@@ -1216,7 +4629,7 @@
         <v>1518</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2304324</v>
       </c>
       <c r="J55">
@@ -1231,7 +4644,7 @@
         <v>7986</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>63776196</v>
       </c>
       <c r="D56">
@@ -1241,7 +4654,7 @@
         <v>880</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>774400</v>
       </c>
       <c r="J56">
@@ -1256,7 +4669,7 @@
         <v>66</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>4356</v>
       </c>
       <c r="D57">
@@ -1266,7 +4679,7 @@
         <v>66</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4356</v>
       </c>
       <c r="J57">
@@ -1281,7 +4694,7 @@
         <v>8228</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>67699984</v>
       </c>
       <c r="D58">
@@ -1291,7 +4704,7 @@
         <v>748</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>559504</v>
       </c>
       <c r="J58">
@@ -1306,7 +4719,7 @@
         <v>14784</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>218566656</v>
       </c>
       <c r="D59">
@@ -1316,7 +4729,7 @@
         <v>1430</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2044900</v>
       </c>
       <c r="J59">
@@ -1331,7 +4744,7 @@
         <v>18964</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>359633296</v>
       </c>
       <c r="D60">
@@ -1341,7 +4754,7 @@
         <v>1870</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3496900</v>
       </c>
       <c r="J60">
@@ -1356,7 +4769,7 @@
         <v>19932</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>397284624</v>
       </c>
       <c r="D61">
@@ -1366,7 +4779,7 @@
         <v>2002</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4008004</v>
       </c>
       <c r="J61">
@@ -1381,7 +4794,7 @@
         <v>9944</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>98883136</v>
       </c>
       <c r="D62">
@@ -1391,7 +4804,7 @@
         <v>1100</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1210000</v>
       </c>
       <c r="J62">
@@ -1406,7 +4819,7 @@
         <v>2090</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>4368100</v>
       </c>
       <c r="D63">
@@ -1416,7 +4829,7 @@
         <v>330</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>108900</v>
       </c>
       <c r="J63">
@@ -1431,7 +4844,7 @@
         <v>6072</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>36869184</v>
       </c>
       <c r="D64">
@@ -1441,7 +4854,7 @@
         <v>484</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>234256</v>
       </c>
       <c r="J64">
@@ -1456,7 +4869,7 @@
         <v>13266</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>175986756</v>
       </c>
       <c r="D65">
@@ -1466,7 +4879,7 @@
         <v>1232</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1517824</v>
       </c>
       <c r="J65">
@@ -1481,7 +4894,7 @@
         <v>18084</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>327031056</v>
       </c>
       <c r="D66">
@@ -1491,7 +4904,7 @@
         <v>1760</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3097600</v>
       </c>
       <c r="J66">
@@ -1506,7 +4919,7 @@
         <v>19910</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>396408100</v>
       </c>
       <c r="D67">
@@ -1516,7 +4929,7 @@
         <v>1980</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3920400</v>
       </c>
       <c r="J67">
@@ -1531,7 +4944,7 @@
         <v>18304</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>335036416</v>
       </c>
       <c r="D68">
@@ -1541,7 +4954,7 @@
         <v>1870</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3496900</v>
       </c>
       <c r="J68">
@@ -1556,7 +4969,7 @@
         <v>13684</v>
       </c>
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>187251856</v>
       </c>
       <c r="D69">
@@ -1566,7 +4979,7 @@
         <v>1430</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2044900</v>
       </c>
       <c r="J69">
@@ -1581,7 +4994,7 @@
         <v>6600</v>
       </c>
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>43560000</v>
       </c>
       <c r="D70">
@@ -1591,7 +5004,7 @@
         <v>770</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>592900</v>
       </c>
       <c r="J70">
@@ -1606,7 +5019,7 @@
         <v>13376</v>
       </c>
       <c r="B71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>178917376</v>
       </c>
       <c r="D71">
@@ -1616,7 +5029,7 @@
         <v>1254</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1572516</v>
       </c>
       <c r="J71">
@@ -1631,7 +5044,7 @@
         <v>18216</v>
       </c>
       <c r="B72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>331822656</v>
       </c>
       <c r="D72">
@@ -1641,7 +5054,7 @@
         <v>1760</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3097600</v>
       </c>
       <c r="J72">
@@ -1656,7 +5069,7 @@
         <v>20042</v>
       </c>
       <c r="B73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>401681764</v>
       </c>
       <c r="D73">
@@ -1666,7 +5079,7 @@
         <v>2002</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4008004</v>
       </c>
       <c r="J73">
@@ -1681,7 +5094,7 @@
         <v>18436</v>
       </c>
       <c r="B74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>339886096</v>
       </c>
       <c r="D74">
@@ -1691,7 +5104,7 @@
         <v>1892</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3579664</v>
       </c>
       <c r="J74">
@@ -1706,7 +5119,7 @@
         <v>13706</v>
       </c>
       <c r="B75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>187854436</v>
       </c>
       <c r="D75">
@@ -1716,7 +5129,7 @@
         <v>1452</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2108304</v>
       </c>
       <c r="J75">
@@ -1731,7 +5144,7 @@
         <v>6622</v>
       </c>
       <c r="B76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>43850884</v>
       </c>
       <c r="D76">
@@ -1741,7 +5154,7 @@
         <v>792</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>627264</v>
       </c>
       <c r="J76">
@@ -1756,7 +5169,7 @@
         <v>1452</v>
       </c>
       <c r="B77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2108304</v>
       </c>
       <c r="D77">
@@ -1766,7 +5179,7 @@
         <v>22</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>484</v>
       </c>
       <c r="J77">
@@ -1781,7 +5194,7 @@
         <v>9394</v>
       </c>
       <c r="B78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>88247236</v>
       </c>
       <c r="D78">
@@ -1791,7 +5204,7 @@
         <v>836</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>698896</v>
       </c>
       <c r="J78">
@@ -1806,7 +5219,7 @@
         <v>15620</v>
       </c>
       <c r="B79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>243984400</v>
       </c>
       <c r="D79">
@@ -1816,7 +5229,7 @@
         <v>1474</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2172676</v>
       </c>
       <c r="J79">
@@ -1831,7 +5244,7 @@
         <v>18194</v>
       </c>
       <c r="B80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>331021636</v>
       </c>
       <c r="D80">
@@ -1841,7 +5254,7 @@
         <v>1870</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3496900</v>
       </c>
       <c r="J80">
@@ -1856,7 +5269,7 @@
         <v>13486</v>
       </c>
       <c r="B81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>181872196</v>
       </c>
       <c r="D81">
@@ -1866,7 +5279,7 @@
         <v>1430</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2044900</v>
       </c>
       <c r="J81">
@@ -1881,7 +5294,7 @@
         <v>6380</v>
       </c>
       <c r="B82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>40704400</v>
       </c>
       <c r="D82">
@@ -1891,7 +5304,7 @@
         <v>748</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>559504</v>
       </c>
       <c r="J82">
@@ -1906,7 +5319,7 @@
         <v>1892</v>
       </c>
       <c r="B83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>3579664</v>
       </c>
       <c r="D83">
@@ -1916,7 +5329,7 @@
         <v>66</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4356</v>
       </c>
       <c r="J83">
@@ -1931,7 +5344,7 @@
         <v>9724</v>
       </c>
       <c r="B84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>94556176</v>
       </c>
       <c r="D84">
@@ -1941,7 +5354,7 @@
         <v>858</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>736164</v>
       </c>
       <c r="J84">
@@ -1956,7 +5369,7 @@
         <v>15950</v>
       </c>
       <c r="B85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>254402500</v>
       </c>
       <c r="D85">
@@ -1966,7 +5379,7 @@
         <v>1518</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2304324</v>
       </c>
       <c r="J85">
@@ -1981,7 +5394,7 @@
         <v>19404</v>
       </c>
       <c r="B86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>376515216</v>
       </c>
       <c r="D86">
@@ -1991,7 +5404,7 @@
         <v>1914</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3663396</v>
       </c>
       <c r="J86">
@@ -2006,7 +5419,7 @@
         <v>19712</v>
       </c>
       <c r="B87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>388562944</v>
       </c>
       <c r="D87">
@@ -2016,7 +5429,7 @@
         <v>2002</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4008004</v>
       </c>
       <c r="J87">
@@ -2031,7 +5444,7 @@
         <v>16610</v>
       </c>
       <c r="B88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>275892100</v>
       </c>
       <c r="D88">
@@ -2041,7 +5454,7 @@
         <v>1738</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3020644</v>
       </c>
       <c r="J88">
@@ -2056,7 +5469,7 @@
         <v>10802</v>
       </c>
       <c r="B89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>116683204</v>
       </c>
       <c r="D89">
@@ -2066,7 +5479,7 @@
         <v>1188</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1411344</v>
       </c>
       <c r="J89">
@@ -2081,7 +5494,7 @@
         <v>3696</v>
       </c>
       <c r="B90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>13660416</v>
       </c>
       <c r="D90">
@@ -2091,7 +5504,7 @@
         <v>242</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>58564</v>
       </c>
       <c r="J90">
@@ -2106,7 +5519,7 @@
         <v>11330</v>
       </c>
       <c r="B91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>128368900</v>
       </c>
       <c r="D91">
@@ -2116,7 +5529,7 @@
         <v>1034</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>1069156</v>
       </c>
       <c r="J91">
@@ -2131,14 +5544,14 @@
         <v>16918</v>
       </c>
       <c r="B92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>286218724</v>
       </c>
       <c r="F92">
         <v>1628</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>2650384</v>
       </c>
       <c r="J92">
@@ -2233,7 +5646,7 @@
         <v>112</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:C138" si="2">B99 * B99</f>
+        <f t="shared" ref="C99:C138" si="11">B99 * B99</f>
         <v>12544</v>
       </c>
       <c r="D99">
@@ -2251,7 +5664,7 @@
         <v>482</v>
       </c>
       <c r="I99">
-        <f t="shared" ref="I99:I138" si="3">H99 * H99</f>
+        <f t="shared" ref="I99:I138" si="12">H99 * H99</f>
         <v>232324</v>
       </c>
       <c r="J99">
@@ -2325,7 +5738,7 @@
         <v>190</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>36100</v>
       </c>
       <c r="G100">
@@ -2335,7 +5748,7 @@
         <v>640</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>409600</v>
       </c>
       <c r="M100">
@@ -2345,7 +5758,7 @@
         <v>64</v>
       </c>
       <c r="O100">
-        <f t="shared" ref="O100:O138" si="4">N100 * N100</f>
+        <f t="shared" ref="O100:O138" si="13">N100 * N100</f>
         <v>4096</v>
       </c>
       <c r="S100">
@@ -2355,7 +5768,7 @@
         <v>58</v>
       </c>
       <c r="U100">
-        <f t="shared" ref="U100:U138" si="5">T100*T100</f>
+        <f t="shared" ref="U100:U138" si="14">T100*T100</f>
         <v>3364</v>
       </c>
       <c r="Y100">
@@ -2365,7 +5778,7 @@
         <v>610</v>
       </c>
       <c r="AA100">
-        <f t="shared" ref="AA100:AA138" si="6">Z100*Z100</f>
+        <f t="shared" ref="AA100:AA138" si="15">Z100*Z100</f>
         <v>372100</v>
       </c>
     </row>
@@ -2377,7 +5790,7 @@
         <v>152</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>23104</v>
       </c>
       <c r="G101">
@@ -2387,7 +5800,7 @@
         <v>1372</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1882384</v>
       </c>
       <c r="M101">
@@ -2397,7 +5810,7 @@
         <v>138</v>
       </c>
       <c r="O101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>19044</v>
       </c>
       <c r="S101">
@@ -2407,7 +5820,7 @@
         <v>134</v>
       </c>
       <c r="U101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>17956</v>
       </c>
       <c r="Y101">
@@ -2417,7 +5830,7 @@
         <v>1354</v>
       </c>
       <c r="AA101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1833316</v>
       </c>
     </row>
@@ -2429,7 +5842,7 @@
         <v>24</v>
       </c>
       <c r="C102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>576</v>
       </c>
       <c r="G102">
@@ -2439,7 +5852,7 @@
         <v>1256</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1577536</v>
       </c>
       <c r="M102">
@@ -2449,7 +5862,7 @@
         <v>126</v>
       </c>
       <c r="O102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15876</v>
       </c>
       <c r="S102">
@@ -2459,7 +5872,7 @@
         <v>130</v>
       </c>
       <c r="U102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>16900</v>
       </c>
       <c r="Y102">
@@ -2469,7 +5882,7 @@
         <v>1284</v>
       </c>
       <c r="AA102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1648656</v>
       </c>
     </row>
@@ -2481,7 +5894,7 @@
         <v>170</v>
       </c>
       <c r="C103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>28900</v>
       </c>
       <c r="G103">
@@ -2491,7 +5904,7 @@
         <v>512</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>262144</v>
       </c>
       <c r="M103">
@@ -2501,7 +5914,7 @@
         <v>50</v>
       </c>
       <c r="O103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500</v>
       </c>
       <c r="S103">
@@ -2511,7 +5924,7 @@
         <v>42</v>
       </c>
       <c r="U103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1764</v>
       </c>
       <c r="Y103">
@@ -2521,7 +5934,7 @@
         <v>464</v>
       </c>
       <c r="AA103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>215296</v>
       </c>
     </row>
@@ -2533,7 +5946,7 @@
         <v>150</v>
       </c>
       <c r="C104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>22500</v>
       </c>
       <c r="G104">
@@ -2543,7 +5956,7 @@
         <v>1312</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1721344</v>
       </c>
       <c r="M104">
@@ -2553,7 +5966,7 @@
         <v>130</v>
       </c>
       <c r="O104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>16900</v>
       </c>
       <c r="S104">
@@ -2563,7 +5976,7 @@
         <v>128</v>
       </c>
       <c r="U104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>16384</v>
       </c>
       <c r="Y104">
@@ -2573,7 +5986,7 @@
         <v>1304</v>
       </c>
       <c r="AA104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1700416</v>
       </c>
     </row>
@@ -2585,7 +5998,7 @@
         <v>34</v>
       </c>
       <c r="C105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1156</v>
       </c>
       <c r="G105">
@@ -2595,7 +6008,7 @@
         <v>1312</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1721344</v>
       </c>
       <c r="M105">
@@ -2605,7 +6018,7 @@
         <v>130</v>
       </c>
       <c r="O105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>16900</v>
       </c>
       <c r="S105">
@@ -2615,7 +6028,7 @@
         <v>134</v>
       </c>
       <c r="U105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>17956</v>
       </c>
       <c r="Y105">
@@ -2625,7 +6038,7 @@
         <v>1332</v>
       </c>
       <c r="AA105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1774224</v>
       </c>
     </row>
@@ -2637,7 +6050,7 @@
         <v>112</v>
       </c>
       <c r="C106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>12544</v>
       </c>
       <c r="G106">
@@ -2647,7 +6060,7 @@
         <v>502</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>252004</v>
       </c>
       <c r="M106">
@@ -2657,7 +6070,7 @@
         <v>50</v>
       </c>
       <c r="O106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500</v>
       </c>
       <c r="S106">
@@ -2667,7 +6080,7 @@
         <v>58</v>
       </c>
       <c r="U106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3364</v>
       </c>
       <c r="Y106">
@@ -2677,7 +6090,7 @@
         <v>552</v>
       </c>
       <c r="AA106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>304704</v>
       </c>
     </row>
@@ -2689,7 +6102,7 @@
         <v>190</v>
       </c>
       <c r="C107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>36100</v>
       </c>
       <c r="G107">
@@ -2699,7 +6112,7 @@
         <v>620</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>384400</v>
       </c>
       <c r="M107">
@@ -2709,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="O107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3844</v>
       </c>
       <c r="S107">
@@ -2719,7 +6132,7 @@
         <v>54</v>
       </c>
       <c r="U107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2916</v>
       </c>
       <c r="Y107">
@@ -2729,7 +6142,7 @@
         <v>572</v>
       </c>
       <c r="AA107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>327184</v>
       </c>
     </row>
@@ -2741,7 +6154,7 @@
         <v>104</v>
       </c>
       <c r="C108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>10816</v>
       </c>
       <c r="G108">
@@ -2751,7 +6164,7 @@
         <v>1440</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2073600</v>
       </c>
       <c r="M108">
@@ -2761,7 +6174,7 @@
         <v>144</v>
       </c>
       <c r="O108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>20736</v>
       </c>
       <c r="S108">
@@ -2771,7 +6184,7 @@
         <v>144</v>
       </c>
       <c r="U108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>20736</v>
       </c>
       <c r="Y108">
@@ -2781,7 +6194,7 @@
         <v>1440</v>
       </c>
       <c r="AA108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2073600</v>
       </c>
     </row>
@@ -2793,7 +6206,7 @@
         <v>44</v>
       </c>
       <c r="C109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1936</v>
       </c>
       <c r="G109">
@@ -2803,7 +6216,7 @@
         <v>924</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>853776</v>
       </c>
       <c r="M109">
@@ -2813,7 +6226,7 @@
         <v>92</v>
       </c>
       <c r="O109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>8464</v>
       </c>
       <c r="S109">
@@ -2823,7 +6236,7 @@
         <v>100</v>
       </c>
       <c r="U109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>10000</v>
       </c>
       <c r="Y109">
@@ -2833,7 +6246,7 @@
         <v>952</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>906304</v>
       </c>
     </row>
@@ -2845,7 +6258,7 @@
         <v>150</v>
       </c>
       <c r="C110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>22500</v>
       </c>
       <c r="G110">
@@ -2855,7 +6268,7 @@
         <v>150</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>22500</v>
       </c>
       <c r="M110">
@@ -2865,7 +6278,7 @@
         <v>14</v>
       </c>
       <c r="O110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>196</v>
       </c>
       <c r="S110">
@@ -2875,7 +6288,7 @@
         <v>6</v>
       </c>
       <c r="U110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="Y110">
@@ -2885,7 +6298,7 @@
         <v>112</v>
       </c>
       <c r="AA110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>12544</v>
       </c>
     </row>
@@ -2897,7 +6310,7 @@
         <v>170</v>
       </c>
       <c r="C111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>28900</v>
       </c>
       <c r="G111">
@@ -2907,7 +6320,7 @@
         <v>1128</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1272384</v>
       </c>
       <c r="M111">
@@ -2917,7 +6330,7 @@
         <v>112</v>
       </c>
       <c r="O111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>12544</v>
       </c>
       <c r="S111">
@@ -2927,7 +6340,7 @@
         <v>108</v>
       </c>
       <c r="U111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>11664</v>
       </c>
       <c r="Y111">
@@ -2937,7 +6350,7 @@
         <v>1108</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1227664</v>
       </c>
     </row>
@@ -2949,7 +6362,7 @@
         <v>72</v>
       </c>
       <c r="C112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5184</v>
       </c>
       <c r="G112">
@@ -2959,7 +6372,7 @@
         <v>1410</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1988100</v>
       </c>
       <c r="M112">
@@ -2969,7 +6382,7 @@
         <v>140</v>
       </c>
       <c r="O112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>19600</v>
       </c>
       <c r="S112">
@@ -2979,7 +6392,7 @@
         <v>142</v>
       </c>
       <c r="U112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>20164</v>
       </c>
       <c r="Y112">
@@ -2989,7 +6402,7 @@
         <v>1420</v>
       </c>
       <c r="AA112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2016400</v>
       </c>
     </row>
@@ -3001,7 +6414,7 @@
         <v>132</v>
       </c>
       <c r="C113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>17424</v>
       </c>
       <c r="G113">
@@ -3011,7 +6424,7 @@
         <v>298</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>88804</v>
       </c>
       <c r="M113">
@@ -3021,7 +6434,7 @@
         <v>30</v>
       </c>
       <c r="O113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>900</v>
       </c>
       <c r="S113">
@@ -3031,7 +6444,7 @@
         <v>38</v>
       </c>
       <c r="U113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1444</v>
       </c>
       <c r="Y113">
@@ -3041,7 +6454,7 @@
         <v>326</v>
       </c>
       <c r="AA113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>106276</v>
       </c>
     </row>
@@ -3053,7 +6466,7 @@
         <v>190</v>
       </c>
       <c r="C114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>36100</v>
       </c>
       <c r="G114">
@@ -3063,7 +6476,7 @@
         <v>806</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>649636</v>
       </c>
       <c r="M114">
@@ -3073,7 +6486,7 @@
         <v>80</v>
       </c>
       <c r="O114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>6400</v>
       </c>
       <c r="S114">
@@ -3083,7 +6496,7 @@
         <v>74</v>
       </c>
       <c r="U114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5476</v>
       </c>
       <c r="Y114">
@@ -3093,7 +6506,7 @@
         <v>776</v>
       </c>
       <c r="AA114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>602176</v>
       </c>
     </row>
@@ -3105,7 +6518,7 @@
         <v>142</v>
       </c>
       <c r="C115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>20164</v>
       </c>
       <c r="G115">
@@ -3115,7 +6528,7 @@
         <v>1412</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1993744</v>
       </c>
       <c r="M115">
@@ -3125,7 +6538,7 @@
         <v>142</v>
       </c>
       <c r="O115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>20164</v>
       </c>
       <c r="S115">
@@ -3135,7 +6548,7 @@
         <v>140</v>
       </c>
       <c r="U115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>19600</v>
       </c>
       <c r="Y115">
@@ -3145,7 +6558,7 @@
         <v>1402</v>
       </c>
       <c r="AA115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1965604</v>
       </c>
     </row>
@@ -3157,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="C116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="G116">
@@ -3167,7 +6580,7 @@
         <v>1168</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1364224</v>
       </c>
       <c r="M116">
@@ -3177,7 +6590,7 @@
         <v>118</v>
       </c>
       <c r="O116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>13924</v>
       </c>
       <c r="S116">
@@ -3187,7 +6600,7 @@
         <v>120</v>
       </c>
       <c r="U116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>14400</v>
       </c>
       <c r="Y116">
@@ -3197,7 +6610,7 @@
         <v>1188</v>
       </c>
       <c r="AA116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1411344</v>
       </c>
     </row>
@@ -3209,7 +6622,7 @@
         <v>132</v>
       </c>
       <c r="C117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>17424</v>
       </c>
       <c r="G117">
@@ -3219,7 +6632,7 @@
         <v>200</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>40000</v>
       </c>
       <c r="M117">
@@ -3229,7 +6642,7 @@
         <v>20</v>
       </c>
       <c r="O117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="S117">
@@ -3239,7 +6652,7 @@
         <v>28</v>
       </c>
       <c r="U117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>784</v>
       </c>
       <c r="Y117">
@@ -3249,7 +6662,7 @@
         <v>240</v>
       </c>
       <c r="AA117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>57600</v>
       </c>
     </row>
@@ -3261,7 +6674,7 @@
         <v>160</v>
       </c>
       <c r="C118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>25600</v>
       </c>
       <c r="G118">
@@ -3271,7 +6684,7 @@
         <v>1254</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1572516</v>
       </c>
       <c r="M118">
@@ -3281,7 +6694,7 @@
         <v>126</v>
       </c>
       <c r="O118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15876</v>
       </c>
       <c r="S118">
@@ -3291,7 +6704,7 @@
         <v>122</v>
       </c>
       <c r="U118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>14884</v>
       </c>
       <c r="Y118">
@@ -3301,7 +6714,7 @@
         <v>1234</v>
       </c>
       <c r="AA118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1522756</v>
       </c>
     </row>
@@ -3313,7 +6726,7 @@
         <v>54</v>
       </c>
       <c r="C119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2916</v>
       </c>
       <c r="G119">
@@ -3323,7 +6736,7 @@
         <v>1362</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1855044</v>
       </c>
       <c r="M119">
@@ -3333,7 +6746,7 @@
         <v>136</v>
       </c>
       <c r="O119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>18496</v>
       </c>
       <c r="S119">
@@ -3343,7 +6756,7 @@
         <v>138</v>
       </c>
       <c r="U119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>19044</v>
       </c>
       <c r="Y119">
@@ -3353,7 +6766,7 @@
         <v>1382</v>
       </c>
       <c r="AA119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1909924</v>
       </c>
     </row>
@@ -3365,7 +6778,7 @@
         <v>94</v>
       </c>
       <c r="C120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8836</v>
       </c>
       <c r="G120">
@@ -3375,7 +6788,7 @@
         <v>630</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>396900</v>
       </c>
       <c r="M120">
@@ -3385,7 +6798,7 @@
         <v>62</v>
       </c>
       <c r="O120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3844</v>
       </c>
       <c r="S120">
@@ -3395,7 +6808,7 @@
         <v>70</v>
       </c>
       <c r="U120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4900</v>
       </c>
       <c r="Y120">
@@ -3405,7 +6818,7 @@
         <v>668</v>
       </c>
       <c r="AA120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>446224</v>
       </c>
     </row>
@@ -3417,7 +6830,7 @@
         <v>182</v>
       </c>
       <c r="C121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>33124</v>
       </c>
       <c r="G121">
@@ -3427,7 +6840,7 @@
         <v>484</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>234256</v>
       </c>
       <c r="M121">
@@ -3437,7 +6850,7 @@
         <v>48</v>
       </c>
       <c r="O121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2304</v>
       </c>
       <c r="S121">
@@ -3447,7 +6860,7 @@
         <v>42</v>
       </c>
       <c r="U121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1764</v>
       </c>
       <c r="Y121">
@@ -3457,7 +6870,7 @@
         <v>454</v>
       </c>
       <c r="AA121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>206116</v>
       </c>
     </row>
@@ -3469,7 +6882,7 @@
         <v>172</v>
       </c>
       <c r="C122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>29584</v>
       </c>
       <c r="G122">
@@ -3479,7 +6892,7 @@
         <v>1304</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1700416</v>
       </c>
       <c r="M122">
@@ -3489,7 +6902,7 @@
         <v>130</v>
       </c>
       <c r="O122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>16900</v>
       </c>
       <c r="S122">
@@ -3499,7 +6912,7 @@
         <v>128</v>
       </c>
       <c r="U122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>16384</v>
       </c>
       <c r="Y122">
@@ -3509,7 +6922,7 @@
         <v>1284</v>
       </c>
       <c r="AA122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1648656</v>
       </c>
     </row>
@@ -3521,7 +6934,7 @@
         <v>24</v>
       </c>
       <c r="C123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>576</v>
       </c>
       <c r="G123">
@@ -3531,7 +6944,7 @@
         <v>1022</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1044484</v>
       </c>
       <c r="M123">
@@ -3541,7 +6954,7 @@
         <v>102</v>
       </c>
       <c r="O123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>10404</v>
       </c>
       <c r="S123">
@@ -3551,7 +6964,7 @@
         <v>108</v>
       </c>
       <c r="U123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>11664</v>
       </c>
       <c r="Y123">
@@ -3561,7 +6974,7 @@
         <v>1050</v>
       </c>
       <c r="AA123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1102500</v>
       </c>
     </row>
@@ -3573,7 +6986,7 @@
         <v>150</v>
       </c>
       <c r="C124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>22500</v>
       </c>
       <c r="G124">
@@ -3583,7 +6996,7 @@
         <v>14</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
       <c r="M124">
@@ -3593,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="O124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S124">
@@ -3603,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="U124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="Y124">
@@ -3613,7 +7026,7 @@
         <v>34</v>
       </c>
       <c r="AA124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1156</v>
       </c>
     </row>
@@ -3625,7 +7038,7 @@
         <v>180</v>
       </c>
       <c r="C125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>32400</v>
       </c>
       <c r="G125">
@@ -3635,7 +7048,7 @@
         <v>1040</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1081600</v>
       </c>
       <c r="M125">
@@ -3645,7 +7058,7 @@
         <v>104</v>
       </c>
       <c r="O125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>10816</v>
       </c>
       <c r="S125">
@@ -3655,7 +7068,7 @@
         <v>98</v>
       </c>
       <c r="U125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>9604</v>
       </c>
       <c r="Y125">
@@ -3665,7 +7078,7 @@
         <v>1010</v>
       </c>
       <c r="AA125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1020100</v>
       </c>
     </row>
@@ -3677,7 +7090,7 @@
         <v>92</v>
       </c>
       <c r="C126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8464</v>
       </c>
       <c r="G126">
@@ -3687,7 +7100,7 @@
         <v>1430</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2044900</v>
       </c>
       <c r="M126">
@@ -3697,7 +7110,7 @@
         <v>142</v>
       </c>
       <c r="O126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>20164</v>
       </c>
       <c r="S126">
@@ -3707,7 +7120,7 @@
         <v>142</v>
       </c>
       <c r="U126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>20164</v>
       </c>
       <c r="Y126">
@@ -3717,7 +7130,7 @@
         <v>1430</v>
       </c>
       <c r="AA126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2044900</v>
       </c>
     </row>
@@ -3729,7 +7142,7 @@
         <v>54</v>
       </c>
       <c r="C127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2916</v>
       </c>
       <c r="G127">
@@ -3739,7 +7152,7 @@
         <v>932</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>868624</v>
       </c>
       <c r="M127">
@@ -3749,7 +7162,7 @@
         <v>92</v>
       </c>
       <c r="O127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>8464</v>
       </c>
       <c r="S127">
@@ -3759,7 +7172,7 @@
         <v>100</v>
       </c>
       <c r="U127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>10000</v>
       </c>
       <c r="Y127">
@@ -3769,7 +7182,7 @@
         <v>972</v>
       </c>
       <c r="AA127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>944784</v>
       </c>
     </row>
@@ -3781,7 +7194,7 @@
         <v>190</v>
       </c>
       <c r="C128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>36100</v>
       </c>
       <c r="G128">
@@ -3791,7 +7204,7 @@
         <v>680</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>462400</v>
       </c>
       <c r="M128">
@@ -3801,7 +7214,7 @@
         <v>68</v>
       </c>
       <c r="O128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4624</v>
       </c>
       <c r="S128">
@@ -3811,7 +7224,7 @@
         <v>62</v>
       </c>
       <c r="U128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3844</v>
       </c>
       <c r="Y128">
@@ -3821,7 +7234,7 @@
         <v>650</v>
       </c>
       <c r="AA128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>422500</v>
       </c>
     </row>
@@ -3833,7 +7246,7 @@
         <v>152</v>
       </c>
       <c r="C129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>23104</v>
       </c>
       <c r="G129">
@@ -3843,7 +7256,7 @@
         <v>1382</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1909924</v>
       </c>
       <c r="M129">
@@ -3853,7 +7266,7 @@
         <v>138</v>
       </c>
       <c r="O129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>19044</v>
       </c>
       <c r="S129">
@@ -3863,7 +7276,7 @@
         <v>136</v>
       </c>
       <c r="U129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>18496</v>
       </c>
       <c r="Y129">
@@ -3873,7 +7286,7 @@
         <v>1372</v>
       </c>
       <c r="AA129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1882384</v>
       </c>
     </row>
@@ -3885,7 +7298,7 @@
         <v>24</v>
       </c>
       <c r="C130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>576</v>
       </c>
       <c r="G130">
@@ -3895,7 +7308,7 @@
         <v>1236</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1527696</v>
       </c>
       <c r="M130">
@@ -3905,7 +7318,7 @@
         <v>124</v>
       </c>
       <c r="O130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15376</v>
       </c>
       <c r="S130">
@@ -3915,7 +7328,7 @@
         <v>128</v>
       </c>
       <c r="U130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>16384</v>
       </c>
       <c r="Y130">
@@ -3925,7 +7338,7 @@
         <v>1256</v>
       </c>
       <c r="AA130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1577536</v>
       </c>
     </row>
@@ -3937,7 +7350,7 @@
         <v>112</v>
       </c>
       <c r="C131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>12544</v>
       </c>
       <c r="G131">
@@ -3947,7 +7360,7 @@
         <v>348</v>
       </c>
       <c r="I131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>121104</v>
       </c>
       <c r="M131">
@@ -3957,7 +7370,7 @@
         <v>36</v>
       </c>
       <c r="O131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1296</v>
       </c>
       <c r="S131">
@@ -3967,7 +7380,7 @@
         <v>42</v>
       </c>
       <c r="U131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1764</v>
       </c>
       <c r="Y131">
@@ -3977,7 +7390,7 @@
         <v>386</v>
       </c>
       <c r="AA131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>148996</v>
       </c>
     </row>
@@ -3989,7 +7402,7 @@
         <v>180</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>32400</v>
       </c>
       <c r="G132">
@@ -3999,7 +7412,7 @@
         <v>756</v>
       </c>
       <c r="I132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>571536</v>
       </c>
       <c r="M132">
@@ -4009,7 +7422,7 @@
         <v>76</v>
       </c>
       <c r="O132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5776</v>
       </c>
       <c r="S132">
@@ -4019,7 +7432,7 @@
         <v>68</v>
       </c>
       <c r="U132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4624</v>
       </c>
       <c r="Y132">
@@ -4029,7 +7442,7 @@
         <v>726</v>
       </c>
       <c r="AA132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>527076</v>
       </c>
     </row>
@@ -4041,7 +7454,7 @@
         <v>72</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5184</v>
       </c>
       <c r="G133">
@@ -4051,7 +7464,7 @@
         <v>1400</v>
       </c>
       <c r="I133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1960000</v>
       </c>
       <c r="M133">
@@ -4061,7 +7474,7 @@
         <v>140</v>
       </c>
       <c r="O133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>19600</v>
       </c>
       <c r="S133">
@@ -4071,7 +7484,7 @@
         <v>140</v>
       </c>
       <c r="U133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>19600</v>
       </c>
       <c r="Y133">
@@ -4081,7 +7494,7 @@
         <v>1410</v>
       </c>
       <c r="AA133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1988100</v>
       </c>
     </row>
@@ -4093,7 +7506,7 @@
         <v>74</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5476</v>
       </c>
       <c r="G134">
@@ -4103,7 +7516,7 @@
         <v>766</v>
       </c>
       <c r="I134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>586756</v>
       </c>
       <c r="M134">
@@ -4113,7 +7526,7 @@
         <v>76</v>
       </c>
       <c r="O134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5776</v>
       </c>
       <c r="S134">
@@ -4123,7 +7536,7 @@
         <v>82</v>
       </c>
       <c r="U134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6724</v>
       </c>
       <c r="Y134">
@@ -4133,7 +7546,7 @@
         <v>796</v>
       </c>
       <c r="AA134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>633616</v>
       </c>
     </row>
@@ -4145,7 +7558,7 @@
         <v>182</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>33124</v>
       </c>
       <c r="G135">
@@ -4155,7 +7568,7 @@
         <v>348</v>
       </c>
       <c r="I135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>121104</v>
       </c>
       <c r="M135">
@@ -4165,7 +7578,7 @@
         <v>36</v>
       </c>
       <c r="O135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1296</v>
       </c>
       <c r="S135">
@@ -4175,7 +7588,7 @@
         <v>28</v>
       </c>
       <c r="U135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>784</v>
       </c>
       <c r="Y135">
@@ -4185,7 +7598,7 @@
         <v>308</v>
       </c>
       <c r="AA135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>94864</v>
       </c>
     </row>
@@ -4197,7 +7610,7 @@
         <v>172</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>29584</v>
       </c>
       <c r="G136">
@@ -4207,7 +7620,7 @@
         <v>1246</v>
       </c>
       <c r="I136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1552516</v>
       </c>
       <c r="M136">
@@ -4217,7 +7630,7 @@
         <v>124</v>
       </c>
       <c r="O136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15376</v>
       </c>
       <c r="S136">
@@ -4227,7 +7640,7 @@
         <v>120</v>
       </c>
       <c r="U136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>14400</v>
       </c>
       <c r="Y136">
@@ -4237,7 +7650,7 @@
         <v>1216</v>
       </c>
       <c r="AA136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1478656</v>
       </c>
     </row>
@@ -4249,7 +7662,7 @@
         <v>64</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4096</v>
       </c>
       <c r="G137">
@@ -4259,7 +7672,7 @@
         <v>1382</v>
       </c>
       <c r="I137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1909924</v>
       </c>
       <c r="M137">
@@ -4269,7 +7682,7 @@
         <v>138</v>
       </c>
       <c r="O137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>19044</v>
       </c>
       <c r="S137">
@@ -4279,7 +7692,7 @@
         <v>140</v>
       </c>
       <c r="U137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>19600</v>
       </c>
       <c r="Y137">
@@ -4289,7 +7702,7 @@
         <v>1382</v>
       </c>
       <c r="AA137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1909924</v>
       </c>
     </row>
@@ -4301,7 +7714,7 @@
         <v>132</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>17424</v>
       </c>
       <c r="G138">
@@ -4311,7 +7724,7 @@
         <v>122</v>
       </c>
       <c r="I138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>14884</v>
       </c>
       <c r="M138">
@@ -4321,7 +7734,7 @@
         <v>12</v>
       </c>
       <c r="O138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>144</v>
       </c>
       <c r="S138">
@@ -4331,7 +7744,7 @@
         <v>20</v>
       </c>
       <c r="U138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="Y138">
@@ -4341,11 +7754,12 @@
         <v>162</v>
       </c>
       <c r="AA138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>26244</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Basic/Tony_Huang/Book1.xlsx
+++ b/Basic/Tony_Huang/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhua835\Downloads\ec209-project-2023_team-22\Basic\Tony_Huang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98BD5BA-43BB-4204-B23F-8CB54D32D5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF6097-439D-468F-88F8-4A8D0725DB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B7E05461-0193-4B7E-975C-B664CF06D085}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7E05461-0193-4B7E-975C-B664CF06D085}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>rms: 9605</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>powersum: 43963172</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -4018,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F34B049-2C4F-43C1-AAC7-5FF518FB1B35}">
   <dimension ref="A1:CD298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9757,7 +9760,7 @@
         <v>13.530000000000001</v>
       </c>
       <c r="AO46">
-        <f>(AE43+AP46)/2</f>
+        <f t="shared" ref="AO46:AO67" si="28">(AE43+AP46)/2</f>
         <v>7.15</v>
       </c>
       <c r="AP46">
@@ -9797,7 +9800,7 @@
         <v>18.04</v>
       </c>
       <c r="AO47">
-        <f>(AE44+AP47)/2</f>
+        <f t="shared" si="28"/>
         <v>4.2720000000000002</v>
       </c>
       <c r="AP47">
@@ -9837,7 +9840,7 @@
         <v>19.689999999999998</v>
       </c>
       <c r="AO48">
-        <f>(AE45+AP48)/2</f>
+        <f t="shared" si="28"/>
         <v>0.19100000000000011</v>
       </c>
       <c r="AP48">
@@ -9877,7 +9880,7 @@
         <v>18.259999999999998</v>
       </c>
       <c r="AO49">
-        <f>(AE46+AP49)/2</f>
+        <f t="shared" si="28"/>
         <v>-3.9679999999999995</v>
       </c>
       <c r="AP49">
@@ -9956,7 +9959,7 @@
         <v>13.75</v>
       </c>
       <c r="AO50">
-        <f>(AE47+AP50)/2</f>
+        <f t="shared" si="28"/>
         <v>-6.7440000000000007</v>
       </c>
       <c r="AP50">
@@ -9968,11 +9971,11 @@
         <v>-110.66968</v>
       </c>
       <c r="BH50">
-        <f t="shared" ref="BH50:BH89" si="28">BR50/100</f>
+        <f t="shared" ref="BH50:BH89" si="29">BR50/100</f>
         <v>5.28</v>
       </c>
       <c r="BI50">
-        <f t="shared" ref="BI50:BI89" si="29">BS50/1000</f>
+        <f t="shared" ref="BI50:BI89" si="30">BS50/1000</f>
         <v>1.234</v>
       </c>
       <c r="BJ50">
@@ -9992,7 +9995,7 @@
         <v>4.1442917217541524</v>
       </c>
       <c r="BN50">
-        <f t="shared" ref="BN50:BN89" si="30">BL50*BL50</f>
+        <f t="shared" ref="BN50:BN89" si="31">BL50*BL50</f>
         <v>5.5102867599999978</v>
       </c>
       <c r="BR50">
@@ -10040,7 +10043,7 @@
         <v>7.1499999999999995</v>
       </c>
       <c r="AO51">
-        <f>(AE48+AP51)/2</f>
+        <f t="shared" si="28"/>
         <v>-9.1110000000000007</v>
       </c>
       <c r="AP51">
@@ -10052,15 +10055,15 @@
         <v>-93.225880000000004</v>
       </c>
       <c r="BH51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-10.119999999999999</v>
       </c>
       <c r="BI51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.32600000000000001</v>
       </c>
       <c r="BJ51">
-        <f t="shared" ref="BJ51:BJ88" si="31">(BH51+BH52)/2</f>
+        <f t="shared" ref="BJ51:BJ88" si="32">(BH51+BH52)/2</f>
         <v>-14.849999999999998</v>
       </c>
       <c r="BK51">
@@ -10072,7 +10075,7 @@
         <v>27.616820000000001</v>
       </c>
       <c r="BN51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>762.68874691240001</v>
       </c>
       <c r="BR51">
@@ -10085,7 +10088,7 @@
         <v>-1012</v>
       </c>
       <c r="CC51">
-        <f t="shared" ref="CC51:CC89" si="32">CD51*10</f>
+        <f t="shared" ref="CC51:CC89" si="33">CD51*10</f>
         <v>-1420</v>
       </c>
       <c r="CD51">
@@ -10120,7 +10123,7 @@
         <v>9.24</v>
       </c>
       <c r="AO52">
-        <f>(AE49+AP52)/2</f>
+        <f t="shared" si="28"/>
         <v>-8.6709999999999994</v>
       </c>
       <c r="AP52">
@@ -10132,27 +10135,27 @@
         <v>-20.006799999999998</v>
       </c>
       <c r="BH52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-19.579999999999998</v>
       </c>
       <c r="BI52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.77600000000000002</v>
       </c>
       <c r="BJ52">
+        <f t="shared" si="32"/>
+        <v>-18.259999999999998</v>
+      </c>
+      <c r="BK52">
+        <f t="shared" ref="BK52:BK89" si="34">(BI51+BI52)/2</f>
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="BL52">
+        <f t="shared" ref="BL52:BL89" si="35">ABS((BH52+BJ52)*(BI52+BK52))</f>
+        <v>37.877839999999999</v>
+      </c>
+      <c r="BN52">
         <f t="shared" si="31"/>
-        <v>-18.259999999999998</v>
-      </c>
-      <c r="BK52">
-        <f t="shared" ref="BK52:BK89" si="33">(BI51+BI52)/2</f>
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="BL52">
-        <f t="shared" ref="BL52:BL89" si="34">ABS((BH52+BJ52)*(BI52+BK52))</f>
-        <v>37.877839999999999</v>
-      </c>
-      <c r="BN52">
-        <f t="shared" si="30"/>
         <v>1434.7307630655998</v>
       </c>
       <c r="BR52">
@@ -10165,7 +10168,7 @@
         <v>-1958</v>
       </c>
       <c r="CC52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1900</v>
       </c>
       <c r="CD52">
@@ -10200,7 +10203,7 @@
         <v>16.940000000000001</v>
       </c>
       <c r="AO53">
-        <f>(AE50+AP53)/2</f>
+        <f t="shared" si="28"/>
         <v>-8.3040000000000003</v>
       </c>
       <c r="AP53">
@@ -10212,27 +10215,27 @@
         <v>-99.969760000000008</v>
       </c>
       <c r="BH53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-16.940000000000001</v>
       </c>
       <c r="BI53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.4019999999999999</v>
       </c>
       <c r="BJ53">
+        <f t="shared" si="32"/>
+        <v>-10.450000000000001</v>
+      </c>
+      <c r="BK53">
+        <f t="shared" si="34"/>
+        <v>-1.089</v>
+      </c>
+      <c r="BL53">
+        <f t="shared" si="35"/>
+        <v>68.228489999999994</v>
+      </c>
+      <c r="BN53">
         <f t="shared" si="31"/>
-        <v>-10.450000000000001</v>
-      </c>
-      <c r="BK53">
-        <f t="shared" si="33"/>
-        <v>-1.089</v>
-      </c>
-      <c r="BL53">
-        <f t="shared" si="34"/>
-        <v>68.228489999999994</v>
-      </c>
-      <c r="BN53">
-        <f t="shared" si="30"/>
         <v>4655.1268476800988</v>
       </c>
       <c r="BR53">
@@ -10245,7 +10248,7 @@
         <v>-1694</v>
       </c>
       <c r="CC53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1320</v>
       </c>
       <c r="CD53">
@@ -10280,7 +10283,7 @@
         <v>19.36</v>
       </c>
       <c r="AO54">
-        <f>(AE51+AP54)/2</f>
+        <f t="shared" si="28"/>
         <v>-3.4369999999999994</v>
       </c>
       <c r="AP54">
@@ -10292,27 +10295,27 @@
         <v>-40.51827999999999</v>
       </c>
       <c r="BH54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.96</v>
       </c>
       <c r="BI54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.45400000000000001</v>
       </c>
       <c r="BJ54">
+        <f t="shared" si="32"/>
+        <v>7.48</v>
+      </c>
+      <c r="BK54">
+        <f t="shared" si="34"/>
+        <v>-0.92799999999999994</v>
+      </c>
+      <c r="BL54">
+        <f t="shared" si="35"/>
+        <v>4.8646400000000005</v>
+      </c>
+      <c r="BN54">
         <f t="shared" si="31"/>
-        <v>7.48</v>
-      </c>
-      <c r="BK54">
-        <f t="shared" si="33"/>
-        <v>-0.92799999999999994</v>
-      </c>
-      <c r="BL54">
-        <f t="shared" si="34"/>
-        <v>4.8646400000000005</v>
-      </c>
-      <c r="BN54">
-        <f t="shared" si="30"/>
         <v>23.664722329600004</v>
       </c>
       <c r="BR54">
@@ -10325,7 +10328,7 @@
         <v>-396</v>
       </c>
       <c r="CC54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1120</v>
       </c>
       <c r="CD54">
@@ -10360,7 +10363,7 @@
         <v>18.59</v>
       </c>
       <c r="AO55">
-        <f>(AE52+AP55)/2</f>
+        <f t="shared" si="28"/>
         <v>1.3220000000000001</v>
       </c>
       <c r="AP55">
@@ -10372,27 +10375,27 @@
         <v>42.609160000000003</v>
       </c>
       <c r="BH55">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>18.920000000000002</v>
       </c>
       <c r="BI55">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.65800000000000003</v>
       </c>
       <c r="BJ55">
+        <f t="shared" si="32"/>
+        <v>18.260000000000002</v>
+      </c>
+      <c r="BK55">
+        <f t="shared" si="34"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="BL55">
+        <f t="shared" si="35"/>
+        <v>28.256800000000005</v>
+      </c>
+      <c r="BN55">
         <f t="shared" si="31"/>
-        <v>18.260000000000002</v>
-      </c>
-      <c r="BK55">
-        <f t="shared" si="33"/>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="BL55">
-        <f t="shared" si="34"/>
-        <v>28.256800000000005</v>
-      </c>
-      <c r="BN55">
-        <f t="shared" si="30"/>
         <v>798.44674624000027</v>
       </c>
       <c r="BR55">
@@ -10405,7 +10408,7 @@
         <v>1892</v>
       </c>
       <c r="CC55">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1800</v>
       </c>
       <c r="CD55">
@@ -10440,7 +10443,7 @@
         <v>14.85</v>
       </c>
       <c r="AO56">
-        <f>(AE53+AP56)/2</f>
+        <f t="shared" si="28"/>
         <v>4.468</v>
       </c>
       <c r="AP56">
@@ -10452,27 +10455,27 @@
         <v>82.940439999999995</v>
       </c>
       <c r="BH56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17.600000000000001</v>
       </c>
       <c r="BI56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.3720000000000001</v>
       </c>
       <c r="BJ56">
+        <f t="shared" si="32"/>
+        <v>11.55</v>
+      </c>
+      <c r="BK56">
+        <f t="shared" si="34"/>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="BL56">
+        <f t="shared" si="35"/>
+        <v>69.581050000000019</v>
+      </c>
+      <c r="BN56">
         <f t="shared" si="31"/>
-        <v>11.55</v>
-      </c>
-      <c r="BK56">
-        <f t="shared" si="33"/>
-        <v>1.0150000000000001</v>
-      </c>
-      <c r="BL56">
-        <f t="shared" si="34"/>
-        <v>69.581050000000019</v>
-      </c>
-      <c r="BN56">
-        <f t="shared" si="30"/>
         <v>4841.5225191025029</v>
       </c>
       <c r="BR56">
@@ -10485,7 +10488,7 @@
         <v>1760</v>
       </c>
       <c r="CC56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1320</v>
       </c>
       <c r="CD56">
@@ -10520,7 +10523,7 @@
         <v>8.69</v>
       </c>
       <c r="AO57">
-        <f>(AE54+AP57)/2</f>
+        <f t="shared" si="28"/>
         <v>7.8100000000000005</v>
       </c>
       <c r="AP57">
@@ -10532,27 +10535,27 @@
         <v>98.131000000000014</v>
       </c>
       <c r="BH57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.5</v>
       </c>
       <c r="BI57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.234</v>
       </c>
       <c r="BJ57">
+        <f t="shared" si="32"/>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="BK57">
+        <f t="shared" si="34"/>
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="BL57">
+        <f t="shared" si="35"/>
+        <v>8.3720999999999997</v>
+      </c>
+      <c r="BN57">
         <f t="shared" si="31"/>
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="BK57">
-        <f t="shared" si="33"/>
-        <v>1.3029999999999999</v>
-      </c>
-      <c r="BL57">
-        <f t="shared" si="34"/>
-        <v>8.3720999999999997</v>
-      </c>
-      <c r="BN57">
-        <f t="shared" si="30"/>
         <v>70.092058409999993</v>
       </c>
       <c r="BR57">
@@ -10565,7 +10568,7 @@
         <v>550</v>
       </c>
       <c r="CC57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-60</v>
       </c>
       <c r="CD57">
@@ -10600,7 +10603,7 @@
         <v>4.07</v>
       </c>
       <c r="AO58">
-        <f>(AE55+AP58)/2</f>
+        <f t="shared" si="28"/>
         <v>9.1229999999999993</v>
       </c>
       <c r="AP58">
@@ -10612,27 +10615,27 @@
         <v>49.239299999999993</v>
       </c>
       <c r="BH58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.9</v>
       </c>
       <c r="BI58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.33600000000000002</v>
       </c>
       <c r="BJ58">
+        <f t="shared" si="32"/>
+        <v>-14.739999999999998</v>
+      </c>
+      <c r="BK58">
+        <f t="shared" si="34"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="BL58">
+        <f t="shared" si="35"/>
+        <v>27.62144</v>
+      </c>
+      <c r="BN58">
         <f t="shared" si="31"/>
-        <v>-14.739999999999998</v>
-      </c>
-      <c r="BK58">
-        <f t="shared" si="33"/>
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="BL58">
-        <f t="shared" si="34"/>
-        <v>27.62144</v>
-      </c>
-      <c r="BN58">
-        <f t="shared" si="30"/>
         <v>762.94394767359995</v>
       </c>
       <c r="BR58">
@@ -10645,7 +10648,7 @@
         <v>-990</v>
       </c>
       <c r="CC58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1420</v>
       </c>
       <c r="CD58">
@@ -10680,7 +10683,7 @@
         <v>6.82</v>
       </c>
       <c r="AO59">
-        <f>(AE56+AP59)/2</f>
+        <f t="shared" si="28"/>
         <v>10.372999999999999</v>
       </c>
       <c r="AP59">
@@ -10692,27 +10695,27 @@
         <v>39.900959999999998</v>
       </c>
       <c r="BH59">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-19.579999999999998</v>
       </c>
       <c r="BI59">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.1879999999999999</v>
       </c>
       <c r="BJ59">
+        <f t="shared" si="32"/>
+        <v>-15.62</v>
+      </c>
+      <c r="BK59">
+        <f t="shared" si="34"/>
+        <v>-0.42599999999999993</v>
+      </c>
+      <c r="BL59">
+        <f t="shared" si="35"/>
+        <v>56.812799999999989</v>
+      </c>
+      <c r="BN59">
         <f t="shared" si="31"/>
-        <v>-15.62</v>
-      </c>
-      <c r="BK59">
-        <f t="shared" si="33"/>
-        <v>-0.42599999999999993</v>
-      </c>
-      <c r="BL59">
-        <f t="shared" si="34"/>
-        <v>56.812799999999989</v>
-      </c>
-      <c r="BN59">
-        <f t="shared" si="30"/>
         <v>3227.6942438399988</v>
       </c>
       <c r="BP59" s="1"/>
@@ -10726,7 +10729,7 @@
         <v>-1958</v>
       </c>
       <c r="CC59">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1720</v>
       </c>
       <c r="CD59">
@@ -10761,7 +10764,7 @@
         <v>13.530000000000001</v>
       </c>
       <c r="AO60">
-        <f>(AE57+AP60)/2</f>
+        <f t="shared" si="28"/>
         <v>8.5649999999999995</v>
       </c>
       <c r="AP60">
@@ -10773,27 +10776,27 @@
         <v>109.38839999999999</v>
       </c>
       <c r="BH60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-11.66</v>
       </c>
       <c r="BI60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.4119999999999999</v>
       </c>
       <c r="BJ60">
+        <f t="shared" si="32"/>
+        <v>-3.96</v>
+      </c>
+      <c r="BK60">
+        <f t="shared" si="34"/>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="BL60">
+        <f t="shared" si="35"/>
+        <v>42.361440000000002</v>
+      </c>
+      <c r="BN60">
         <f t="shared" si="31"/>
-        <v>-3.96</v>
-      </c>
-      <c r="BK60">
-        <f t="shared" si="33"/>
-        <v>-1.2999999999999998</v>
-      </c>
-      <c r="BL60">
-        <f t="shared" si="34"/>
-        <v>42.361440000000002</v>
-      </c>
-      <c r="BN60">
-        <f t="shared" si="30"/>
         <v>1794.4915988736002</v>
       </c>
       <c r="BR60">
@@ -10806,7 +10809,7 @@
         <v>-1166</v>
       </c>
       <c r="CC60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-640</v>
       </c>
       <c r="CD60">
@@ -10841,7 +10844,7 @@
         <v>18.04</v>
       </c>
       <c r="AO61">
-        <f>(AE58+AP61)/2</f>
+        <f t="shared" si="28"/>
         <v>6.6400000000000006</v>
       </c>
       <c r="AP61">
@@ -10853,27 +10856,27 @@
         <v>134.816</v>
       </c>
       <c r="BH61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.74</v>
       </c>
       <c r="BI61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.77600000000000002</v>
       </c>
       <c r="BJ61">
+        <f t="shared" si="32"/>
+        <v>10.23</v>
+      </c>
+      <c r="BK61">
+        <f t="shared" si="34"/>
+        <v>-1.0939999999999999</v>
+      </c>
+      <c r="BL61">
+        <f t="shared" si="35"/>
+        <v>26.123899999999999</v>
+      </c>
+      <c r="BN61">
         <f t="shared" si="31"/>
-        <v>10.23</v>
-      </c>
-      <c r="BK61">
-        <f t="shared" si="33"/>
-        <v>-1.0939999999999999</v>
-      </c>
-      <c r="BL61">
-        <f t="shared" si="34"/>
-        <v>26.123899999999999</v>
-      </c>
-      <c r="BN61">
-        <f t="shared" si="30"/>
         <v>682.45815120999998</v>
       </c>
       <c r="BR61">
@@ -10886,7 +10889,7 @@
         <v>374</v>
       </c>
       <c r="CC61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>820</v>
       </c>
       <c r="CD61">
@@ -10921,7 +10924,7 @@
         <v>18.369999999999997</v>
       </c>
       <c r="AO62">
-        <f>(AE59+AP62)/2</f>
+        <f t="shared" si="28"/>
         <v>2.673</v>
       </c>
       <c r="AP62">
@@ -10933,27 +10936,27 @@
         <v>73.756759999999986</v>
       </c>
       <c r="BH62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16.72</v>
       </c>
       <c r="BI62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.32600000000000001</v>
       </c>
       <c r="BJ62">
+        <f t="shared" si="32"/>
+        <v>18.04</v>
+      </c>
+      <c r="BK62">
+        <f t="shared" si="34"/>
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="BL62">
+        <f t="shared" si="35"/>
+        <v>3.5107599999999999</v>
+      </c>
+      <c r="BN62">
         <f t="shared" si="31"/>
-        <v>18.04</v>
-      </c>
-      <c r="BK62">
-        <f t="shared" si="33"/>
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="BL62">
-        <f t="shared" si="34"/>
-        <v>3.5107599999999999</v>
-      </c>
-      <c r="BN62">
-        <f t="shared" si="30"/>
         <v>12.325435777599999</v>
       </c>
       <c r="BR62">
@@ -10966,7 +10969,7 @@
         <v>1672</v>
       </c>
       <c r="CC62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1700</v>
       </c>
       <c r="CD62">
@@ -11001,7 +11004,7 @@
         <v>14.3</v>
       </c>
       <c r="AO63">
-        <f>(AE60+AP63)/2</f>
+        <f t="shared" si="28"/>
         <v>-1.631</v>
       </c>
       <c r="AP63">
@@ -11013,27 +11016,27 @@
         <v>-24.298560000000002</v>
       </c>
       <c r="BH63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19.36</v>
       </c>
       <c r="BI63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.234</v>
       </c>
       <c r="BJ63">
+        <f t="shared" si="32"/>
+        <v>14.739999999999998</v>
+      </c>
+      <c r="BK63">
+        <f t="shared" si="34"/>
+        <v>0.78</v>
+      </c>
+      <c r="BL63">
+        <f t="shared" si="35"/>
+        <v>68.677399999999992</v>
+      </c>
+      <c r="BN63">
         <f t="shared" si="31"/>
-        <v>14.739999999999998</v>
-      </c>
-      <c r="BK63">
-        <f t="shared" si="33"/>
-        <v>0.78</v>
-      </c>
-      <c r="BL63">
-        <f t="shared" si="34"/>
-        <v>68.677399999999992</v>
-      </c>
-      <c r="BN63">
-        <f t="shared" si="30"/>
         <v>4716.5852707599988</v>
       </c>
       <c r="BR63">
@@ -11046,7 +11049,7 @@
         <v>1936</v>
       </c>
       <c r="CC63">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1500</v>
       </c>
       <c r="CD63">
@@ -11081,7 +11084,7 @@
         <v>7.6999999999999993</v>
       </c>
       <c r="AO64">
-        <f>(AE61+AP64)/2</f>
+        <f t="shared" si="28"/>
         <v>-5.6710000000000003</v>
       </c>
       <c r="AP64">
@@ -11093,27 +11096,27 @@
         <v>-62.427639999999997</v>
       </c>
       <c r="BH64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10.119999999999999</v>
       </c>
       <c r="BI64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.1080000000000001</v>
       </c>
       <c r="BJ64">
+        <f t="shared" si="32"/>
+        <v>-1.21</v>
+      </c>
+      <c r="BK64">
+        <f t="shared" si="34"/>
+        <v>1.171</v>
+      </c>
+      <c r="BL64">
+        <f t="shared" si="35"/>
+        <v>20.305889999999998</v>
+      </c>
+      <c r="BN64">
         <f t="shared" si="31"/>
-        <v>-1.21</v>
-      </c>
-      <c r="BK64">
-        <f t="shared" si="33"/>
-        <v>1.171</v>
-      </c>
-      <c r="BL64">
-        <f t="shared" si="34"/>
-        <v>20.305889999999998</v>
-      </c>
-      <c r="BN64">
-        <f t="shared" si="30"/>
         <v>412.32916869209993</v>
       </c>
       <c r="BR64">
@@ -11126,7 +11129,7 @@
         <v>1012</v>
       </c>
       <c r="CC64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-340</v>
       </c>
       <c r="CD64">
@@ -11161,7 +11164,7 @@
         <v>3.96</v>
       </c>
       <c r="AO65">
-        <f>(AE62+AP65)/2</f>
+        <f t="shared" si="28"/>
         <v>-9.4770000000000003</v>
       </c>
       <c r="AP65">
@@ -11173,27 +11176,27 @@
         <v>-34.178759999999997</v>
       </c>
       <c r="BH65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-12.54</v>
       </c>
       <c r="BI65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.112</v>
       </c>
       <c r="BJ65">
+        <f t="shared" si="32"/>
+        <v>-16.28</v>
+      </c>
+      <c r="BK65">
+        <f t="shared" si="34"/>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="BL65">
+        <f t="shared" si="35"/>
+        <v>20.808040000000002</v>
+      </c>
+      <c r="BN65">
         <f t="shared" si="31"/>
-        <v>-16.28</v>
-      </c>
-      <c r="BK65">
-        <f t="shared" si="33"/>
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="BL65">
-        <f t="shared" si="34"/>
-        <v>20.808040000000002</v>
-      </c>
-      <c r="BN65">
-        <f t="shared" si="30"/>
         <v>432.9745286416001</v>
       </c>
       <c r="BR65">
@@ -11206,7 +11209,7 @@
         <v>-1254</v>
       </c>
       <c r="CC65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1620</v>
       </c>
       <c r="CD65">
@@ -11223,7 +11226,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
       <c r="AG66">
-        <f>AE66*AF66</f>
+        <f t="shared" ref="AG66:AG81" si="36">AE66*AF66</f>
         <v>0.1782</v>
       </c>
       <c r="AJ66">
@@ -11241,7 +11244,7 @@
         <v>7.6999999999999993</v>
       </c>
       <c r="AO66">
-        <f>(AE63+AP66)/2</f>
+        <f t="shared" si="28"/>
         <v>-8.456999999999999</v>
       </c>
       <c r="AP66">
@@ -11253,27 +11256,27 @@
         <v>-23.972519999999999</v>
       </c>
       <c r="BH66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-20.02</v>
       </c>
       <c r="BI66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.94199999999999995</v>
       </c>
       <c r="BJ66">
+        <f t="shared" si="32"/>
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="BK66">
+        <f t="shared" si="34"/>
+        <v>-0.41499999999999998</v>
+      </c>
+      <c r="BL66">
+        <f t="shared" si="35"/>
+        <v>51.050340000000006</v>
+      </c>
+      <c r="BN66">
         <f t="shared" si="31"/>
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="BK66">
-        <f t="shared" si="33"/>
-        <v>-0.41499999999999998</v>
-      </c>
-      <c r="BL66">
-        <f t="shared" si="34"/>
-        <v>51.050340000000006</v>
-      </c>
-      <c r="BN66">
-        <f t="shared" si="30"/>
         <v>2606.1372141156007</v>
       </c>
       <c r="BR66">
@@ -11286,7 +11289,7 @@
         <v>-2002</v>
       </c>
       <c r="CC66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1900</v>
       </c>
       <c r="CD66">
@@ -11303,7 +11306,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="AG67">
-        <f>AE67*AF67</f>
+        <f t="shared" si="36"/>
         <v>6.0060000000000016E-2</v>
       </c>
       <c r="AJ67">
@@ -11321,7 +11324,7 @@
         <v>14.190000000000001</v>
       </c>
       <c r="AO67">
-        <f>(AE64+AP67)/2</f>
+        <f t="shared" si="28"/>
         <v>-7.5389999999999997</v>
       </c>
       <c r="AP67">
@@ -11333,27 +11336,27 @@
         <v>-66.067979999999991</v>
       </c>
       <c r="BH67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-15.18</v>
       </c>
       <c r="BI67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.4319999999999999</v>
       </c>
       <c r="BJ67">
+        <f t="shared" si="32"/>
+        <v>-8.14</v>
+      </c>
+      <c r="BK67">
+        <f t="shared" si="34"/>
+        <v>-1.1869999999999998</v>
+      </c>
+      <c r="BL67">
+        <f t="shared" si="35"/>
+        <v>61.075079999999993</v>
+      </c>
+      <c r="BN67">
         <f t="shared" si="31"/>
-        <v>-8.14</v>
-      </c>
-      <c r="BK67">
-        <f t="shared" si="33"/>
-        <v>-1.1869999999999998</v>
-      </c>
-      <c r="BL67">
-        <f t="shared" si="34"/>
-        <v>61.075079999999993</v>
-      </c>
-      <c r="BN67">
-        <f t="shared" si="30"/>
         <v>3730.165397006399</v>
       </c>
       <c r="BR67">
@@ -11366,7 +11369,7 @@
         <v>-1518</v>
       </c>
       <c r="CC67">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1120</v>
       </c>
       <c r="CD67">
@@ -11383,7 +11386,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="AG68">
-        <f>AE68*AF68</f>
+        <f t="shared" si="36"/>
         <v>0.92664000000000002</v>
       </c>
       <c r="AJ68">
@@ -11413,27 +11416,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="BI68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.04</v>
       </c>
       <c r="BJ68">
+        <f t="shared" si="32"/>
+        <v>6.2700000000000005</v>
+      </c>
+      <c r="BK68">
+        <f t="shared" si="34"/>
+        <v>-1.236</v>
+      </c>
+      <c r="BL68">
+        <f t="shared" si="35"/>
+        <v>11.766919999999999</v>
+      </c>
+      <c r="BN68">
         <f t="shared" si="31"/>
-        <v>6.2700000000000005</v>
-      </c>
-      <c r="BK68">
-        <f t="shared" si="33"/>
-        <v>-1.236</v>
-      </c>
-      <c r="BL68">
-        <f t="shared" si="34"/>
-        <v>11.766919999999999</v>
-      </c>
-      <c r="BN68">
-        <f t="shared" si="30"/>
         <v>138.46040628639997</v>
       </c>
       <c r="BR68">
@@ -11446,7 +11449,7 @@
         <v>-110</v>
       </c>
       <c r="CC68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>340</v>
       </c>
       <c r="CD68">
@@ -11463,7 +11466,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="AG69">
-        <f>AE69*AF69</f>
+        <f t="shared" si="36"/>
         <v>2.2492799999999997</v>
       </c>
       <c r="AJ69">
@@ -11493,27 +11496,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13.64</v>
       </c>
       <c r="BI69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.55200000000000005</v>
       </c>
       <c r="BJ69">
+        <f t="shared" si="32"/>
+        <v>16.060000000000002</v>
+      </c>
+      <c r="BK69">
+        <f t="shared" si="34"/>
+        <v>-0.24399999999999999</v>
+      </c>
+      <c r="BL69">
+        <f t="shared" si="35"/>
+        <v>9.1476000000000024</v>
+      </c>
+      <c r="BN69">
         <f t="shared" si="31"/>
-        <v>16.060000000000002</v>
-      </c>
-      <c r="BK69">
-        <f t="shared" si="33"/>
-        <v>-0.24399999999999999</v>
-      </c>
-      <c r="BL69">
-        <f t="shared" si="34"/>
-        <v>9.1476000000000024</v>
-      </c>
-      <c r="BN69">
-        <f t="shared" si="30"/>
         <v>83.678585760000047</v>
       </c>
       <c r="BR69">
@@ -11526,7 +11529,7 @@
         <v>1364</v>
       </c>
       <c r="CC69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1800</v>
       </c>
       <c r="CD69">
@@ -11543,7 +11546,7 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="AG70">
-        <f>AE70*AF70</f>
+        <f t="shared" si="36"/>
         <v>2.8908</v>
       </c>
       <c r="AJ70">
@@ -11573,27 +11576,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>18.48</v>
       </c>
       <c r="BI70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.3220000000000001</v>
       </c>
       <c r="BJ70">
+        <f t="shared" si="32"/>
+        <v>12.870000000000001</v>
+      </c>
+      <c r="BK70">
+        <f t="shared" si="34"/>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="BL70">
+        <f t="shared" si="35"/>
+        <v>70.81965000000001</v>
+      </c>
+      <c r="BN70">
         <f t="shared" si="31"/>
-        <v>12.870000000000001</v>
-      </c>
-      <c r="BK70">
-        <f t="shared" si="33"/>
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="BL70">
-        <f t="shared" si="34"/>
-        <v>70.81965000000001</v>
-      </c>
-      <c r="BN70">
-        <f t="shared" si="30"/>
         <v>5015.4228261225016</v>
       </c>
       <c r="BR70">
@@ -11606,7 +11609,7 @@
         <v>1848</v>
       </c>
       <c r="CC70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1420</v>
       </c>
       <c r="CD70">
@@ -11623,7 +11626,7 @@
         <v>0.15</v>
       </c>
       <c r="AG71">
-        <f>AE71*AF71</f>
+        <f t="shared" si="36"/>
         <v>2.1779999999999999</v>
       </c>
       <c r="AJ71">
@@ -11653,27 +11656,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.26</v>
       </c>
       <c r="BI71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.304</v>
       </c>
       <c r="BJ71">
+        <f t="shared" si="32"/>
+        <v>-0.54999999999999982</v>
+      </c>
+      <c r="BK71">
+        <f t="shared" si="34"/>
+        <v>1.3130000000000002</v>
+      </c>
+      <c r="BL71">
+        <f t="shared" si="35"/>
+        <v>17.56007</v>
+      </c>
+      <c r="BN71">
         <f t="shared" si="31"/>
-        <v>-0.54999999999999982</v>
-      </c>
-      <c r="BK71">
-        <f t="shared" si="33"/>
-        <v>1.3130000000000002</v>
-      </c>
-      <c r="BL71">
-        <f t="shared" si="34"/>
-        <v>17.56007</v>
-      </c>
-      <c r="BN71">
-        <f t="shared" si="30"/>
         <v>308.35605840490001</v>
       </c>
       <c r="BR71">
@@ -11686,7 +11689,7 @@
         <v>726</v>
       </c>
       <c r="CC71">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>140</v>
       </c>
       <c r="CD71">
@@ -11703,7 +11706,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="AG72">
-        <f>AE72*AF72</f>
+        <f t="shared" si="36"/>
         <v>0.85008000000000006</v>
       </c>
       <c r="AJ72">
@@ -11733,27 +11736,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.36</v>
       </c>
       <c r="BI72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.46400000000000002</v>
       </c>
       <c r="BJ72">
+        <f t="shared" si="32"/>
+        <v>-13.64</v>
+      </c>
+      <c r="BK72">
+        <f t="shared" si="34"/>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="BL72">
+        <f t="shared" si="35"/>
+        <v>29.656000000000002</v>
+      </c>
+      <c r="BN72">
         <f t="shared" si="31"/>
-        <v>-13.64</v>
-      </c>
-      <c r="BK72">
-        <f t="shared" si="33"/>
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="BL72">
-        <f t="shared" si="34"/>
-        <v>29.656000000000002</v>
-      </c>
-      <c r="BN72">
-        <f t="shared" si="30"/>
         <v>879.47833600000013</v>
       </c>
       <c r="BR72">
@@ -11766,7 +11769,7 @@
         <v>-836</v>
       </c>
       <c r="CC72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1220</v>
       </c>
       <c r="CD72">
@@ -11783,7 +11786,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AG73">
-        <f>AE73*AF73</f>
+        <f t="shared" si="36"/>
         <v>4.862000000000001E-2</v>
       </c>
       <c r="AJ73">
@@ -11813,27 +11816,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-18.920000000000002</v>
       </c>
       <c r="BI73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.65</v>
       </c>
       <c r="BJ73">
+        <f t="shared" si="32"/>
+        <v>-18.48</v>
+      </c>
+      <c r="BK73">
+        <f t="shared" si="34"/>
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="BL73">
+        <f t="shared" si="35"/>
+        <v>27.788200000000003</v>
+      </c>
+      <c r="BN73">
         <f t="shared" si="31"/>
-        <v>-18.48</v>
-      </c>
-      <c r="BK73">
-        <f t="shared" si="33"/>
-        <v>-9.2999999999999999E-2</v>
-      </c>
-      <c r="BL73">
-        <f t="shared" si="34"/>
-        <v>27.788200000000003</v>
-      </c>
-      <c r="BN73">
-        <f t="shared" si="30"/>
         <v>772.18405924000024</v>
       </c>
       <c r="BR73">
@@ -11846,7 +11849,7 @@
         <v>-1892</v>
       </c>
       <c r="CC73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1900</v>
       </c>
       <c r="CD73">
@@ -11863,7 +11866,7 @@
         <v>-3.9E-2</v>
       </c>
       <c r="AG74">
-        <f>AE74*AF74</f>
+        <f t="shared" si="36"/>
         <v>0.24881999999999999</v>
       </c>
       <c r="AJ74">
@@ -11893,27 +11896,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-18.04</v>
       </c>
       <c r="BI74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.4319999999999999</v>
       </c>
       <c r="BJ74">
+        <f t="shared" si="32"/>
+        <v>-8.1399999999999988</v>
+      </c>
+      <c r="BK74">
+        <f t="shared" si="34"/>
+        <v>-1.0409999999999999</v>
+      </c>
+      <c r="BL74">
+        <f t="shared" si="35"/>
+        <v>64.743139999999997</v>
+      </c>
+      <c r="BN74">
         <f t="shared" si="31"/>
-        <v>-8.1399999999999988</v>
-      </c>
-      <c r="BK74">
-        <f t="shared" si="33"/>
-        <v>-1.0409999999999999</v>
-      </c>
-      <c r="BL74">
-        <f t="shared" si="34"/>
-        <v>64.743139999999997</v>
-      </c>
-      <c r="BN74">
-        <f t="shared" si="30"/>
         <v>4191.6741770596</v>
       </c>
       <c r="BR74">
@@ -11926,7 +11929,7 @@
         <v>-1804</v>
       </c>
       <c r="CC74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-840</v>
       </c>
       <c r="CD74">
@@ -11943,7 +11946,7 @@
         <v>-0.112</v>
       </c>
       <c r="AG75">
-        <f>AE75*AF75</f>
+        <f t="shared" si="36"/>
         <v>1.3675199999999998</v>
       </c>
       <c r="AJ75">
@@ -11973,27 +11976,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.76</v>
       </c>
       <c r="BI75">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.90400000000000003</v>
       </c>
       <c r="BJ75">
+        <f t="shared" si="32"/>
+        <v>8.58</v>
+      </c>
+      <c r="BK75">
+        <f t="shared" si="34"/>
+        <v>-1.1679999999999999</v>
+      </c>
+      <c r="BL75">
+        <f t="shared" si="35"/>
+        <v>21.424479999999999</v>
+      </c>
+      <c r="BN75">
         <f t="shared" si="31"/>
-        <v>8.58</v>
-      </c>
-      <c r="BK75">
-        <f t="shared" si="33"/>
-        <v>-1.1679999999999999</v>
-      </c>
-      <c r="BL75">
-        <f t="shared" si="34"/>
-        <v>21.424479999999999</v>
-      </c>
-      <c r="BN75">
-        <f t="shared" si="30"/>
         <v>459.00834327039996</v>
       </c>
       <c r="BR75">
@@ -12006,7 +12009,7 @@
         <v>176</v>
       </c>
       <c r="CC75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>620</v>
       </c>
       <c r="CD75">
@@ -12023,7 +12026,7 @@
         <v>-0.151</v>
       </c>
       <c r="AG76">
-        <f>AE76*AF76</f>
+        <f t="shared" si="36"/>
         <v>2.7240399999999996</v>
       </c>
       <c r="AJ76">
@@ -12053,27 +12056,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.4</v>
       </c>
       <c r="BI76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.18</v>
       </c>
       <c r="BJ76">
+        <f t="shared" si="32"/>
+        <v>17.489999999999998</v>
+      </c>
+      <c r="BK76">
+        <f t="shared" si="34"/>
+        <v>-0.36199999999999999</v>
+      </c>
+      <c r="BL76">
+        <f t="shared" si="35"/>
+        <v>5.9859799999999996</v>
+      </c>
+      <c r="BN76">
         <f t="shared" si="31"/>
-        <v>17.489999999999998</v>
-      </c>
-      <c r="BK76">
-        <f t="shared" si="33"/>
-        <v>-0.36199999999999999</v>
-      </c>
-      <c r="BL76">
-        <f t="shared" si="34"/>
-        <v>5.9859799999999996</v>
-      </c>
-      <c r="BN76">
-        <f t="shared" si="30"/>
         <v>35.831956560399995</v>
       </c>
       <c r="BR76">
@@ -12086,7 +12089,7 @@
         <v>1540</v>
       </c>
       <c r="CC76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1600</v>
       </c>
       <c r="CD76">
@@ -12103,7 +12106,7 @@
         <v>-0.19</v>
       </c>
       <c r="AG77">
-        <f>AE77*AF77</f>
+        <f t="shared" si="36"/>
         <v>3.4902999999999995</v>
       </c>
       <c r="AJ77">
@@ -12133,27 +12136,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19.579999999999998</v>
       </c>
       <c r="BI77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.1459999999999999</v>
       </c>
       <c r="BJ77">
+        <f t="shared" si="32"/>
+        <v>15.73</v>
+      </c>
+      <c r="BK77">
+        <f t="shared" si="34"/>
+        <v>0.66299999999999992</v>
+      </c>
+      <c r="BL77">
+        <f t="shared" si="35"/>
+        <v>63.875789999999995</v>
+      </c>
+      <c r="BN77">
         <f t="shared" si="31"/>
-        <v>15.73</v>
-      </c>
-      <c r="BK77">
-        <f t="shared" si="33"/>
-        <v>0.66299999999999992</v>
-      </c>
-      <c r="BL77">
-        <f t="shared" si="34"/>
-        <v>63.875789999999995</v>
-      </c>
-      <c r="BN77">
-        <f t="shared" si="30"/>
         <v>4080.1165481240992</v>
       </c>
       <c r="BR77">
@@ -12166,7 +12169,7 @@
         <v>1958</v>
       </c>
       <c r="CC77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1600</v>
       </c>
       <c r="CD77">
@@ -12183,7 +12186,7 @@
         <v>-0.17099999999999999</v>
       </c>
       <c r="AG78">
-        <f>AE78*AF78</f>
+        <f t="shared" si="36"/>
         <v>3.1976999999999998</v>
       </c>
       <c r="AJ78">
@@ -12213,27 +12216,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11.88</v>
       </c>
       <c r="BI78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.41</v>
       </c>
       <c r="BJ78">
+        <f t="shared" si="32"/>
+        <v>4.1800000000000006</v>
+      </c>
+      <c r="BK78">
+        <f t="shared" si="34"/>
+        <v>1.278</v>
+      </c>
+      <c r="BL78">
+        <f t="shared" si="35"/>
+        <v>43.169280000000001</v>
+      </c>
+      <c r="BN78">
         <f t="shared" si="31"/>
-        <v>4.1800000000000006</v>
-      </c>
-      <c r="BK78">
-        <f t="shared" si="33"/>
-        <v>1.278</v>
-      </c>
-      <c r="BL78">
-        <f t="shared" si="34"/>
-        <v>43.169280000000001</v>
-      </c>
-      <c r="BN78">
-        <f t="shared" si="30"/>
         <v>1863.5867357184</v>
       </c>
       <c r="BR78">
@@ -12246,7 +12249,7 @@
         <v>1188</v>
       </c>
       <c r="CC78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>620</v>
       </c>
       <c r="CD78">
@@ -12263,7 +12266,7 @@
         <v>-0.152</v>
       </c>
       <c r="AG79">
-        <f>AE79*AF79</f>
+        <f t="shared" si="36"/>
         <v>2.0398399999999999</v>
       </c>
       <c r="AJ79">
@@ -12293,27 +12296,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.52</v>
       </c>
       <c r="BI79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.25800000000000001</v>
       </c>
       <c r="BJ79">
+        <f t="shared" si="32"/>
+        <v>-11.66</v>
+      </c>
+      <c r="BK79">
+        <f t="shared" si="34"/>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="BL79">
+        <f t="shared" si="35"/>
+        <v>16.576560000000001</v>
+      </c>
+      <c r="BN79">
         <f t="shared" si="31"/>
-        <v>-11.66</v>
-      </c>
-      <c r="BK79">
-        <f t="shared" si="33"/>
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="BL79">
-        <f t="shared" si="34"/>
-        <v>16.576560000000001</v>
-      </c>
-      <c r="BN79">
-        <f t="shared" si="30"/>
         <v>274.78234143360004</v>
       </c>
       <c r="BR79">
@@ -12326,7 +12329,7 @@
         <v>-352</v>
       </c>
       <c r="CC79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1420</v>
       </c>
       <c r="CD79">
@@ -12343,7 +12346,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
       <c r="AG80">
-        <f>AE80*AF80</f>
+        <f t="shared" si="36"/>
         <v>0.43956000000000001</v>
       </c>
       <c r="AJ80">
@@ -12373,27 +12376,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-19.8</v>
       </c>
       <c r="BI80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.83599999999999997</v>
       </c>
       <c r="BJ80">
+        <f t="shared" si="32"/>
+        <v>-18.149999999999999</v>
+      </c>
+      <c r="BK80">
+        <f t="shared" si="34"/>
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="BL80">
+        <f t="shared" si="35"/>
+        <v>42.693750000000001</v>
+      </c>
+      <c r="BN80">
         <f t="shared" si="31"/>
-        <v>-18.149999999999999</v>
-      </c>
-      <c r="BK80">
-        <f t="shared" si="33"/>
-        <v>-0.28899999999999998</v>
-      </c>
-      <c r="BL80">
-        <f t="shared" si="34"/>
-        <v>42.693750000000001</v>
-      </c>
-      <c r="BN80">
-        <f t="shared" si="30"/>
         <v>1822.7562890625002</v>
       </c>
       <c r="BR80">
@@ -12406,7 +12409,7 @@
         <v>-1980</v>
       </c>
       <c r="CC80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1900</v>
       </c>
       <c r="CD80">
@@ -12423,7 +12426,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="AG81">
-        <f>AE81*AF81</f>
+        <f t="shared" si="36"/>
         <v>-6.2920000000000004E-2</v>
       </c>
       <c r="AJ81">
@@ -12453,27 +12456,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-16.5</v>
       </c>
       <c r="BI81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.4219999999999999</v>
       </c>
       <c r="BJ81">
+        <f t="shared" si="32"/>
+        <v>-9.9</v>
+      </c>
+      <c r="BK81">
+        <f t="shared" si="34"/>
+        <v>-1.129</v>
+      </c>
+      <c r="BL81">
+        <f t="shared" si="35"/>
+        <v>67.346400000000003</v>
+      </c>
+      <c r="BN81">
         <f t="shared" si="31"/>
-        <v>-9.9</v>
-      </c>
-      <c r="BK81">
-        <f t="shared" si="33"/>
-        <v>-1.129</v>
-      </c>
-      <c r="BL81">
-        <f t="shared" si="34"/>
-        <v>67.346400000000003</v>
-      </c>
-      <c r="BN81">
-        <f t="shared" si="30"/>
         <v>4535.5375929600004</v>
       </c>
       <c r="BR81">
@@ -12486,7 +12489,7 @@
         <v>-1650</v>
       </c>
       <c r="CC81">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1220</v>
       </c>
       <c r="CD81">
@@ -12521,27 +12524,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.3</v>
       </c>
       <c r="BI82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.1379999999999999</v>
       </c>
       <c r="BJ82">
+        <f t="shared" si="32"/>
+        <v>4.2900000000000009</v>
+      </c>
+      <c r="BK82">
+        <f t="shared" si="34"/>
+        <v>-1.2799999999999998</v>
+      </c>
+      <c r="BL82">
+        <f t="shared" si="35"/>
+        <v>2.3938200000000025</v>
+      </c>
+      <c r="BN82">
         <f t="shared" si="31"/>
-        <v>4.2900000000000009</v>
-      </c>
-      <c r="BK82">
-        <f t="shared" si="33"/>
-        <v>-1.2799999999999998</v>
-      </c>
-      <c r="BL82">
-        <f t="shared" si="34"/>
-        <v>2.3938200000000025</v>
-      </c>
-      <c r="BN82">
-        <f t="shared" si="30"/>
         <v>5.7303741924000118</v>
       </c>
       <c r="BR82">
@@ -12554,7 +12557,7 @@
         <v>-330</v>
       </c>
       <c r="CC82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>140</v>
       </c>
       <c r="CD82">
@@ -12589,27 +12592,27 @@
         <v>#REF!</v>
       </c>
       <c r="BH83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11.88</v>
       </c>
       <c r="BI83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.17199999999999999</v>
       </c>
       <c r="BJ83">
+        <f t="shared" si="32"/>
+        <v>15.84</v>
+      </c>
+      <c r="BK83">
+        <f t="shared" si="34"/>
+        <v>-0.65499999999999992</v>
+      </c>
+      <c r="BL83">
+        <f t="shared" si="35"/>
+        <v>22.924439999999997</v>
+      </c>
+      <c r="BN83">
         <f t="shared" si="31"/>
-        <v>15.84</v>
-      </c>
-      <c r="BK83">
-        <f t="shared" si="33"/>
-        <v>-0.65499999999999992</v>
-      </c>
-      <c r="BL83">
-        <f t="shared" si="34"/>
-        <v>22.924439999999997</v>
-      </c>
-      <c r="BN83">
-        <f t="shared" si="30"/>
         <v>525.5299493135999</v>
       </c>
       <c r="BR83">
@@ -12622,7 +12625,7 @@
         <v>1188</v>
       </c>
       <c r="CC83">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1420</v>
       </c>
       <c r="CD83">
@@ -12631,27 +12634,27 @@
     </row>
     <row r="84" spans="31:82" x14ac:dyDescent="0.25">
       <c r="BH84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19.8</v>
       </c>
       <c r="BI84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.274</v>
       </c>
       <c r="BJ84">
+        <f t="shared" si="32"/>
+        <v>14.52</v>
+      </c>
+      <c r="BK84">
+        <f t="shared" si="34"/>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="BL84">
+        <f t="shared" si="35"/>
+        <v>62.634000000000007</v>
+      </c>
+      <c r="BN84">
         <f t="shared" si="31"/>
-        <v>14.52</v>
-      </c>
-      <c r="BK84">
-        <f t="shared" si="33"/>
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="BL84">
-        <f t="shared" si="34"/>
-        <v>62.634000000000007</v>
-      </c>
-      <c r="BN84">
-        <f t="shared" si="30"/>
         <v>3923.017956000001</v>
       </c>
       <c r="BR84">
@@ -12664,7 +12667,7 @@
         <v>1980</v>
       </c>
       <c r="CC84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1500</v>
       </c>
       <c r="CD84">
@@ -12673,27 +12676,27 @@
     </row>
     <row r="85" spans="31:82" x14ac:dyDescent="0.25">
       <c r="BH85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9.24</v>
       </c>
       <c r="BI85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.3520000000000001</v>
       </c>
       <c r="BJ85">
+        <f t="shared" si="32"/>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="BK85">
+        <f t="shared" si="34"/>
+        <v>1.3130000000000002</v>
+      </c>
+      <c r="BL85">
+        <f t="shared" si="35"/>
+        <v>28.435549999999999</v>
+      </c>
+      <c r="BN85">
         <f t="shared" si="31"/>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="BK85">
-        <f t="shared" si="33"/>
-        <v>1.3130000000000002</v>
-      </c>
-      <c r="BL85">
-        <f t="shared" si="34"/>
-        <v>28.435549999999999</v>
-      </c>
-      <c r="BN85">
-        <f t="shared" si="30"/>
         <v>808.58050380249995</v>
       </c>
       <c r="BR85">
@@ -12706,7 +12709,7 @@
         <v>924</v>
       </c>
       <c r="CC85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>340</v>
       </c>
       <c r="CD85">
@@ -12715,27 +12718,27 @@
     </row>
     <row r="86" spans="31:82" x14ac:dyDescent="0.25">
       <c r="BH86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.38</v>
       </c>
       <c r="BI86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
       <c r="BJ86">
+        <f t="shared" si="32"/>
+        <v>-12.32</v>
+      </c>
+      <c r="BK86">
+        <f t="shared" si="34"/>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="BL86">
+        <f t="shared" si="35"/>
+        <v>29.4712</v>
+      </c>
+      <c r="BN86">
         <f t="shared" si="31"/>
-        <v>-12.32</v>
-      </c>
-      <c r="BK86">
-        <f t="shared" si="33"/>
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="BL86">
-        <f t="shared" si="34"/>
-        <v>29.4712</v>
-      </c>
-      <c r="BN86">
-        <f t="shared" si="30"/>
         <v>868.55162943999994</v>
       </c>
       <c r="BR86">
@@ -12748,7 +12751,7 @@
         <v>-638</v>
       </c>
       <c r="CC86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1120</v>
       </c>
       <c r="CD86">
@@ -12757,27 +12760,27 @@
     </row>
     <row r="87" spans="31:82" x14ac:dyDescent="0.25">
       <c r="BH87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-18.260000000000002</v>
       </c>
       <c r="BI87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.52400000000000002</v>
       </c>
       <c r="BJ87">
+        <f t="shared" si="32"/>
+        <v>-18.48</v>
+      </c>
+      <c r="BK87">
+        <f t="shared" si="34"/>
+        <v>3.7999999999999978E-2</v>
+      </c>
+      <c r="BL87">
+        <f t="shared" si="35"/>
+        <v>17.855640000000001</v>
+      </c>
+      <c r="BN87">
         <f t="shared" si="31"/>
-        <v>-18.48</v>
-      </c>
-      <c r="BK87">
-        <f t="shared" si="33"/>
-        <v>3.7999999999999978E-2</v>
-      </c>
-      <c r="BL87">
-        <f t="shared" si="34"/>
-        <v>17.855640000000001</v>
-      </c>
-      <c r="BN87">
-        <f t="shared" si="30"/>
         <v>318.82387980960004</v>
       </c>
       <c r="BR87">
@@ -12790,7 +12793,7 @@
         <v>-1804</v>
       </c>
       <c r="CC87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1900</v>
       </c>
       <c r="CD87">
@@ -12799,27 +12802,27 @@
     </row>
     <row r="88" spans="31:82" x14ac:dyDescent="0.25">
       <c r="BH88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-18.7</v>
       </c>
       <c r="BI88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.3140000000000001</v>
       </c>
       <c r="BJ88">
+        <f t="shared" si="32"/>
+        <v>-13.42</v>
+      </c>
+      <c r="BK88">
+        <f t="shared" si="34"/>
+        <v>-0.91900000000000004</v>
+      </c>
+      <c r="BL88">
+        <f t="shared" si="35"/>
+        <v>71.723959999999991</v>
+      </c>
+      <c r="BN88">
         <f t="shared" si="31"/>
-        <v>-13.42</v>
-      </c>
-      <c r="BK88">
-        <f t="shared" si="33"/>
-        <v>-0.91900000000000004</v>
-      </c>
-      <c r="BL88">
-        <f t="shared" si="34"/>
-        <v>71.723959999999991</v>
-      </c>
-      <c r="BN88">
-        <f t="shared" si="30"/>
         <v>5144.326438081599</v>
       </c>
       <c r="BR88">
@@ -12832,7 +12835,7 @@
         <v>-1870</v>
       </c>
       <c r="CC88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1520</v>
       </c>
       <c r="CD88">
@@ -12841,11 +12844,11 @@
     </row>
     <row r="89" spans="31:82" x14ac:dyDescent="0.25">
       <c r="BH89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.14</v>
       </c>
       <c r="BI89">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.99199999999999999</v>
       </c>
       <c r="BJ89">
@@ -12853,15 +12856,15 @@
         <v>-1.4300000000000002</v>
       </c>
       <c r="BK89">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.153</v>
       </c>
       <c r="BL89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>20.527650000000001</v>
       </c>
       <c r="BN89">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>421.38441452250004</v>
       </c>
       <c r="BR89">
@@ -12874,7 +12877,7 @@
         <v>-814</v>
       </c>
       <c r="CC89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>440</v>
       </c>
       <c r="CD89">
@@ -12920,9 +12923,9 @@
         <f>A115*A115</f>
         <v>10000</v>
       </c>
-      <c r="G115">
+      <c r="G115" t="e">
         <f>SUM(F115:F154)/40</f>
-        <v>10647.1</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -12933,11 +12936,11 @@
         <v>556</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:C154" si="35">(B116*500/1024-205)*2</f>
+        <f t="shared" ref="C116:C154" si="37">(B116*500/1024-205)*2</f>
         <v>132.96875</v>
       </c>
       <c r="D116">
-        <f t="shared" ref="D116:D154" si="36">C116*C116</f>
+        <f t="shared" ref="D116:D154" si="38">C116*C116</f>
         <v>17680.6884765625</v>
       </c>
       <c r="E116">
@@ -12945,12 +12948,12 @@
         <v>1.031949613982359</v>
       </c>
       <c r="F116">
-        <f t="shared" ref="F116:F154" si="37">A116*A116</f>
+        <f t="shared" ref="F116:F154" si="39">A116*A116</f>
         <v>17424</v>
       </c>
-      <c r="G116">
+      <c r="G116" t="e">
         <f>SQRT(G115)/100</f>
-        <v>1.0318478570021843</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -12961,36 +12964,36 @@
         <v>567</v>
       </c>
       <c r="C117">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>143.7109375</v>
       </c>
       <c r="D117">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>20652.833557128906</v>
       </c>
       <c r="F117">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>20164</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>130</v>
+      <c r="A118" t="s">
+        <v>54</v>
       </c>
       <c r="B118">
         <v>554</v>
       </c>
       <c r="C118">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>131.015625</v>
       </c>
       <c r="D118">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>17165.093994140625</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="37"/>
-        <v>16900</v>
+      <c r="F118" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -13001,15 +13004,15 @@
         <v>519</v>
       </c>
       <c r="C119">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>96.8359375</v>
       </c>
       <c r="D119">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9377.1987915039063</v>
       </c>
       <c r="F119">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9216</v>
       </c>
     </row>
@@ -13021,15 +13024,15 @@
         <v>468</v>
       </c>
       <c r="C120">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>47.03125</v>
       </c>
       <c r="D120">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2211.9384765625</v>
       </c>
       <c r="F120">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2116</v>
       </c>
     </row>
@@ -13041,15 +13044,15 @@
         <v>409</v>
       </c>
       <c r="C121">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-10.5859375</v>
       </c>
       <c r="D121">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112.06207275390625</v>
       </c>
       <c r="F121">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>144</v>
       </c>
     </row>
@@ -13061,15 +13064,15 @@
         <v>353</v>
       </c>
       <c r="C122">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-65.2734375</v>
       </c>
       <c r="D122">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4260.6216430664063</v>
       </c>
       <c r="F122">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4356</v>
       </c>
     </row>
@@ -13081,15 +13084,15 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-111.171875</v>
       </c>
       <c r="D123">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>12359.185791015625</v>
       </c>
       <c r="F123">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12544</v>
       </c>
     </row>
@@ -13101,15 +13104,15 @@
         <v>273</v>
       </c>
       <c r="C124">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-143.3984375</v>
       </c>
       <c r="D124">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>20563.111877441406</v>
       </c>
       <c r="F124">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>20736</v>
       </c>
     </row>
@@ -13121,15 +13124,15 @@
         <v>289</v>
       </c>
       <c r="C125">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-127.7734375</v>
       </c>
       <c r="D125">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16326.051330566406</v>
       </c>
       <c r="F125">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>16384</v>
       </c>
     </row>
@@ -13141,15 +13144,15 @@
         <v>327</v>
       </c>
       <c r="C126">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-90.6640625</v>
       </c>
       <c r="D126">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8219.9722290039063</v>
       </c>
       <c r="F126">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8464</v>
       </c>
     </row>
@@ -13161,15 +13164,15 @@
         <v>380</v>
       </c>
       <c r="C127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-38.90625</v>
       </c>
       <c r="D127">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1513.6962890625</v>
       </c>
       <c r="F127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1600</v>
       </c>
     </row>
@@ -13181,15 +13184,15 @@
         <v>439</v>
       </c>
       <c r="C128">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>18.7109375</v>
       </c>
       <c r="D128">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>350.09918212890625</v>
       </c>
       <c r="F128">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>324</v>
       </c>
     </row>
@@ -13201,15 +13204,15 @@
         <v>494</v>
       </c>
       <c r="C129">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>72.421875</v>
       </c>
       <c r="D129">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5244.927978515625</v>
       </c>
       <c r="F129">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5184</v>
       </c>
     </row>
@@ -13221,15 +13224,15 @@
         <v>538</v>
       </c>
       <c r="C130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>115.390625</v>
       </c>
       <c r="D130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>13314.996337890625</v>
       </c>
       <c r="F130">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12996</v>
       </c>
     </row>
@@ -13241,15 +13244,15 @@
         <v>562</v>
       </c>
       <c r="C131">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>138.828125</v>
       </c>
       <c r="D131">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19273.248291015625</v>
       </c>
       <c r="F131">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>19044</v>
       </c>
     </row>
@@ -13261,15 +13264,15 @@
         <v>564</v>
       </c>
       <c r="C132">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140.78125</v>
       </c>
       <c r="D132">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19819.3603515625</v>
       </c>
       <c r="F132">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>19600</v>
       </c>
     </row>
@@ -13281,15 +13284,15 @@
         <v>542</v>
       </c>
       <c r="C133">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>119.296875</v>
       </c>
       <c r="D133">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>14231.744384765625</v>
       </c>
       <c r="F133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>13924</v>
       </c>
     </row>
@@ -13301,15 +13304,15 @@
         <v>451</v>
       </c>
       <c r="C134">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>30.4296875</v>
       </c>
       <c r="D134">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>925.96588134765625</v>
       </c>
       <c r="F134">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>900</v>
       </c>
     </row>
@@ -13321,15 +13324,15 @@
         <v>391</v>
       </c>
       <c r="C135">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-28.1640625</v>
       </c>
       <c r="D135">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>793.21441650390625</v>
       </c>
       <c r="F135">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>900</v>
       </c>
     </row>
@@ -13341,15 +13344,15 @@
         <v>337</v>
       </c>
       <c r="C136">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-80.8984375</v>
       </c>
       <c r="D136">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>6544.5571899414063</v>
       </c>
       <c r="F136">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6724</v>
       </c>
     </row>
@@ -13361,15 +13364,15 @@
         <v>297</v>
       </c>
       <c r="C137">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-119.9609375</v>
       </c>
       <c r="D137">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>14390.626525878906</v>
       </c>
       <c r="F137">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>14400</v>
       </c>
     </row>
@@ -13381,15 +13384,15 @@
         <v>276</v>
       </c>
       <c r="C138">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-140.46875</v>
       </c>
       <c r="D138">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19731.4697265625</v>
       </c>
       <c r="F138">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>20164</v>
       </c>
     </row>
@@ -13401,15 +13404,15 @@
         <v>278</v>
       </c>
       <c r="C139">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-138.515625</v>
       </c>
       <c r="D139">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19186.578369140625</v>
       </c>
       <c r="F139">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>19600</v>
       </c>
     </row>
@@ -13421,15 +13424,15 @@
         <v>303</v>
       </c>
       <c r="C140">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-114.1015625</v>
       </c>
       <c r="D140">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>13019.166564941406</v>
       </c>
       <c r="F140">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>13456</v>
       </c>
     </row>
@@ -13441,15 +13444,15 @@
         <v>347</v>
       </c>
       <c r="C141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-71.1328125</v>
       </c>
       <c r="D141">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5059.8770141601563</v>
       </c>
       <c r="F141">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5184</v>
       </c>
     </row>
@@ -13461,15 +13464,15 @@
         <v>403</v>
       </c>
       <c r="C142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-16.4453125</v>
       </c>
       <c r="D142">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>270.44830322265625</v>
       </c>
       <c r="F142">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>324</v>
       </c>
     </row>
@@ -13481,15 +13484,15 @@
         <v>463</v>
       </c>
       <c r="C143">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>42.1484375</v>
       </c>
       <c r="D143">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1776.4907836914063</v>
       </c>
       <c r="F143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1764</v>
       </c>
     </row>
@@ -13501,15 +13504,15 @@
         <v>549</v>
       </c>
       <c r="C144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>126.1328125</v>
       </c>
       <c r="D144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>15909.486389160156</v>
       </c>
       <c r="F144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>15876</v>
       </c>
     </row>
@@ -13521,15 +13524,15 @@
         <v>567</v>
       </c>
       <c r="C145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>143.7109375</v>
       </c>
       <c r="D145">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>20652.833557128906</v>
       </c>
       <c r="F145">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>20164</v>
       </c>
     </row>
@@ -13541,15 +13544,15 @@
         <v>560</v>
       </c>
       <c r="C146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>136.875</v>
       </c>
       <c r="D146">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>18734.765625</v>
       </c>
       <c r="F146">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>18496</v>
       </c>
     </row>
@@ -13561,15 +13564,15 @@
         <v>531</v>
       </c>
       <c r="C147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>108.5546875</v>
       </c>
       <c r="D147">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11784.120178222656</v>
       </c>
       <c r="F147">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11664</v>
       </c>
     </row>
@@ -13581,15 +13584,15 @@
         <v>484</v>
       </c>
       <c r="C148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>62.65625</v>
       </c>
       <c r="D148">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3925.8056640625</v>
       </c>
       <c r="F148">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3844</v>
       </c>
     </row>
@@ -13601,15 +13604,15 @@
         <v>427</v>
       </c>
       <c r="C149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6.9921875</v>
       </c>
       <c r="D149">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>48.89068603515625</v>
       </c>
       <c r="F149">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>36</v>
       </c>
     </row>
@@ -13621,15 +13624,15 @@
         <v>368</v>
       </c>
       <c r="C150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-50.625</v>
       </c>
       <c r="D150">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2562.890625</v>
       </c>
       <c r="F150">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2704</v>
       </c>
     </row>
@@ -13641,15 +13644,15 @@
         <v>319</v>
       </c>
       <c r="C151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-98.4765625</v>
       </c>
       <c r="D151">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9697.6333618164063</v>
       </c>
       <c r="F151">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10000</v>
       </c>
     </row>
@@ -13661,15 +13664,15 @@
         <v>286</v>
       </c>
       <c r="C152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-130.703125</v>
       </c>
       <c r="D152">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>17083.306884765625</v>
       </c>
       <c r="F152">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>17424</v>
       </c>
     </row>
@@ -13681,15 +13684,15 @@
         <v>273</v>
       </c>
       <c r="C153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-143.3984375</v>
       </c>
       <c r="D153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>20563.111877441406</v>
       </c>
       <c r="F153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>20736</v>
       </c>
     </row>
@@ -13701,15 +13704,15 @@
         <v>316</v>
       </c>
       <c r="C154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-101.40625</v>
       </c>
       <c r="D154">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10283.2275390625</v>
       </c>
       <c r="F154">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10404</v>
       </c>
     </row>
@@ -13836,18 +13839,18 @@
         <v>587</v>
       </c>
       <c r="O213">
-        <f t="shared" ref="O213:O251" si="38">ABS((N213*5/1024)-2.05) *22</f>
+        <f t="shared" ref="O213:O251" si="40">ABS((N213*5/1024)-2.05) *22</f>
         <v>17.956640625000006</v>
       </c>
       <c r="P213">
-        <f t="shared" ref="P213:P250" si="39">(O213+O214)/2</f>
+        <f t="shared" ref="P213:P250" si="41">(O213+O214)/2</f>
         <v>18.386328125000006</v>
       </c>
       <c r="Q213">
         <v>470</v>
       </c>
       <c r="R213">
-        <f t="shared" ref="R213:R251" si="40">ABS(Q213*5/1024-2.05)*2</f>
+        <f t="shared" ref="R213:R251" si="42">ABS(Q213*5/1024-2.05)*2</f>
         <v>0.48984375000000036</v>
       </c>
       <c r="S213">
@@ -13855,7 +13858,7 @@
         <v>0.556640625</v>
       </c>
       <c r="T213">
-        <f t="shared" ref="T213:T251" si="41">(O213*S213+P213*R213)</f>
+        <f t="shared" ref="T213:T251" si="43">(O213*S213+P213*R213)</f>
         <v>19.00182357788087</v>
       </c>
       <c r="V213">
@@ -13868,7 +13871,7 @@
         <v>18854</v>
       </c>
       <c r="B214">
-        <f t="shared" ref="B214:B252" si="42">A214*A214</f>
+        <f t="shared" ref="B214:B252" si="44">A214*A214</f>
         <v>355473316</v>
       </c>
       <c r="D214">
@@ -13878,7 +13881,7 @@
         <v>1892</v>
       </c>
       <c r="G214">
-        <f t="shared" ref="G214:G252" si="43" xml:space="preserve"> F214*F214</f>
+        <f t="shared" ref="G214:G252" si="45" xml:space="preserve"> F214*F214</f>
         <v>3579664</v>
       </c>
       <c r="J214">
@@ -13891,30 +13894,30 @@
         <v>595</v>
       </c>
       <c r="O214">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>18.816015625000006</v>
       </c>
       <c r="P214">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13.498632812500006</v>
       </c>
       <c r="Q214">
         <v>554</v>
       </c>
       <c r="R214">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.3101562500000004</v>
       </c>
       <c r="S214">
-        <f t="shared" ref="S214:S251" si="44">(R214+R213)/2</f>
+        <f t="shared" ref="S214:S251" si="46">(R214+R213)/2</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="T214">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>34.619732208251975</v>
       </c>
       <c r="V214">
-        <f t="shared" ref="V214:V252" si="45">R213*R213</f>
+        <f t="shared" ref="V214:V252" si="47">R213*R213</f>
         <v>0.23994689941406286</v>
       </c>
     </row>
@@ -13923,7 +13926,7 @@
         <v>14652</v>
       </c>
       <c r="B215">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>214681104</v>
       </c>
       <c r="D215">
@@ -13933,7 +13936,7 @@
         <v>1518</v>
       </c>
       <c r="G215">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2304324</v>
       </c>
       <c r="J215">
@@ -13946,30 +13949,30 @@
         <v>496</v>
       </c>
       <c r="O215">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>8.1812500000000039</v>
       </c>
       <c r="P215">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.841796875</v>
       </c>
       <c r="Q215">
         <v>556</v>
       </c>
       <c r="R215">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.3296875000000004</v>
       </c>
       <c r="S215">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.3199218750000004</v>
       </c>
       <c r="T215">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>21.225750122070323</v>
       </c>
       <c r="V215">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.7165093994140634</v>
       </c>
     </row>
@@ -13978,7 +13981,7 @@
         <v>7986</v>
       </c>
       <c r="B216">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>63776196</v>
       </c>
       <c r="D216">
@@ -13988,7 +13991,7 @@
         <v>880</v>
       </c>
       <c r="G216">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>774400</v>
       </c>
       <c r="J216">
@@ -14001,30 +14004,30 @@
         <v>350</v>
       </c>
       <c r="O216">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7.5023437499999961</v>
       </c>
       <c r="P216">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13.356835937499994</v>
       </c>
       <c r="Q216">
         <v>380</v>
       </c>
       <c r="R216">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.38906249999999964</v>
       </c>
       <c r="S216">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.859375</v>
       </c>
       <c r="T216">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>11.643970642089833</v>
       </c>
       <c r="V216">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.7680688476562509</v>
       </c>
     </row>
@@ -14033,7 +14036,7 @@
         <v>66</v>
       </c>
       <c r="B217">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4356</v>
       </c>
       <c r="D217">
@@ -14043,7 +14046,7 @@
         <v>66</v>
       </c>
       <c r="G217">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4356</v>
       </c>
       <c r="J217">
@@ -14056,30 +14059,30 @@
         <v>241</v>
       </c>
       <c r="O217">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>19.211328124999994</v>
       </c>
       <c r="P217">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14.377343749999994</v>
       </c>
       <c r="Q217">
         <v>291</v>
       </c>
       <c r="R217">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.2582031249999996</v>
       </c>
       <c r="S217">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.82363281249999964</v>
       </c>
       <c r="T217">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>33.912699050903299</v>
       </c>
       <c r="V217">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.15136962890624972</v>
       </c>
     </row>
@@ -14088,7 +14091,7 @@
         <v>8228</v>
       </c>
       <c r="B218">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>67699984</v>
       </c>
       <c r="D218">
@@ -14098,7 +14101,7 @@
         <v>748</v>
       </c>
       <c r="G218">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>559504</v>
       </c>
       <c r="J218">
@@ -14111,30 +14114,30 @@
         <v>331</v>
       </c>
       <c r="O218">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.5433593749999961</v>
       </c>
       <c r="P218">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.7880859375</v>
       </c>
       <c r="Q218">
         <v>280</v>
       </c>
       <c r="R218">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.3656249999999996</v>
       </c>
       <c r="S218">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.3119140624999996</v>
       </c>
       <c r="T218">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>23.155672225952138</v>
       </c>
       <c r="V218">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.5830751037597648</v>
       </c>
     </row>
@@ -14143,7 +14146,7 @@
         <v>14784</v>
       </c>
       <c r="B219">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>218566656</v>
       </c>
       <c r="D219">
@@ -14153,7 +14156,7 @@
         <v>1430</v>
       </c>
       <c r="G219">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2044900</v>
       </c>
       <c r="J219">
@@ -14166,30 +14169,30 @@
         <v>476</v>
       </c>
       <c r="O219">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6.0328125000000039</v>
       </c>
       <c r="P219">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11.994726562500006</v>
       </c>
       <c r="Q219">
         <v>356</v>
       </c>
       <c r="R219">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.62343749999999964</v>
       </c>
       <c r="S219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.99453124999999964</v>
       </c>
       <c r="T219">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>13.477782897949218</v>
       </c>
       <c r="V219">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.8649316406249989</v>
       </c>
     </row>
@@ -14198,7 +14201,7 @@
         <v>18964</v>
       </c>
       <c r="B220">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>359633296</v>
       </c>
       <c r="D220">
@@ -14208,7 +14211,7 @@
         <v>1870</v>
       </c>
       <c r="G220">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3496900</v>
       </c>
       <c r="J220">
@@ -14221,30 +14224,30 @@
         <v>587</v>
       </c>
       <c r="O220">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17.956640625000006</v>
       </c>
       <c r="P220">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>18.386328125000006</v>
       </c>
       <c r="Q220">
         <v>470</v>
       </c>
       <c r="R220">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.48984375000000036</v>
       </c>
       <c r="S220">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.556640625</v>
       </c>
       <c r="T220">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>19.00182357788087</v>
       </c>
       <c r="V220">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.38867431640624955</v>
       </c>
     </row>
@@ -14253,7 +14256,7 @@
         <v>19932</v>
       </c>
       <c r="B221">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>397284624</v>
       </c>
       <c r="D221">
@@ -14263,7 +14266,7 @@
         <v>2002</v>
       </c>
       <c r="G221">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4008004</v>
       </c>
       <c r="J221">
@@ -14276,30 +14279,30 @@
         <v>595</v>
       </c>
       <c r="O221">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>18.816015625000006</v>
       </c>
       <c r="P221">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.6314453125000057</v>
       </c>
       <c r="Q221">
         <v>567</v>
       </c>
       <c r="R221">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4371093750000004</v>
       </c>
       <c r="S221">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.96347656250000036</v>
       </c>
       <c r="T221">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>31.970230407714865</v>
       </c>
       <c r="V221">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.23994689941406286</v>
       </c>
     </row>
@@ -14308,7 +14311,7 @@
         <v>9944</v>
       </c>
       <c r="B222">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>98883136</v>
       </c>
       <c r="D222">
@@ -14318,7 +14321,7 @@
         <v>1100</v>
       </c>
       <c r="G222">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1210000</v>
       </c>
       <c r="J222">
@@ -14331,30 +14334,30 @@
         <v>424</v>
       </c>
       <c r="O222">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.44687500000000391</v>
       </c>
       <c r="P222">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.2509765625</v>
       </c>
       <c r="Q222">
         <v>524</v>
       </c>
       <c r="R222">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0171875000000004</v>
       </c>
       <c r="S222">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.2271484375000004</v>
       </c>
       <c r="T222">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7.9239846801757885</v>
       </c>
       <c r="V222">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.0652833557128916</v>
       </c>
     </row>
@@ -14363,7 +14366,7 @@
         <v>2090</v>
       </c>
       <c r="B223">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4368100</v>
       </c>
       <c r="D223">
@@ -14373,7 +14376,7 @@
         <v>330</v>
       </c>
       <c r="G223">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>108900</v>
       </c>
       <c r="J223">
@@ -14386,30 +14389,30 @@
         <v>289</v>
       </c>
       <c r="O223">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>14.055078124999996</v>
       </c>
       <c r="P223">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>17.009179687499994</v>
       </c>
       <c r="Q223">
         <v>417</v>
       </c>
       <c r="R223">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.7734374999999645E-2</v>
       </c>
       <c r="S223">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.5224609375</v>
       </c>
       <c r="T223">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7.8149682617187421</v>
       </c>
       <c r="V223">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0346704101562507</v>
       </c>
     </row>
@@ -14418,7 +14421,7 @@
         <v>6072</v>
       </c>
       <c r="B224">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36869184</v>
       </c>
       <c r="D224">
@@ -14428,7 +14431,7 @@
         <v>484</v>
       </c>
       <c r="G224">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>234256</v>
       </c>
       <c r="J224">
@@ -14441,30 +14444,30 @@
         <v>234</v>
       </c>
       <c r="O224">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>19.963281249999994</v>
       </c>
       <c r="P224">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16.794335937499994</v>
       </c>
       <c r="Q224">
         <v>312</v>
       </c>
       <c r="R224">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0531249999999996</v>
       </c>
       <c r="S224">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.54042968749999964</v>
       </c>
       <c r="T224">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>28.475284881591776</v>
       </c>
       <c r="V224">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>7.6919555664060532E-4</v>
       </c>
     </row>
@@ -14473,7 +14476,7 @@
         <v>13266</v>
       </c>
       <c r="B225">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>175986756</v>
       </c>
       <c r="D225">
@@ -14483,7 +14486,7 @@
         <v>1232</v>
       </c>
       <c r="G225">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1517824</v>
       </c>
       <c r="J225">
@@ -14496,30 +14499,30 @@
         <v>293</v>
       </c>
       <c r="O225">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>13.625390624999996</v>
       </c>
       <c r="P225">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.3583984375</v>
       </c>
       <c r="Q225">
         <v>274</v>
       </c>
       <c r="R225">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4242187499999996</v>
       </c>
       <c r="S225">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.2386718749999996</v>
       </c>
       <c r="T225">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>27.357357177734364</v>
       </c>
       <c r="V225">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.1090722656249992</v>
       </c>
     </row>
@@ -14528,7 +14531,7 @@
         <v>18084</v>
       </c>
       <c r="B226">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>327031056</v>
       </c>
       <c r="D226">
@@ -14538,7 +14541,7 @@
         <v>1760</v>
       </c>
       <c r="G226">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3097600</v>
       </c>
       <c r="J226">
@@ -14551,30 +14554,30 @@
         <v>430</v>
       </c>
       <c r="O226">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0914062500000039</v>
       </c>
       <c r="P226">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10.114843750000006</v>
       </c>
       <c r="Q226">
         <v>378</v>
       </c>
       <c r="R226">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.40859374999999964</v>
       </c>
       <c r="S226">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.91640624999999964</v>
       </c>
       <c r="T226">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.1330334472656274</v>
       </c>
       <c r="V226">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.0283990478515617</v>
       </c>
     </row>
@@ -14583,7 +14586,7 @@
         <v>19910</v>
       </c>
       <c r="B227">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>396408100</v>
       </c>
       <c r="D227">
@@ -14593,7 +14596,7 @@
         <v>1980</v>
       </c>
       <c r="G227">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3920400</v>
       </c>
       <c r="J227">
@@ -14606,30 +14609,30 @@
         <v>598</v>
       </c>
       <c r="O227">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>19.138281250000006</v>
       </c>
       <c r="P227">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>18.332617187500006</v>
       </c>
       <c r="Q227">
         <v>491</v>
       </c>
       <c r="R227">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.69492187500000036</v>
       </c>
       <c r="S227">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.5517578125</v>
       </c>
       <c r="T227">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>23.299432907104507</v>
       </c>
       <c r="V227">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.16694885253906222</v>
       </c>
     </row>
@@ -14638,7 +14641,7 @@
         <v>18304</v>
       </c>
       <c r="B228">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>335036416</v>
       </c>
       <c r="D228">
@@ -14648,7 +14651,7 @@
         <v>1870</v>
       </c>
       <c r="G228">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3496900</v>
       </c>
       <c r="J228">
@@ -14661,30 +14664,30 @@
         <v>583</v>
       </c>
       <c r="O228">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17.526953125000006</v>
       </c>
       <c r="P228">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11.403906250000006</v>
       </c>
       <c r="Q228">
         <v>562</v>
       </c>
       <c r="R228">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.3882812500000004</v>
       </c>
       <c r="S228">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0416015625000004</v>
       </c>
       <c r="T228">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>34.087930984497092</v>
       </c>
       <c r="V228">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.48291641235351612</v>
       </c>
     </row>
@@ -14693,7 +14696,7 @@
         <v>13684</v>
       </c>
       <c r="B229">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>187251856</v>
       </c>
       <c r="D229">
@@ -14703,7 +14706,7 @@
         <v>1430</v>
       </c>
       <c r="G229">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2044900</v>
       </c>
       <c r="J229">
@@ -14716,30 +14719,30 @@
         <v>469</v>
       </c>
       <c r="O229">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.2808593750000039</v>
       </c>
       <c r="P229">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.7880859375</v>
       </c>
       <c r="Q229">
         <v>546</v>
       </c>
       <c r="R229">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.2320312500000004</v>
       </c>
       <c r="S229">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.3101562500000004</v>
       </c>
       <c r="T229">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>16.513916168212901</v>
       </c>
       <c r="V229">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.9273248291015634</v>
       </c>
     </row>
@@ -14748,7 +14751,7 @@
         <v>6600</v>
       </c>
       <c r="B230">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>43560000</v>
       </c>
       <c r="D230">
@@ -14758,7 +14761,7 @@
         <v>770</v>
       </c>
       <c r="G230">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>592900</v>
       </c>
       <c r="J230">
@@ -14771,30 +14774,30 @@
         <v>324</v>
       </c>
       <c r="O230">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10.295312499999996</v>
       </c>
       <c r="P230">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14.914453124999994</v>
       </c>
       <c r="Q230">
         <v>452</v>
       </c>
       <c r="R230">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.31406250000000036</v>
       </c>
       <c r="S230">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.77304687500000036</v>
       </c>
       <c r="T230">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12.642829589843753</v>
       </c>
       <c r="V230">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.5179010009765634</v>
       </c>
     </row>
@@ -14803,7 +14806,7 @@
         <v>13376</v>
       </c>
       <c r="B231">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>178917376</v>
       </c>
       <c r="D231">
@@ -14813,7 +14816,7 @@
         <v>1254</v>
       </c>
       <c r="G231">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1572516</v>
       </c>
       <c r="J231">
@@ -14826,30 +14829,30 @@
         <v>238</v>
       </c>
       <c r="O231">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>19.533593749999994</v>
       </c>
       <c r="P231">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>15.397851562499994</v>
       </c>
       <c r="Q231">
         <v>298</v>
       </c>
       <c r="R231">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.1898437499999996</v>
       </c>
       <c r="S231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.751953125</v>
       </c>
       <c r="T231">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>33.009384307861311</v>
       </c>
       <c r="V231">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.863525390625022E-2</v>
       </c>
     </row>
@@ -14858,7 +14861,7 @@
         <v>18216</v>
       </c>
       <c r="B232">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>331822656</v>
       </c>
       <c r="D232">
@@ -14868,7 +14871,7 @@
         <v>1760</v>
       </c>
       <c r="G232">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3097600</v>
       </c>
       <c r="J232">
@@ -14881,30 +14884,30 @@
         <v>315</v>
       </c>
       <c r="O232">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>11.262109374999996</v>
       </c>
       <c r="P232">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.6806640625</v>
       </c>
       <c r="Q232">
         <v>276</v>
       </c>
       <c r="R232">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4046874999999996</v>
       </c>
       <c r="S232">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.2972656249999996</v>
       </c>
       <c r="T232">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>25.398880157470693</v>
       </c>
       <c r="V232">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.4157281494140617</v>
       </c>
     </row>
@@ -14913,7 +14916,7 @@
         <v>20042</v>
       </c>
       <c r="B233">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>401681764</v>
       </c>
       <c r="D233">
@@ -14923,7 +14926,7 @@
         <v>2002</v>
       </c>
       <c r="G233">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4008004</v>
       </c>
       <c r="J233">
@@ -14936,30 +14939,30 @@
         <v>458</v>
       </c>
       <c r="O233">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.0992187500000039</v>
       </c>
       <c r="P233">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10.490820312500006</v>
       </c>
       <c r="Q233">
         <v>343</v>
       </c>
       <c r="R233">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.75039062499999964</v>
       </c>
       <c r="S233">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0775390624999996</v>
       </c>
       <c r="T233">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12.289281539916995</v>
       </c>
       <c r="V233">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.9731469726562489</v>
       </c>
     </row>
@@ -14968,7 +14971,7 @@
         <v>18436</v>
       </c>
       <c r="B234">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>339886096</v>
       </c>
       <c r="D234">
@@ -14978,7 +14981,7 @@
         <v>1892</v>
       </c>
       <c r="G234">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3579664</v>
       </c>
       <c r="J234">
@@ -14991,30 +14994,30 @@
         <v>577</v>
       </c>
       <c r="O234">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>16.882421875000006</v>
       </c>
       <c r="P234">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>18.171484375000006</v>
       </c>
       <c r="Q234">
         <v>456</v>
       </c>
       <c r="R234">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.35312500000000036</v>
       </c>
       <c r="S234">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.5517578125</v>
       </c>
       <c r="T234">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>15.731813583374034</v>
       </c>
       <c r="V234">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.56308609008789012</v>
       </c>
     </row>
@@ -15023,7 +15026,7 @@
         <v>13706</v>
       </c>
       <c r="B235">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>187854436</v>
       </c>
       <c r="D235">
@@ -15033,7 +15036,7 @@
         <v>1452</v>
       </c>
       <c r="G235">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2108304</v>
       </c>
       <c r="J235">
@@ -15046,30 +15049,30 @@
         <v>601</v>
       </c>
       <c r="O235">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>19.460546875000006</v>
       </c>
       <c r="P235">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14.733984375000006</v>
       </c>
       <c r="Q235">
         <v>547</v>
       </c>
       <c r="R235">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.2417968750000004</v>
       </c>
       <c r="S235">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.79746093750000036</v>
       </c>
       <c r="T235">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>33.815641708374045</v>
       </c>
       <c r="V235">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.12469726562500025</v>
       </c>
     </row>
@@ -15078,7 +15081,7 @@
         <v>6622</v>
       </c>
       <c r="B236">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>43850884</v>
       </c>
       <c r="D236">
@@ -15088,7 +15091,7 @@
         <v>792</v>
       </c>
       <c r="G236">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>627264</v>
       </c>
       <c r="J236">
@@ -15101,30 +15104,30 @@
         <v>513</v>
       </c>
       <c r="O236">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10.007421875000004</v>
       </c>
       <c r="P236">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11.3330078125</v>
       </c>
       <c r="Q236">
         <v>533</v>
       </c>
       <c r="R236">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.1050781250000004</v>
       </c>
       <c r="S236">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.1734375000000004</v>
       </c>
       <c r="T236">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>24.266943130493175</v>
       </c>
       <c r="V236">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.5420594787597666</v>
       </c>
     </row>
@@ -15133,7 +15136,7 @@
         <v>1452</v>
       </c>
       <c r="B237">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2108304</v>
       </c>
       <c r="D237">
@@ -15143,7 +15146,7 @@
         <v>22</v>
       </c>
       <c r="G237">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>484</v>
       </c>
       <c r="J237">
@@ -15156,30 +15159,30 @@
         <v>302</v>
       </c>
       <c r="O237">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>12.658593749999996</v>
       </c>
       <c r="P237">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16.257226562499994</v>
       </c>
       <c r="Q237">
         <v>431</v>
       </c>
       <c r="R237">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.10898437500000036</v>
       </c>
       <c r="S237">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.60703125000000036</v>
       </c>
       <c r="T237">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.4559456634521553</v>
       </c>
       <c r="V237">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.2211976623535163</v>
       </c>
     </row>
@@ -15188,7 +15191,7 @@
         <v>9394</v>
       </c>
       <c r="B238">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>88247236</v>
       </c>
       <c r="D238">
@@ -15198,7 +15201,7 @@
         <v>836</v>
       </c>
       <c r="G238">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>698896</v>
       </c>
       <c r="J238">
@@ -15211,30 +15214,30 @@
         <v>235</v>
       </c>
       <c r="O238">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>19.855859374999994</v>
       </c>
       <c r="P238">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>17.438867187499994</v>
       </c>
       <c r="Q238">
         <v>323</v>
       </c>
       <c r="R238">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.94570312499999964</v>
       </c>
       <c r="S238">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.52734375</v>
       </c>
       <c r="T238">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>26.962854537963853</v>
       </c>
       <c r="V238">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.1877593994140703E-2</v>
       </c>
     </row>
@@ -15243,7 +15246,7 @@
         <v>15620</v>
       </c>
       <c r="B239">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>243984400</v>
       </c>
       <c r="D239">
@@ -15253,7 +15256,7 @@
         <v>1474</v>
       </c>
       <c r="G239">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2172676</v>
       </c>
       <c r="J239">
@@ -15266,30 +15269,30 @@
         <v>280</v>
       </c>
       <c r="O239">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>15.021874999999996</v>
       </c>
       <c r="P239">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.9857421874999961</v>
       </c>
       <c r="Q239">
         <v>274</v>
       </c>
       <c r="R239">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4242187499999996</v>
       </c>
       <c r="S239">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.1849609374999996</v>
       </c>
       <c r="T239">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>29.173778839111307</v>
       </c>
       <c r="V239">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.8943544006347649</v>
       </c>
     </row>
@@ -15298,7 +15301,7 @@
         <v>18194</v>
       </c>
       <c r="B240">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>331021636</v>
       </c>
       <c r="D240">
@@ -15308,7 +15311,7 @@
         <v>1870</v>
       </c>
       <c r="G240">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3496900</v>
       </c>
       <c r="J240">
@@ -15321,30 +15324,30 @@
         <v>411</v>
       </c>
       <c r="O240">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.94960937499999609</v>
       </c>
       <c r="P240">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.3583984375</v>
       </c>
       <c r="Q240">
         <v>314</v>
       </c>
       <c r="R240">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0335937499999996</v>
       </c>
       <c r="S240">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.2289062499999996</v>
       </c>
       <c r="T240">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>8.7725755310058524</v>
       </c>
       <c r="V240">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.0283990478515617</v>
       </c>
     </row>
@@ -15353,7 +15356,7 @@
         <v>13486</v>
       </c>
       <c r="B241">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>181872196</v>
       </c>
       <c r="D241">
@@ -15363,7 +15366,7 @@
         <v>1430</v>
       </c>
       <c r="G241">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2044900</v>
       </c>
       <c r="J241">
@@ -15376,30 +15379,30 @@
         <v>548</v>
       </c>
       <c r="O241">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>13.767187500000004</v>
       </c>
       <c r="P241">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16.130468750000006</v>
       </c>
       <c r="Q241">
         <v>477</v>
       </c>
       <c r="R241">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.55820312500000036</v>
       </c>
       <c r="S241">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.7958984375</v>
       </c>
       <c r="T241">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>19.961361083984386</v>
       </c>
       <c r="V241">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0683160400390617</v>
       </c>
     </row>
@@ -15408,7 +15411,7 @@
         <v>6380</v>
       </c>
       <c r="B242">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>40704400</v>
       </c>
       <c r="D242">
@@ -15418,7 +15421,7 @@
         <v>748</v>
       </c>
       <c r="G242">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>559504</v>
       </c>
       <c r="J242">
@@ -15431,30 +15434,30 @@
         <v>592</v>
       </c>
       <c r="O242">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>18.493750000000006</v>
       </c>
       <c r="P242">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12.907812500000006</v>
       </c>
       <c r="Q242">
         <v>557</v>
       </c>
       <c r="R242">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.3394531250000004</v>
       </c>
       <c r="S242">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.94882812500000036</v>
       </c>
       <c r="T242">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>34.836799926757834</v>
       </c>
       <c r="V242">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.31159072875976601</v>
       </c>
     </row>
@@ -15463,7 +15466,7 @@
         <v>1892</v>
       </c>
       <c r="B243">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3579664</v>
       </c>
       <c r="D243">
@@ -15473,7 +15476,7 @@
         <v>66</v>
       </c>
       <c r="G243">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4356</v>
       </c>
       <c r="J243">
@@ -15486,30 +15489,30 @@
         <v>488</v>
       </c>
       <c r="O243">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7.3218750000000039</v>
       </c>
       <c r="P243">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.841796875</v>
       </c>
       <c r="Q243">
         <v>554</v>
       </c>
       <c r="R243">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.3101562500000004</v>
       </c>
       <c r="S243">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.3248046875000004</v>
       </c>
       <c r="T243">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>19.974033508300792</v>
       </c>
       <c r="V243">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.7941346740722666</v>
       </c>
     </row>
@@ -15518,7 +15521,7 @@
         <v>9724</v>
       </c>
       <c r="B244">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>94556176</v>
       </c>
       <c r="D244">
@@ -15528,7 +15531,7 @@
         <v>858</v>
       </c>
       <c r="G244">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>736164</v>
       </c>
       <c r="J244">
@@ -15541,30 +15544,30 @@
         <v>342</v>
       </c>
       <c r="O244">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>8.3617187499999961</v>
       </c>
       <c r="P244">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13.625390624999994</v>
       </c>
       <c r="Q244">
         <v>468</v>
       </c>
       <c r="R244">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.47031250000000036</v>
       </c>
       <c r="S244">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.89023437500000036</v>
       </c>
       <c r="T244">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>13.852080993652347</v>
       </c>
       <c r="V244">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.7165093994140634</v>
       </c>
     </row>
@@ -15573,7 +15576,7 @@
         <v>15950</v>
       </c>
       <c r="B245">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>254402500</v>
       </c>
       <c r="D245">
@@ -15583,7 +15586,7 @@
         <v>1518</v>
       </c>
       <c r="G245">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2304324</v>
       </c>
       <c r="J245">
@@ -15596,30 +15599,30 @@
         <v>244</v>
       </c>
       <c r="O245">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>18.889062499999994</v>
       </c>
       <c r="P245">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>18.405664062499994</v>
       </c>
       <c r="Q245">
         <v>353</v>
       </c>
       <c r="R245">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.65273437499999964</v>
       </c>
       <c r="S245">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.5615234375</v>
       </c>
       <c r="T245">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>22.620660934448228</v>
       </c>
       <c r="V245">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.22119384765625033</v>
       </c>
     </row>
@@ -15628,7 +15631,7 @@
         <v>19404</v>
       </c>
       <c r="B246">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>376515216</v>
       </c>
       <c r="D246">
@@ -15638,7 +15641,7 @@
         <v>1914</v>
       </c>
       <c r="G246">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3663396</v>
       </c>
       <c r="J246">
@@ -15651,30 +15654,30 @@
         <v>253</v>
       </c>
       <c r="O246">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17.922265624999994</v>
       </c>
       <c r="P246">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10.0439453125</v>
       </c>
       <c r="Q246">
         <v>274</v>
       </c>
       <c r="R246">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4242187499999996</v>
       </c>
       <c r="S246">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0384765624999996</v>
       </c>
       <c r="T246">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>32.916628036499006</v>
       </c>
       <c r="V246">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.42606216430664018</v>
       </c>
     </row>
@@ -15683,7 +15686,7 @@
         <v>19712</v>
       </c>
       <c r="B247">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>388562944</v>
       </c>
       <c r="D247">
@@ -15693,7 +15696,7 @@
         <v>2002</v>
       </c>
       <c r="G247">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4008004</v>
       </c>
       <c r="J247">
@@ -15706,30 +15709,30 @@
         <v>440</v>
       </c>
       <c r="O247">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.1656250000000039</v>
       </c>
       <c r="P247">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.9869140625000039</v>
       </c>
       <c r="Q247">
         <v>331</v>
       </c>
       <c r="R247">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.86757812499999964</v>
       </c>
       <c r="S247">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.1458984374999996</v>
       </c>
       <c r="T247">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10.278436355590824</v>
       </c>
       <c r="V247">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.0283990478515617</v>
       </c>
     </row>
@@ -15738,7 +15741,7 @@
         <v>16610</v>
       </c>
       <c r="B248">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>275892100</v>
       </c>
       <c r="D248">
@@ -15748,7 +15751,7 @@
         <v>1738</v>
       </c>
       <c r="G248">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3020644</v>
       </c>
       <c r="J248">
@@ -15761,30 +15764,30 @@
         <v>567</v>
       </c>
       <c r="O248">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>15.808203125000004</v>
       </c>
       <c r="P248">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>17.795507812500006</v>
       </c>
       <c r="Q248">
         <v>443</v>
       </c>
       <c r="R248">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.22617187500000036</v>
       </c>
       <c r="S248">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.546875</v>
       </c>
       <c r="T248">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12.669954452514657</v>
       </c>
       <c r="V248">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.75269180297851501</v>
       </c>
     </row>
@@ -15793,7 +15796,7 @@
         <v>10802</v>
       </c>
       <c r="B249">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>116683204</v>
       </c>
       <c r="D249">
@@ -15803,7 +15806,7 @@
         <v>1188</v>
       </c>
       <c r="G249">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1411344</v>
       </c>
       <c r="J249">
@@ -15816,30 +15819,30 @@
         <v>604</v>
       </c>
       <c r="O249">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>19.782812500000006</v>
       </c>
       <c r="P249">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>15.700781250000006</v>
       </c>
       <c r="Q249">
         <v>540</v>
       </c>
       <c r="R249">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.1734375000000004</v>
       </c>
       <c r="S249">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.69980468750000036</v>
       </c>
       <c r="T249">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>32.26799041748049</v>
       </c>
       <c r="V249">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.1153717041015782E-2</v>
       </c>
     </row>
@@ -15848,7 +15851,7 @@
         <v>3696</v>
       </c>
       <c r="B250">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>13660416</v>
       </c>
       <c r="D250">
@@ -15858,7 +15861,7 @@
         <v>242</v>
       </c>
       <c r="G250">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>58564</v>
       </c>
       <c r="J250">
@@ -15871,30 +15874,30 @@
         <v>528</v>
       </c>
       <c r="O250">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>11.618750000000004</v>
       </c>
       <c r="P250">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.6806640625</v>
       </c>
       <c r="Q250">
         <v>564</v>
       </c>
       <c r="R250">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4078125000000004</v>
       </c>
       <c r="S250">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.2906250000000004</v>
       </c>
       <c r="T250">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>25.808384094238292</v>
       </c>
       <c r="V250">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.3769555664062509</v>
       </c>
     </row>
@@ -15903,7 +15906,7 @@
         <v>11330</v>
       </c>
       <c r="B251">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>128368900</v>
       </c>
       <c r="D251">
@@ -15913,7 +15916,7 @@
         <v>1034</v>
       </c>
       <c r="G251">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1069156</v>
       </c>
       <c r="J251">
@@ -15926,7 +15929,7 @@
         <v>385</v>
       </c>
       <c r="O251">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3.7425781249999961</v>
       </c>
       <c r="P251">
@@ -15937,19 +15940,19 @@
         <v>445</v>
       </c>
       <c r="R251">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.24570312500000036</v>
       </c>
       <c r="S251">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.82675781250000036</v>
       </c>
       <c r="T251">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.3083246612548827</v>
       </c>
       <c r="V251">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.9819360351562509</v>
       </c>
     </row>
@@ -15958,14 +15961,14 @@
         <v>16918</v>
       </c>
       <c r="B252">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>286218724</v>
       </c>
       <c r="F252">
         <v>1628</v>
       </c>
       <c r="G252">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2650384</v>
       </c>
       <c r="J252">
@@ -15975,7 +15978,7 @@
         <v>414</v>
       </c>
       <c r="V252">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6.0370025634765796E-2</v>
       </c>
     </row>
@@ -16067,7 +16070,7 @@
         <v>112</v>
       </c>
       <c r="C259">
-        <f t="shared" ref="C259:C298" si="46">B259 * B259</f>
+        <f t="shared" ref="C259:C298" si="48">B259 * B259</f>
         <v>12544</v>
       </c>
       <c r="D259">
@@ -16085,7 +16088,7 @@
         <v>482</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I298" si="47">H259 * H259</f>
+        <f t="shared" ref="I259:I298" si="49">H259 * H259</f>
         <v>232324</v>
       </c>
       <c r="J259">
@@ -16159,7 +16162,7 @@
         <v>190</v>
       </c>
       <c r="C260">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>36100</v>
       </c>
       <c r="G260">
@@ -16169,7 +16172,7 @@
         <v>640</v>
       </c>
       <c r="I260">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>409600</v>
       </c>
       <c r="M260">
@@ -16179,7 +16182,7 @@
         <v>64</v>
       </c>
       <c r="O260">
-        <f t="shared" ref="O260:O298" si="48">N260 * N260</f>
+        <f t="shared" ref="O260:O298" si="50">N260 * N260</f>
         <v>4096</v>
       </c>
       <c r="S260">
@@ -16189,7 +16192,7 @@
         <v>58</v>
       </c>
       <c r="U260">
-        <f t="shared" ref="U260:U298" si="49">T260*T260</f>
+        <f t="shared" ref="U260:U298" si="51">T260*T260</f>
         <v>3364</v>
       </c>
       <c r="Y260">
@@ -16199,7 +16202,7 @@
         <v>610</v>
       </c>
       <c r="AA260">
-        <f t="shared" ref="AA260:AA298" si="50">Z260*Z260</f>
+        <f t="shared" ref="AA260:AA298" si="52">Z260*Z260</f>
         <v>372100</v>
       </c>
     </row>
@@ -16211,7 +16214,7 @@
         <v>152</v>
       </c>
       <c r="C261">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>23104</v>
       </c>
       <c r="G261">
@@ -16221,7 +16224,7 @@
         <v>1372</v>
       </c>
       <c r="I261">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1882384</v>
       </c>
       <c r="M261">
@@ -16231,7 +16234,7 @@
         <v>138</v>
       </c>
       <c r="O261">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>19044</v>
       </c>
       <c r="S261">
@@ -16241,7 +16244,7 @@
         <v>134</v>
       </c>
       <c r="U261">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>17956</v>
       </c>
       <c r="Y261">
@@ -16251,7 +16254,7 @@
         <v>1354</v>
       </c>
       <c r="AA261">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1833316</v>
       </c>
     </row>
@@ -16263,7 +16266,7 @@
         <v>24</v>
       </c>
       <c r="C262">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>576</v>
       </c>
       <c r="G262">
@@ -16273,7 +16276,7 @@
         <v>1256</v>
       </c>
       <c r="I262">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1577536</v>
       </c>
       <c r="M262">
@@ -16283,7 +16286,7 @@
         <v>126</v>
       </c>
       <c r="O262">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>15876</v>
       </c>
       <c r="S262">
@@ -16293,7 +16296,7 @@
         <v>130</v>
       </c>
       <c r="U262">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>16900</v>
       </c>
       <c r="Y262">
@@ -16303,7 +16306,7 @@
         <v>1284</v>
       </c>
       <c r="AA262">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1648656</v>
       </c>
     </row>
@@ -16315,7 +16318,7 @@
         <v>170</v>
       </c>
       <c r="C263">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>28900</v>
       </c>
       <c r="G263">
@@ -16325,7 +16328,7 @@
         <v>512</v>
       </c>
       <c r="I263">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>262144</v>
       </c>
       <c r="M263">
@@ -16335,7 +16338,7 @@
         <v>50</v>
       </c>
       <c r="O263">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>2500</v>
       </c>
       <c r="S263">
@@ -16345,7 +16348,7 @@
         <v>42</v>
       </c>
       <c r="U263">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1764</v>
       </c>
       <c r="Y263">
@@ -16355,7 +16358,7 @@
         <v>464</v>
       </c>
       <c r="AA263">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>215296</v>
       </c>
     </row>
@@ -16367,7 +16370,7 @@
         <v>150</v>
       </c>
       <c r="C264">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>22500</v>
       </c>
       <c r="G264">
@@ -16377,7 +16380,7 @@
         <v>1312</v>
       </c>
       <c r="I264">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1721344</v>
       </c>
       <c r="M264">
@@ -16387,7 +16390,7 @@
         <v>130</v>
       </c>
       <c r="O264">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>16900</v>
       </c>
       <c r="S264">
@@ -16397,7 +16400,7 @@
         <v>128</v>
       </c>
       <c r="U264">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>16384</v>
       </c>
       <c r="Y264">
@@ -16407,7 +16410,7 @@
         <v>1304</v>
       </c>
       <c r="AA264">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1700416</v>
       </c>
     </row>
@@ -16419,7 +16422,7 @@
         <v>34</v>
       </c>
       <c r="C265">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1156</v>
       </c>
       <c r="G265">
@@ -16429,7 +16432,7 @@
         <v>1312</v>
       </c>
       <c r="I265">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1721344</v>
       </c>
       <c r="M265">
@@ -16439,7 +16442,7 @@
         <v>130</v>
       </c>
       <c r="O265">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>16900</v>
       </c>
       <c r="S265">
@@ -16449,7 +16452,7 @@
         <v>134</v>
       </c>
       <c r="U265">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>17956</v>
       </c>
       <c r="Y265">
@@ -16459,7 +16462,7 @@
         <v>1332</v>
       </c>
       <c r="AA265">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1774224</v>
       </c>
     </row>
@@ -16471,7 +16474,7 @@
         <v>112</v>
       </c>
       <c r="C266">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>12544</v>
       </c>
       <c r="G266">
@@ -16481,7 +16484,7 @@
         <v>502</v>
       </c>
       <c r="I266">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>252004</v>
       </c>
       <c r="M266">
@@ -16491,7 +16494,7 @@
         <v>50</v>
       </c>
       <c r="O266">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>2500</v>
       </c>
       <c r="S266">
@@ -16501,7 +16504,7 @@
         <v>58</v>
       </c>
       <c r="U266">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3364</v>
       </c>
       <c r="Y266">
@@ -16511,7 +16514,7 @@
         <v>552</v>
       </c>
       <c r="AA266">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>304704</v>
       </c>
     </row>
@@ -16523,7 +16526,7 @@
         <v>190</v>
       </c>
       <c r="C267">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>36100</v>
       </c>
       <c r="G267">
@@ -16533,7 +16536,7 @@
         <v>620</v>
       </c>
       <c r="I267">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>384400</v>
       </c>
       <c r="M267">
@@ -16543,7 +16546,7 @@
         <v>62</v>
       </c>
       <c r="O267">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3844</v>
       </c>
       <c r="S267">
@@ -16553,7 +16556,7 @@
         <v>54</v>
       </c>
       <c r="U267">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2916</v>
       </c>
       <c r="Y267">
@@ -16563,7 +16566,7 @@
         <v>572</v>
       </c>
       <c r="AA267">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>327184</v>
       </c>
     </row>
@@ -16575,7 +16578,7 @@
         <v>104</v>
       </c>
       <c r="C268">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10816</v>
       </c>
       <c r="G268">
@@ -16585,7 +16588,7 @@
         <v>1440</v>
       </c>
       <c r="I268">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2073600</v>
       </c>
       <c r="M268">
@@ -16595,7 +16598,7 @@
         <v>144</v>
       </c>
       <c r="O268">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>20736</v>
       </c>
       <c r="S268">
@@ -16605,7 +16608,7 @@
         <v>144</v>
       </c>
       <c r="U268">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>20736</v>
       </c>
       <c r="Y268">
@@ -16615,7 +16618,7 @@
         <v>1440</v>
       </c>
       <c r="AA268">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2073600</v>
       </c>
     </row>
@@ -16627,7 +16630,7 @@
         <v>44</v>
       </c>
       <c r="C269">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1936</v>
       </c>
       <c r="G269">
@@ -16637,7 +16640,7 @@
         <v>924</v>
       </c>
       <c r="I269">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>853776</v>
       </c>
       <c r="M269">
@@ -16647,7 +16650,7 @@
         <v>92</v>
       </c>
       <c r="O269">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8464</v>
       </c>
       <c r="S269">
@@ -16657,7 +16660,7 @@
         <v>100</v>
       </c>
       <c r="U269">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10000</v>
       </c>
       <c r="Y269">
@@ -16667,7 +16670,7 @@
         <v>952</v>
       </c>
       <c r="AA269">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>906304</v>
       </c>
     </row>
@@ -16679,7 +16682,7 @@
         <v>150</v>
       </c>
       <c r="C270">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>22500</v>
       </c>
       <c r="G270">
@@ -16689,7 +16692,7 @@
         <v>150</v>
       </c>
       <c r="I270">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>22500</v>
       </c>
       <c r="M270">
@@ -16699,7 +16702,7 @@
         <v>14</v>
       </c>
       <c r="O270">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>196</v>
       </c>
       <c r="S270">
@@ -16709,7 +16712,7 @@
         <v>6</v>
       </c>
       <c r="U270">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>36</v>
       </c>
       <c r="Y270">
@@ -16719,7 +16722,7 @@
         <v>112</v>
       </c>
       <c r="AA270">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>12544</v>
       </c>
     </row>
@@ -16731,7 +16734,7 @@
         <v>170</v>
       </c>
       <c r="C271">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>28900</v>
       </c>
       <c r="G271">
@@ -16741,7 +16744,7 @@
         <v>1128</v>
       </c>
       <c r="I271">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1272384</v>
       </c>
       <c r="M271">
@@ -16751,7 +16754,7 @@
         <v>112</v>
       </c>
       <c r="O271">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>12544</v>
       </c>
       <c r="S271">
@@ -16761,7 +16764,7 @@
         <v>108</v>
       </c>
       <c r="U271">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>11664</v>
       </c>
       <c r="Y271">
@@ -16771,7 +16774,7 @@
         <v>1108</v>
       </c>
       <c r="AA271">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1227664</v>
       </c>
     </row>
@@ -16783,7 +16786,7 @@
         <v>72</v>
       </c>
       <c r="C272">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5184</v>
       </c>
       <c r="G272">
@@ -16793,7 +16796,7 @@
         <v>1410</v>
       </c>
       <c r="I272">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1988100</v>
       </c>
       <c r="M272">
@@ -16803,7 +16806,7 @@
         <v>140</v>
       </c>
       <c r="O272">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>19600</v>
       </c>
       <c r="S272">
@@ -16813,7 +16816,7 @@
         <v>142</v>
       </c>
       <c r="U272">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>20164</v>
       </c>
       <c r="Y272">
@@ -16823,7 +16826,7 @@
         <v>1420</v>
       </c>
       <c r="AA272">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2016400</v>
       </c>
     </row>
@@ -16835,7 +16838,7 @@
         <v>132</v>
       </c>
       <c r="C273">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>17424</v>
       </c>
       <c r="G273">
@@ -16845,7 +16848,7 @@
         <v>298</v>
       </c>
       <c r="I273">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>88804</v>
       </c>
       <c r="M273">
@@ -16855,7 +16858,7 @@
         <v>30</v>
       </c>
       <c r="O273">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>900</v>
       </c>
       <c r="S273">
@@ -16865,7 +16868,7 @@
         <v>38</v>
       </c>
       <c r="U273">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1444</v>
       </c>
       <c r="Y273">
@@ -16875,7 +16878,7 @@
         <v>326</v>
       </c>
       <c r="AA273">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>106276</v>
       </c>
     </row>
@@ -16887,7 +16890,7 @@
         <v>190</v>
       </c>
       <c r="C274">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>36100</v>
       </c>
       <c r="G274">
@@ -16897,7 +16900,7 @@
         <v>806</v>
       </c>
       <c r="I274">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>649636</v>
       </c>
       <c r="M274">
@@ -16907,7 +16910,7 @@
         <v>80</v>
       </c>
       <c r="O274">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>6400</v>
       </c>
       <c r="S274">
@@ -16917,7 +16920,7 @@
         <v>74</v>
       </c>
       <c r="U274">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5476</v>
       </c>
       <c r="Y274">
@@ -16927,7 +16930,7 @@
         <v>776</v>
       </c>
       <c r="AA274">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>602176</v>
       </c>
     </row>
@@ -16939,7 +16942,7 @@
         <v>142</v>
       </c>
       <c r="C275">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20164</v>
       </c>
       <c r="G275">
@@ -16949,7 +16952,7 @@
         <v>1412</v>
       </c>
       <c r="I275">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1993744</v>
       </c>
       <c r="M275">
@@ -16959,7 +16962,7 @@
         <v>142</v>
       </c>
       <c r="O275">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>20164</v>
       </c>
       <c r="S275">
@@ -16969,7 +16972,7 @@
         <v>140</v>
       </c>
       <c r="U275">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>19600</v>
       </c>
       <c r="Y275">
@@ -16979,7 +16982,7 @@
         <v>1402</v>
       </c>
       <c r="AA275">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1965604</v>
       </c>
     </row>
@@ -16991,7 +16994,7 @@
         <v>6</v>
       </c>
       <c r="C276">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>36</v>
       </c>
       <c r="G276">
@@ -17001,7 +17004,7 @@
         <v>1168</v>
       </c>
       <c r="I276">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1364224</v>
       </c>
       <c r="M276">
@@ -17011,7 +17014,7 @@
         <v>118</v>
       </c>
       <c r="O276">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>13924</v>
       </c>
       <c r="S276">
@@ -17021,7 +17024,7 @@
         <v>120</v>
       </c>
       <c r="U276">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>14400</v>
       </c>
       <c r="Y276">
@@ -17031,7 +17034,7 @@
         <v>1188</v>
       </c>
       <c r="AA276">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1411344</v>
       </c>
     </row>
@@ -17043,7 +17046,7 @@
         <v>132</v>
       </c>
       <c r="C277">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>17424</v>
       </c>
       <c r="G277">
@@ -17053,7 +17056,7 @@
         <v>200</v>
       </c>
       <c r="I277">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>40000</v>
       </c>
       <c r="M277">
@@ -17063,7 +17066,7 @@
         <v>20</v>
       </c>
       <c r="O277">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>400</v>
       </c>
       <c r="S277">
@@ -17073,7 +17076,7 @@
         <v>28</v>
       </c>
       <c r="U277">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>784</v>
       </c>
       <c r="Y277">
@@ -17083,7 +17086,7 @@
         <v>240</v>
       </c>
       <c r="AA277">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>57600</v>
       </c>
     </row>
@@ -17095,7 +17098,7 @@
         <v>160</v>
       </c>
       <c r="C278">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25600</v>
       </c>
       <c r="G278">
@@ -17105,7 +17108,7 @@
         <v>1254</v>
       </c>
       <c r="I278">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1572516</v>
       </c>
       <c r="M278">
@@ -17115,7 +17118,7 @@
         <v>126</v>
       </c>
       <c r="O278">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>15876</v>
       </c>
       <c r="S278">
@@ -17125,7 +17128,7 @@
         <v>122</v>
       </c>
       <c r="U278">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>14884</v>
       </c>
       <c r="Y278">
@@ -17135,7 +17138,7 @@
         <v>1234</v>
       </c>
       <c r="AA278">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1522756</v>
       </c>
     </row>
@@ -17147,7 +17150,7 @@
         <v>54</v>
       </c>
       <c r="C279">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2916</v>
       </c>
       <c r="G279">
@@ -17157,7 +17160,7 @@
         <v>1362</v>
       </c>
       <c r="I279">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1855044</v>
       </c>
       <c r="M279">
@@ -17167,7 +17170,7 @@
         <v>136</v>
       </c>
       <c r="O279">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>18496</v>
       </c>
       <c r="S279">
@@ -17177,7 +17180,7 @@
         <v>138</v>
       </c>
       <c r="U279">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>19044</v>
       </c>
       <c r="Y279">
@@ -17187,7 +17190,7 @@
         <v>1382</v>
       </c>
       <c r="AA279">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1909924</v>
       </c>
     </row>
@@ -17199,7 +17202,7 @@
         <v>94</v>
       </c>
       <c r="C280">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8836</v>
       </c>
       <c r="G280">
@@ -17209,7 +17212,7 @@
         <v>630</v>
       </c>
       <c r="I280">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>396900</v>
       </c>
       <c r="M280">
@@ -17219,7 +17222,7 @@
         <v>62</v>
       </c>
       <c r="O280">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3844</v>
       </c>
       <c r="S280">
@@ -17229,7 +17232,7 @@
         <v>70</v>
       </c>
       <c r="U280">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4900</v>
       </c>
       <c r="Y280">
@@ -17239,7 +17242,7 @@
         <v>668</v>
       </c>
       <c r="AA280">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>446224</v>
       </c>
     </row>
@@ -17251,7 +17254,7 @@
         <v>182</v>
       </c>
       <c r="C281">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33124</v>
       </c>
       <c r="G281">
@@ -17261,7 +17264,7 @@
         <v>484</v>
       </c>
       <c r="I281">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>234256</v>
       </c>
       <c r="M281">
@@ -17271,7 +17274,7 @@
         <v>48</v>
       </c>
       <c r="O281">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>2304</v>
       </c>
       <c r="S281">
@@ -17281,7 +17284,7 @@
         <v>42</v>
       </c>
       <c r="U281">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1764</v>
       </c>
       <c r="Y281">
@@ -17291,7 +17294,7 @@
         <v>454</v>
       </c>
       <c r="AA281">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>206116</v>
       </c>
     </row>
@@ -17303,7 +17306,7 @@
         <v>172</v>
       </c>
       <c r="C282">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>29584</v>
       </c>
       <c r="G282">
@@ -17313,7 +17316,7 @@
         <v>1304</v>
       </c>
       <c r="I282">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1700416</v>
       </c>
       <c r="M282">
@@ -17323,7 +17326,7 @@
         <v>130</v>
       </c>
       <c r="O282">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>16900</v>
       </c>
       <c r="S282">
@@ -17333,7 +17336,7 @@
         <v>128</v>
       </c>
       <c r="U282">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>16384</v>
       </c>
       <c r="Y282">
@@ -17343,7 +17346,7 @@
         <v>1284</v>
       </c>
       <c r="AA282">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1648656</v>
       </c>
     </row>
@@ -17355,7 +17358,7 @@
         <v>24</v>
       </c>
       <c r="C283">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>576</v>
       </c>
       <c r="G283">
@@ -17365,7 +17368,7 @@
         <v>1022</v>
       </c>
       <c r="I283">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1044484</v>
       </c>
       <c r="M283">
@@ -17375,7 +17378,7 @@
         <v>102</v>
       </c>
       <c r="O283">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10404</v>
       </c>
       <c r="S283">
@@ -17385,7 +17388,7 @@
         <v>108</v>
       </c>
       <c r="U283">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>11664</v>
       </c>
       <c r="Y283">
@@ -17395,7 +17398,7 @@
         <v>1050</v>
       </c>
       <c r="AA283">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1102500</v>
       </c>
     </row>
@@ -17407,7 +17410,7 @@
         <v>150</v>
       </c>
       <c r="C284">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>22500</v>
       </c>
       <c r="G284">
@@ -17417,7 +17420,7 @@
         <v>14</v>
       </c>
       <c r="I284">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>196</v>
       </c>
       <c r="M284">
@@ -17427,7 +17430,7 @@
         <v>2</v>
       </c>
       <c r="O284">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4</v>
       </c>
       <c r="S284">
@@ -17437,7 +17440,7 @@
         <v>8</v>
       </c>
       <c r="U284">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>64</v>
       </c>
       <c r="Y284">
@@ -17447,7 +17450,7 @@
         <v>34</v>
       </c>
       <c r="AA284">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1156</v>
       </c>
     </row>
@@ -17459,7 +17462,7 @@
         <v>180</v>
       </c>
       <c r="C285">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32400</v>
       </c>
       <c r="G285">
@@ -17469,7 +17472,7 @@
         <v>1040</v>
       </c>
       <c r="I285">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1081600</v>
       </c>
       <c r="M285">
@@ -17479,7 +17482,7 @@
         <v>104</v>
       </c>
       <c r="O285">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10816</v>
       </c>
       <c r="S285">
@@ -17489,7 +17492,7 @@
         <v>98</v>
       </c>
       <c r="U285">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9604</v>
       </c>
       <c r="Y285">
@@ -17499,7 +17502,7 @@
         <v>1010</v>
       </c>
       <c r="AA285">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1020100</v>
       </c>
     </row>
@@ -17511,7 +17514,7 @@
         <v>92</v>
       </c>
       <c r="C286">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8464</v>
       </c>
       <c r="G286">
@@ -17521,7 +17524,7 @@
         <v>1430</v>
       </c>
       <c r="I286">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2044900</v>
       </c>
       <c r="M286">
@@ -17531,7 +17534,7 @@
         <v>142</v>
       </c>
       <c r="O286">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>20164</v>
       </c>
       <c r="S286">
@@ -17541,7 +17544,7 @@
         <v>142</v>
       </c>
       <c r="U286">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>20164</v>
       </c>
       <c r="Y286">
@@ -17551,7 +17554,7 @@
         <v>1430</v>
       </c>
       <c r="AA286">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2044900</v>
       </c>
     </row>
@@ -17563,7 +17566,7 @@
         <v>54</v>
       </c>
       <c r="C287">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2916</v>
       </c>
       <c r="G287">
@@ -17573,7 +17576,7 @@
         <v>932</v>
       </c>
       <c r="I287">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>868624</v>
       </c>
       <c r="M287">
@@ -17583,7 +17586,7 @@
         <v>92</v>
       </c>
       <c r="O287">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>8464</v>
       </c>
       <c r="S287">
@@ -17593,7 +17596,7 @@
         <v>100</v>
       </c>
       <c r="U287">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10000</v>
       </c>
       <c r="Y287">
@@ -17603,7 +17606,7 @@
         <v>972</v>
       </c>
       <c r="AA287">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>944784</v>
       </c>
     </row>
@@ -17615,7 +17618,7 @@
         <v>190</v>
       </c>
       <c r="C288">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>36100</v>
       </c>
       <c r="G288">
@@ -17625,7 +17628,7 @@
         <v>680</v>
       </c>
       <c r="I288">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>462400</v>
       </c>
       <c r="M288">
@@ -17635,7 +17638,7 @@
         <v>68</v>
       </c>
       <c r="O288">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4624</v>
       </c>
       <c r="S288">
@@ -17645,7 +17648,7 @@
         <v>62</v>
       </c>
       <c r="U288">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3844</v>
       </c>
       <c r="Y288">
@@ -17655,7 +17658,7 @@
         <v>650</v>
       </c>
       <c r="AA288">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>422500</v>
       </c>
     </row>
@@ -17667,7 +17670,7 @@
         <v>152</v>
       </c>
       <c r="C289">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>23104</v>
       </c>
       <c r="G289">
@@ -17677,7 +17680,7 @@
         <v>1382</v>
       </c>
       <c r="I289">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1909924</v>
       </c>
       <c r="M289">
@@ -17687,7 +17690,7 @@
         <v>138</v>
       </c>
       <c r="O289">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>19044</v>
       </c>
       <c r="S289">
@@ -17697,7 +17700,7 @@
         <v>136</v>
       </c>
       <c r="U289">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>18496</v>
       </c>
       <c r="Y289">
@@ -17707,7 +17710,7 @@
         <v>1372</v>
       </c>
       <c r="AA289">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1882384</v>
       </c>
     </row>
@@ -17719,7 +17722,7 @@
         <v>24</v>
       </c>
       <c r="C290">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>576</v>
       </c>
       <c r="G290">
@@ -17729,7 +17732,7 @@
         <v>1236</v>
       </c>
       <c r="I290">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1527696</v>
       </c>
       <c r="M290">
@@ -17739,7 +17742,7 @@
         <v>124</v>
       </c>
       <c r="O290">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>15376</v>
       </c>
       <c r="S290">
@@ -17749,7 +17752,7 @@
         <v>128</v>
       </c>
       <c r="U290">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>16384</v>
       </c>
       <c r="Y290">
@@ -17759,7 +17762,7 @@
         <v>1256</v>
       </c>
       <c r="AA290">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1577536</v>
       </c>
     </row>
@@ -17771,7 +17774,7 @@
         <v>112</v>
       </c>
       <c r="C291">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>12544</v>
       </c>
       <c r="G291">
@@ -17781,7 +17784,7 @@
         <v>348</v>
       </c>
       <c r="I291">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>121104</v>
       </c>
       <c r="M291">
@@ -17791,7 +17794,7 @@
         <v>36</v>
       </c>
       <c r="O291">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1296</v>
       </c>
       <c r="S291">
@@ -17801,7 +17804,7 @@
         <v>42</v>
       </c>
       <c r="U291">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1764</v>
       </c>
       <c r="Y291">
@@ -17811,7 +17814,7 @@
         <v>386</v>
       </c>
       <c r="AA291">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>148996</v>
       </c>
     </row>
@@ -17823,7 +17826,7 @@
         <v>180</v>
       </c>
       <c r="C292">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32400</v>
       </c>
       <c r="G292">
@@ -17833,7 +17836,7 @@
         <v>756</v>
       </c>
       <c r="I292">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>571536</v>
       </c>
       <c r="M292">
@@ -17843,7 +17846,7 @@
         <v>76</v>
       </c>
       <c r="O292">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>5776</v>
       </c>
       <c r="S292">
@@ -17853,7 +17856,7 @@
         <v>68</v>
       </c>
       <c r="U292">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4624</v>
       </c>
       <c r="Y292">
@@ -17863,7 +17866,7 @@
         <v>726</v>
       </c>
       <c r="AA292">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>527076</v>
       </c>
     </row>
@@ -17875,7 +17878,7 @@
         <v>72</v>
       </c>
       <c r="C293">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5184</v>
       </c>
       <c r="G293">
@@ -17885,7 +17888,7 @@
         <v>1400</v>
       </c>
       <c r="I293">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1960000</v>
       </c>
       <c r="M293">
@@ -17895,7 +17898,7 @@
         <v>140</v>
       </c>
       <c r="O293">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>19600</v>
       </c>
       <c r="S293">
@@ -17905,7 +17908,7 @@
         <v>140</v>
       </c>
       <c r="U293">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>19600</v>
       </c>
       <c r="Y293">
@@ -17915,7 +17918,7 @@
         <v>1410</v>
       </c>
       <c r="AA293">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1988100</v>
       </c>
     </row>
@@ -17927,7 +17930,7 @@
         <v>74</v>
       </c>
       <c r="C294">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5476</v>
       </c>
       <c r="G294">
@@ -17937,7 +17940,7 @@
         <v>766</v>
       </c>
       <c r="I294">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>586756</v>
       </c>
       <c r="M294">
@@ -17947,7 +17950,7 @@
         <v>76</v>
       </c>
       <c r="O294">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>5776</v>
       </c>
       <c r="S294">
@@ -17957,7 +17960,7 @@
         <v>82</v>
       </c>
       <c r="U294">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>6724</v>
       </c>
       <c r="Y294">
@@ -17967,7 +17970,7 @@
         <v>796</v>
       </c>
       <c r="AA294">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>633616</v>
       </c>
     </row>
@@ -17979,7 +17982,7 @@
         <v>182</v>
       </c>
       <c r="C295">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33124</v>
       </c>
       <c r="G295">
@@ -17989,7 +17992,7 @@
         <v>348</v>
       </c>
       <c r="I295">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>121104</v>
       </c>
       <c r="M295">
@@ -17999,7 +18002,7 @@
         <v>36</v>
       </c>
       <c r="O295">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1296</v>
       </c>
       <c r="S295">
@@ -18009,7 +18012,7 @@
         <v>28</v>
       </c>
       <c r="U295">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>784</v>
       </c>
       <c r="Y295">
@@ -18019,7 +18022,7 @@
         <v>308</v>
       </c>
       <c r="AA295">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>94864</v>
       </c>
     </row>
@@ -18031,7 +18034,7 @@
         <v>172</v>
       </c>
       <c r="C296">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>29584</v>
       </c>
       <c r="G296">
@@ -18041,7 +18044,7 @@
         <v>1246</v>
       </c>
       <c r="I296">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1552516</v>
       </c>
       <c r="M296">
@@ -18051,7 +18054,7 @@
         <v>124</v>
       </c>
       <c r="O296">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>15376</v>
       </c>
       <c r="S296">
@@ -18061,7 +18064,7 @@
         <v>120</v>
       </c>
       <c r="U296">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>14400</v>
       </c>
       <c r="Y296">
@@ -18071,7 +18074,7 @@
         <v>1216</v>
       </c>
       <c r="AA296">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1478656</v>
       </c>
     </row>
@@ -18083,7 +18086,7 @@
         <v>64</v>
       </c>
       <c r="C297">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>4096</v>
       </c>
       <c r="G297">
@@ -18093,7 +18096,7 @@
         <v>1382</v>
       </c>
       <c r="I297">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1909924</v>
       </c>
       <c r="M297">
@@ -18103,7 +18106,7 @@
         <v>138</v>
       </c>
       <c r="O297">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>19044</v>
       </c>
       <c r="S297">
@@ -18113,7 +18116,7 @@
         <v>140</v>
       </c>
       <c r="U297">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>19600</v>
       </c>
       <c r="Y297">
@@ -18123,7 +18126,7 @@
         <v>1382</v>
       </c>
       <c r="AA297">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1909924</v>
       </c>
     </row>
@@ -18135,7 +18138,7 @@
         <v>132</v>
       </c>
       <c r="C298">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>17424</v>
       </c>
       <c r="G298">
@@ -18145,7 +18148,7 @@
         <v>122</v>
       </c>
       <c r="I298">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>14884</v>
       </c>
       <c r="M298">
@@ -18155,7 +18158,7 @@
         <v>12</v>
       </c>
       <c r="O298">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>144</v>
       </c>
       <c r="S298">
@@ -18165,7 +18168,7 @@
         <v>20</v>
       </c>
       <c r="U298">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>400</v>
       </c>
       <c r="Y298">
@@ -18175,7 +18178,7 @@
         <v>162</v>
       </c>
       <c r="AA298">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>26244</v>
       </c>
     </row>

--- a/Basic/Tony_Huang/Book1.xlsx
+++ b/Basic/Tony_Huang/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhua835\Downloads\ec209-project-2023_team-22\Basic\Tony_Huang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Sem 2\COMPSYS209\ec209-project-2023_team-22\Basic\Tony_Huang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF6097-439D-468F-88F8-4A8D0725DB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CCF63D-134D-482D-8CA5-B4B264AEF3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7E05461-0193-4B7E-975C-B664CF06D085}"/>
   </bookViews>
@@ -4021,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F34B049-2C4F-43C1-AAC7-5FF518FB1B35}">
   <dimension ref="A1:CD298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R212" sqref="R212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
